--- a/GB Accounts 2022-23/GB Accounts SE Extra 2023-04-05 (Apr23) Excel 2007/Financialaccounts050423.xlsx
+++ b/GB Accounts 2022-23/GB Accounts SE Extra 2023-04-05 (Apr23) Excel 2007/Financialaccounts050423.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2022-23/GB Accounts SE Extra 2023-04-05 (Apr23) Excel 2007/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F875754-F1CB-8C4C-9591-06C270171014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15FF20C-3DC1-434E-B79F-746FD4C20732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="23460" windowHeight="16260" tabRatio="906" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23460" windowHeight="16260" tabRatio="906" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Details" sheetId="17" r:id="rId1"/>
@@ -3599,6 +3599,52 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="24" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3610,15 +3656,6 @@
     <xf numFmtId="3" fontId="24" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3637,38 +3674,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -3682,142 +3774,120 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="15" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="15" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -3852,72 +3922,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4014,6 +4018,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -4035,22 +4057,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4062,52 +4081,33 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6588,31 +6588,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="297" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="F1" s="317"/>
-      <c r="G1" s="317"/>
-      <c r="H1" s="317"/>
-      <c r="I1" s="317"/>
-      <c r="J1" s="317"/>
-      <c r="K1" s="317"/>
-      <c r="L1" s="317"/>
-      <c r="M1" s="317"/>
-      <c r="N1" s="317"/>
-      <c r="O1" s="317"/>
-      <c r="P1" s="317"/>
-      <c r="Q1" s="317"/>
-      <c r="R1" s="317"/>
-      <c r="S1" s="317"/>
-      <c r="T1" s="317"/>
-      <c r="U1" s="317"/>
-      <c r="V1" s="317"/>
-      <c r="W1" s="318"/>
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="298"/>
+      <c r="L1" s="298"/>
+      <c r="M1" s="298"/>
+      <c r="N1" s="298"/>
+      <c r="O1" s="298"/>
+      <c r="P1" s="298"/>
+      <c r="Q1" s="298"/>
+      <c r="R1" s="298"/>
+      <c r="S1" s="298"/>
+      <c r="T1" s="298"/>
+      <c r="U1" s="298"/>
+      <c r="V1" s="298"/>
+      <c r="W1" s="299"/>
     </row>
     <row r="2" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="177"/>
@@ -6696,25 +6696,25 @@
     <row r="5" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="180"/>
       <c r="B5" s="181"/>
-      <c r="C5" s="308"/>
-      <c r="D5" s="309"/>
-      <c r="E5" s="309"/>
-      <c r="F5" s="309"/>
-      <c r="G5" s="309"/>
-      <c r="H5" s="309"/>
-      <c r="I5" s="309"/>
-      <c r="J5" s="310"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="301"/>
+      <c r="H5" s="301"/>
+      <c r="I5" s="301"/>
+      <c r="J5" s="302"/>
       <c r="K5" s="181"/>
       <c r="L5" s="181"/>
       <c r="M5" s="181"/>
       <c r="N5" s="181"/>
-      <c r="O5" s="308"/>
-      <c r="P5" s="310"/>
+      <c r="O5" s="300"/>
+      <c r="P5" s="302"/>
       <c r="Q5" s="181"/>
-      <c r="R5" s="308"/>
-      <c r="S5" s="309"/>
-      <c r="T5" s="309"/>
-      <c r="U5" s="310"/>
+      <c r="R5" s="300"/>
+      <c r="S5" s="301"/>
+      <c r="T5" s="301"/>
+      <c r="U5" s="302"/>
       <c r="V5" s="181"/>
       <c r="W5" s="184"/>
     </row>
@@ -6746,14 +6746,14 @@
     <row r="7" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="185"/>
       <c r="B7" s="181"/>
-      <c r="C7" s="308"/>
-      <c r="D7" s="309"/>
-      <c r="E7" s="309"/>
-      <c r="F7" s="309"/>
-      <c r="G7" s="309"/>
-      <c r="H7" s="309"/>
-      <c r="I7" s="309"/>
-      <c r="J7" s="310"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="301"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="301"/>
+      <c r="J7" s="302"/>
       <c r="K7" s="181"/>
       <c r="L7" s="181"/>
       <c r="M7" s="181"/>
@@ -6794,31 +6794,31 @@
       <c r="W8" s="190"/>
     </row>
     <row r="9" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="314" t="s">
+      <c r="A9" s="295" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="314"/>
-      <c r="C9" s="314"/>
-      <c r="D9" s="314"/>
-      <c r="E9" s="314"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="314"/>
-      <c r="H9" s="314"/>
-      <c r="I9" s="314"/>
-      <c r="J9" s="314"/>
-      <c r="K9" s="314"/>
-      <c r="L9" s="314"/>
-      <c r="M9" s="314"/>
-      <c r="N9" s="314"/>
-      <c r="O9" s="314"/>
-      <c r="P9" s="314"/>
-      <c r="Q9" s="314"/>
-      <c r="R9" s="314"/>
-      <c r="S9" s="314"/>
-      <c r="T9" s="314"/>
-      <c r="U9" s="314"/>
-      <c r="V9" s="314"/>
-      <c r="W9" s="315"/>
+      <c r="B9" s="295"/>
+      <c r="C9" s="295"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="295"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="295"/>
+      <c r="K9" s="295"/>
+      <c r="L9" s="295"/>
+      <c r="M9" s="295"/>
+      <c r="N9" s="295"/>
+      <c r="O9" s="295"/>
+      <c r="P9" s="295"/>
+      <c r="Q9" s="295"/>
+      <c r="R9" s="295"/>
+      <c r="S9" s="295"/>
+      <c r="T9" s="295"/>
+      <c r="U9" s="295"/>
+      <c r="V9" s="295"/>
+      <c r="W9" s="296"/>
     </row>
     <row r="10" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="191"/>
@@ -6881,14 +6881,14 @@
     <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="185"/>
       <c r="B12" s="181"/>
-      <c r="C12" s="308"/>
-      <c r="D12" s="309"/>
-      <c r="E12" s="309"/>
-      <c r="F12" s="309"/>
-      <c r="G12" s="309"/>
-      <c r="H12" s="309"/>
-      <c r="I12" s="309"/>
-      <c r="J12" s="310"/>
+      <c r="C12" s="300"/>
+      <c r="D12" s="301"/>
+      <c r="E12" s="301"/>
+      <c r="F12" s="301"/>
+      <c r="G12" s="301"/>
+      <c r="H12" s="301"/>
+      <c r="I12" s="301"/>
+      <c r="J12" s="302"/>
       <c r="K12" s="181"/>
       <c r="L12" s="181"/>
       <c r="M12" s="181"/>
@@ -6935,14 +6935,14 @@
     <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="185"/>
       <c r="B14" s="181"/>
-      <c r="C14" s="308"/>
-      <c r="D14" s="309"/>
-      <c r="E14" s="309"/>
-      <c r="F14" s="309"/>
-      <c r="G14" s="309"/>
-      <c r="H14" s="309"/>
-      <c r="I14" s="309"/>
-      <c r="J14" s="310"/>
+      <c r="C14" s="300"/>
+      <c r="D14" s="301"/>
+      <c r="E14" s="301"/>
+      <c r="F14" s="301"/>
+      <c r="G14" s="301"/>
+      <c r="H14" s="301"/>
+      <c r="I14" s="301"/>
+      <c r="J14" s="302"/>
       <c r="K14" s="181"/>
       <c r="L14" s="181"/>
       <c r="M14" s="181"/>
@@ -7009,26 +7009,26 @@
       <c r="P16" s="182"/>
       <c r="Q16" s="182"/>
       <c r="R16" s="181"/>
-      <c r="S16" s="311">
+      <c r="S16" s="306">
         <f>Admin!B4</f>
         <v>44657</v>
       </c>
-      <c r="T16" s="312"/>
-      <c r="U16" s="312"/>
-      <c r="V16" s="312"/>
+      <c r="T16" s="307"/>
+      <c r="U16" s="307"/>
+      <c r="V16" s="307"/>
       <c r="W16" s="187"/>
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="185"/>
       <c r="B17" s="181"/>
-      <c r="C17" s="308"/>
-      <c r="D17" s="309"/>
-      <c r="E17" s="309"/>
-      <c r="F17" s="309"/>
-      <c r="G17" s="309"/>
-      <c r="H17" s="309"/>
-      <c r="I17" s="309"/>
-      <c r="J17" s="310"/>
+      <c r="C17" s="300"/>
+      <c r="D17" s="301"/>
+      <c r="E17" s="301"/>
+      <c r="F17" s="301"/>
+      <c r="G17" s="301"/>
+      <c r="H17" s="301"/>
+      <c r="I17" s="301"/>
+      <c r="J17" s="302"/>
       <c r="K17" s="181"/>
       <c r="L17" s="181"/>
       <c r="M17" s="181"/>
@@ -7073,21 +7073,21 @@
     <row r="19" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="185"/>
       <c r="B19" s="181"/>
-      <c r="C19" s="308"/>
-      <c r="D19" s="309"/>
-      <c r="E19" s="309"/>
-      <c r="F19" s="309"/>
-      <c r="G19" s="309"/>
-      <c r="H19" s="309"/>
-      <c r="I19" s="309"/>
-      <c r="J19" s="310"/>
+      <c r="C19" s="300"/>
+      <c r="D19" s="301"/>
+      <c r="E19" s="301"/>
+      <c r="F19" s="301"/>
+      <c r="G19" s="301"/>
+      <c r="H19" s="301"/>
+      <c r="I19" s="301"/>
+      <c r="J19" s="302"/>
       <c r="K19" s="181"/>
       <c r="L19" s="181"/>
       <c r="M19" s="181"/>
-      <c r="N19" s="299"/>
-      <c r="O19" s="300"/>
-      <c r="P19" s="300"/>
-      <c r="Q19" s="301"/>
+      <c r="N19" s="303"/>
+      <c r="O19" s="304"/>
+      <c r="P19" s="304"/>
+      <c r="Q19" s="305"/>
       <c r="R19" s="181"/>
       <c r="S19" s="181"/>
       <c r="T19" s="181"/>
@@ -7123,14 +7123,14 @@
     <row r="21" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="185"/>
       <c r="B21" s="181"/>
-      <c r="C21" s="308"/>
-      <c r="D21" s="309"/>
-      <c r="E21" s="309"/>
-      <c r="F21" s="309"/>
-      <c r="G21" s="309"/>
-      <c r="H21" s="309"/>
-      <c r="I21" s="309"/>
-      <c r="J21" s="310"/>
+      <c r="C21" s="300"/>
+      <c r="D21" s="301"/>
+      <c r="E21" s="301"/>
+      <c r="F21" s="301"/>
+      <c r="G21" s="301"/>
+      <c r="H21" s="301"/>
+      <c r="I21" s="301"/>
+      <c r="J21" s="302"/>
       <c r="K21" s="181"/>
       <c r="L21" s="194">
         <v>7</v>
@@ -7143,13 +7143,13 @@
       <c r="P21" s="182"/>
       <c r="Q21" s="182"/>
       <c r="R21" s="181"/>
-      <c r="S21" s="311">
+      <c r="S21" s="306">
         <f>Admin!B17</f>
         <v>45021</v>
       </c>
-      <c r="T21" s="312"/>
-      <c r="U21" s="312"/>
-      <c r="V21" s="312"/>
+      <c r="T21" s="307"/>
+      <c r="U21" s="307"/>
+      <c r="V21" s="307"/>
       <c r="W21" s="187"/>
     </row>
     <row r="22" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
@@ -7166,17 +7166,17 @@
       <c r="K22" s="181"/>
       <c r="L22" s="181"/>
       <c r="M22" s="181"/>
-      <c r="N22" s="313" t="s">
+      <c r="N22" s="308" t="s">
         <v>146</v>
       </c>
-      <c r="O22" s="313"/>
-      <c r="P22" s="313"/>
-      <c r="Q22" s="313"/>
-      <c r="R22" s="313"/>
-      <c r="S22" s="313"/>
-      <c r="T22" s="313"/>
-      <c r="U22" s="313"/>
-      <c r="V22" s="313"/>
+      <c r="O22" s="308"/>
+      <c r="P22" s="308"/>
+      <c r="Q22" s="308"/>
+      <c r="R22" s="308"/>
+      <c r="S22" s="308"/>
+      <c r="T22" s="308"/>
+      <c r="U22" s="308"/>
+      <c r="V22" s="308"/>
       <c r="W22" s="199"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.15">
@@ -7197,15 +7197,15 @@
       <c r="K23" s="181"/>
       <c r="L23" s="181"/>
       <c r="M23" s="181"/>
-      <c r="N23" s="313"/>
-      <c r="O23" s="313"/>
-      <c r="P23" s="313"/>
-      <c r="Q23" s="313"/>
-      <c r="R23" s="313"/>
-      <c r="S23" s="313"/>
-      <c r="T23" s="313"/>
-      <c r="U23" s="313"/>
-      <c r="V23" s="313"/>
+      <c r="N23" s="308"/>
+      <c r="O23" s="308"/>
+      <c r="P23" s="308"/>
+      <c r="Q23" s="308"/>
+      <c r="R23" s="308"/>
+      <c r="S23" s="308"/>
+      <c r="T23" s="308"/>
+      <c r="U23" s="308"/>
+      <c r="V23" s="308"/>
       <c r="W23" s="199"/>
     </row>
     <row r="24" spans="1:23" ht="14" x14ac:dyDescent="0.15">
@@ -7224,10 +7224,10 @@
       <c r="K24" s="181"/>
       <c r="L24" s="181"/>
       <c r="M24" s="181"/>
-      <c r="N24" s="299"/>
-      <c r="O24" s="300"/>
-      <c r="P24" s="300"/>
-      <c r="Q24" s="301"/>
+      <c r="N24" s="303"/>
+      <c r="O24" s="304"/>
+      <c r="P24" s="304"/>
+      <c r="Q24" s="305"/>
       <c r="R24" s="181"/>
       <c r="S24" s="181"/>
       <c r="T24" s="181"/>
@@ -7238,14 +7238,14 @@
     <row r="25" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="185"/>
       <c r="B25" s="181"/>
-      <c r="C25" s="308"/>
-      <c r="D25" s="309"/>
-      <c r="E25" s="309"/>
-      <c r="F25" s="309"/>
-      <c r="G25" s="309"/>
-      <c r="H25" s="309"/>
-      <c r="I25" s="309"/>
-      <c r="J25" s="310"/>
+      <c r="C25" s="300"/>
+      <c r="D25" s="301"/>
+      <c r="E25" s="301"/>
+      <c r="F25" s="301"/>
+      <c r="G25" s="301"/>
+      <c r="H25" s="301"/>
+      <c r="I25" s="301"/>
+      <c r="J25" s="302"/>
       <c r="K25" s="181"/>
       <c r="L25" s="194">
         <v>8</v>
@@ -7294,21 +7294,21 @@
     <row r="27" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="185"/>
       <c r="B27" s="181"/>
-      <c r="C27" s="308"/>
-      <c r="D27" s="309"/>
-      <c r="E27" s="309"/>
-      <c r="F27" s="309"/>
-      <c r="G27" s="309"/>
-      <c r="H27" s="309"/>
-      <c r="I27" s="309"/>
-      <c r="J27" s="310"/>
+      <c r="C27" s="300"/>
+      <c r="D27" s="301"/>
+      <c r="E27" s="301"/>
+      <c r="F27" s="301"/>
+      <c r="G27" s="301"/>
+      <c r="H27" s="301"/>
+      <c r="I27" s="301"/>
+      <c r="J27" s="302"/>
       <c r="K27" s="181"/>
       <c r="L27" s="181"/>
       <c r="M27" s="181"/>
-      <c r="N27" s="299"/>
-      <c r="O27" s="300"/>
-      <c r="P27" s="300"/>
-      <c r="Q27" s="301"/>
+      <c r="N27" s="303"/>
+      <c r="O27" s="304"/>
+      <c r="P27" s="304"/>
+      <c r="Q27" s="305"/>
       <c r="R27" s="181"/>
       <c r="S27" s="181"/>
       <c r="T27" s="181"/>
@@ -7377,8 +7377,8 @@
     <row r="30" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="185"/>
       <c r="B30" s="181"/>
-      <c r="C30" s="294"/>
-      <c r="D30" s="295"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="310"/>
       <c r="E30" s="181"/>
       <c r="F30" s="204"/>
       <c r="G30" s="181"/>
@@ -7442,13 +7442,13 @@
       <c r="K32" s="181"/>
       <c r="L32" s="181"/>
       <c r="M32" s="181"/>
-      <c r="N32" s="299">
+      <c r="N32" s="303">
         <f>Admin!B17</f>
         <v>45021</v>
       </c>
-      <c r="O32" s="300"/>
-      <c r="P32" s="300"/>
-      <c r="Q32" s="301"/>
+      <c r="O32" s="304"/>
+      <c r="P32" s="304"/>
+      <c r="Q32" s="305"/>
       <c r="R32" s="181"/>
       <c r="S32" s="181"/>
       <c r="T32" s="181"/>
@@ -7482,31 +7482,31 @@
       <c r="W33" s="207"/>
     </row>
     <row r="34" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="302" t="s">
+      <c r="A34" s="314" t="s">
         <v>155</v>
       </c>
-      <c r="B34" s="302"/>
-      <c r="C34" s="302"/>
-      <c r="D34" s="302"/>
-      <c r="E34" s="302"/>
-      <c r="F34" s="302"/>
-      <c r="G34" s="302"/>
-      <c r="H34" s="302"/>
-      <c r="I34" s="302"/>
-      <c r="J34" s="302"/>
-      <c r="K34" s="302"/>
-      <c r="L34" s="302"/>
-      <c r="M34" s="302"/>
-      <c r="N34" s="302"/>
-      <c r="O34" s="302"/>
-      <c r="P34" s="302"/>
-      <c r="Q34" s="302"/>
-      <c r="R34" s="302"/>
-      <c r="S34" s="302"/>
-      <c r="T34" s="302"/>
-      <c r="U34" s="302"/>
-      <c r="V34" s="302"/>
-      <c r="W34" s="302"/>
+      <c r="B34" s="314"/>
+      <c r="C34" s="314"/>
+      <c r="D34" s="314"/>
+      <c r="E34" s="314"/>
+      <c r="F34" s="314"/>
+      <c r="G34" s="314"/>
+      <c r="H34" s="314"/>
+      <c r="I34" s="314"/>
+      <c r="J34" s="314"/>
+      <c r="K34" s="314"/>
+      <c r="L34" s="314"/>
+      <c r="M34" s="314"/>
+      <c r="N34" s="314"/>
+      <c r="O34" s="314"/>
+      <c r="P34" s="314"/>
+      <c r="Q34" s="314"/>
+      <c r="R34" s="314"/>
+      <c r="S34" s="314"/>
+      <c r="T34" s="314"/>
+      <c r="U34" s="314"/>
+      <c r="V34" s="314"/>
+      <c r="W34" s="314"/>
     </row>
     <row r="35" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="191"/>
@@ -7926,11 +7926,11 @@
       <c r="C50" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="303">
-        <v>0</v>
-      </c>
-      <c r="E50" s="304"/>
-      <c r="F50" s="305"/>
+      <c r="D50" s="315">
+        <v>0</v>
+      </c>
+      <c r="E50" s="316"/>
+      <c r="F50" s="317"/>
       <c r="G50" s="210" t="s">
         <v>167</v>
       </c>
@@ -7947,9 +7947,9 @@
       <c r="N50" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="O50" s="303"/>
-      <c r="P50" s="306"/>
-      <c r="Q50" s="307"/>
+      <c r="O50" s="315"/>
+      <c r="P50" s="318"/>
+      <c r="Q50" s="319"/>
       <c r="R50" s="210" t="s">
         <v>167</v>
       </c>
@@ -8077,12 +8077,12 @@
       <c r="C55" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="296">
+      <c r="D55" s="311">
         <f>'SE Short'!O94</f>
         <v>0</v>
       </c>
-      <c r="E55" s="297"/>
-      <c r="F55" s="298"/>
+      <c r="E55" s="312"/>
+      <c r="F55" s="313"/>
       <c r="G55" s="210" t="s">
         <v>167</v>
       </c>
@@ -8099,12 +8099,12 @@
       <c r="N55" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="O55" s="296">
+      <c r="O55" s="311">
         <f>D50-D55+'SE Short'!O106</f>
         <v>0</v>
       </c>
-      <c r="P55" s="297"/>
-      <c r="Q55" s="298"/>
+      <c r="P55" s="312"/>
+      <c r="Q55" s="313"/>
       <c r="R55" s="210" t="s">
         <v>167</v>
       </c>
@@ -8145,12 +8145,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A9:W9"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="A34:W34"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="O50:Q50"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="N27:Q27"/>
     <mergeCell ref="C12:J12"/>
@@ -8164,13 +8165,12 @@
     <mergeCell ref="N22:V23"/>
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="O55:Q55"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="A34:W34"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="A9:W9"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="C7:J7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8213,120 +8213,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="349" t="s">
+      <c r="A1" s="320" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="350"/>
-      <c r="C1" s="350"/>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="351" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="322" t="s">
         <v>396</v>
       </c>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
-      <c r="N1" s="353"/>
-      <c r="O1" s="354" t="s">
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="324"/>
+      <c r="O1" s="325" t="s">
         <v>296</v>
       </c>
-      <c r="P1" s="354"/>
-      <c r="Q1" s="354"/>
-      <c r="R1" s="354"/>
-      <c r="S1" s="354"/>
-      <c r="T1" s="354"/>
-      <c r="U1" s="354"/>
-      <c r="V1" s="354"/>
-      <c r="W1" s="354"/>
+      <c r="P1" s="325"/>
+      <c r="Q1" s="325"/>
+      <c r="R1" s="325"/>
+      <c r="S1" s="325"/>
+      <c r="T1" s="325"/>
+      <c r="U1" s="325"/>
+      <c r="V1" s="325"/>
+      <c r="W1" s="325"/>
     </row>
     <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="350"/>
-      <c r="B2" s="350"/>
-      <c r="C2" s="350"/>
-      <c r="D2" s="350"/>
-      <c r="E2" s="350"/>
-      <c r="F2" s="350"/>
-      <c r="G2" s="352"/>
-      <c r="H2" s="352"/>
-      <c r="I2" s="352"/>
-      <c r="J2" s="352"/>
-      <c r="K2" s="352"/>
-      <c r="L2" s="352"/>
-      <c r="M2" s="352"/>
-      <c r="N2" s="353"/>
-      <c r="O2" s="355" t="s">
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="323"/>
+      <c r="H2" s="323"/>
+      <c r="I2" s="323"/>
+      <c r="J2" s="323"/>
+      <c r="K2" s="323"/>
+      <c r="L2" s="323"/>
+      <c r="M2" s="323"/>
+      <c r="N2" s="324"/>
+      <c r="O2" s="326" t="s">
         <v>173</v>
       </c>
-      <c r="P2" s="355"/>
-      <c r="Q2" s="356">
+      <c r="P2" s="326"/>
+      <c r="Q2" s="327">
         <f>Admin!B4</f>
         <v>44657</v>
       </c>
-      <c r="R2" s="357"/>
-      <c r="S2" s="357"/>
-      <c r="T2" s="357"/>
+      <c r="R2" s="328"/>
+      <c r="S2" s="328"/>
+      <c r="T2" s="328"/>
       <c r="U2" s="222" t="s">
         <v>174</v>
       </c>
-      <c r="V2" s="356">
+      <c r="V2" s="327">
         <f>Admin!B17</f>
         <v>45021</v>
       </c>
-      <c r="W2" s="356"/>
+      <c r="W2" s="327"/>
     </row>
     <row r="3" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="339"/>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="340"/>
-      <c r="F3" s="340"/>
-      <c r="G3" s="340"/>
-      <c r="H3" s="340"/>
-      <c r="I3" s="340"/>
-      <c r="J3" s="340"/>
-      <c r="K3" s="340"/>
-      <c r="L3" s="340"/>
-      <c r="M3" s="340"/>
-      <c r="N3" s="340"/>
-      <c r="O3" s="340"/>
-      <c r="P3" s="340"/>
-      <c r="Q3" s="340"/>
-      <c r="R3" s="340"/>
-      <c r="S3" s="340"/>
-      <c r="T3" s="340"/>
-      <c r="U3" s="340"/>
-      <c r="V3" s="340"/>
-      <c r="W3" s="340"/>
+      <c r="A3" s="332"/>
+      <c r="B3" s="333"/>
+      <c r="C3" s="333"/>
+      <c r="D3" s="333"/>
+      <c r="E3" s="333"/>
+      <c r="F3" s="333"/>
+      <c r="G3" s="333"/>
+      <c r="H3" s="333"/>
+      <c r="I3" s="333"/>
+      <c r="J3" s="333"/>
+      <c r="K3" s="333"/>
+      <c r="L3" s="333"/>
+      <c r="M3" s="333"/>
+      <c r="N3" s="333"/>
+      <c r="O3" s="333"/>
+      <c r="P3" s="333"/>
+      <c r="Q3" s="333"/>
+      <c r="R3" s="333"/>
+      <c r="S3" s="333"/>
+      <c r="T3" s="333"/>
+      <c r="U3" s="333"/>
+      <c r="V3" s="333"/>
+      <c r="W3" s="333"/>
     </row>
     <row r="4" spans="1:23" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="341"/>
-      <c r="B4" s="341"/>
-      <c r="C4" s="341"/>
-      <c r="D4" s="341"/>
-      <c r="E4" s="341"/>
-      <c r="F4" s="341"/>
-      <c r="G4" s="341"/>
-      <c r="H4" s="341"/>
-      <c r="I4" s="341"/>
-      <c r="J4" s="341"/>
-      <c r="K4" s="341"/>
-      <c r="L4" s="341"/>
-      <c r="M4" s="341"/>
-      <c r="N4" s="341"/>
-      <c r="O4" s="341"/>
-      <c r="P4" s="341"/>
-      <c r="Q4" s="341"/>
-      <c r="R4" s="341"/>
-      <c r="S4" s="341"/>
-      <c r="T4" s="341"/>
-      <c r="U4" s="341"/>
-      <c r="V4" s="341"/>
-      <c r="W4" s="342"/>
+      <c r="A4" s="334"/>
+      <c r="B4" s="334"/>
+      <c r="C4" s="334"/>
+      <c r="D4" s="334"/>
+      <c r="E4" s="334"/>
+      <c r="F4" s="334"/>
+      <c r="G4" s="334"/>
+      <c r="H4" s="334"/>
+      <c r="I4" s="334"/>
+      <c r="J4" s="334"/>
+      <c r="K4" s="334"/>
+      <c r="L4" s="334"/>
+      <c r="M4" s="334"/>
+      <c r="N4" s="334"/>
+      <c r="O4" s="334"/>
+      <c r="P4" s="334"/>
+      <c r="Q4" s="334"/>
+      <c r="R4" s="334"/>
+      <c r="S4" s="334"/>
+      <c r="T4" s="334"/>
+      <c r="U4" s="334"/>
+      <c r="V4" s="334"/>
+      <c r="W4" s="335"/>
     </row>
     <row r="5" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="223"/>
@@ -8410,34 +8410,34 @@
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="226"/>
       <c r="B8" s="220"/>
-      <c r="C8" s="343" t="str">
+      <c r="C8" s="336" t="str">
         <f>IF('Business Details'!C5&gt;0,'Business Details'!C5:J5," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D8" s="344"/>
-      <c r="E8" s="344"/>
-      <c r="F8" s="344"/>
-      <c r="G8" s="344"/>
-      <c r="H8" s="344"/>
-      <c r="I8" s="344"/>
-      <c r="J8" s="345"/>
+      <c r="D8" s="337"/>
+      <c r="E8" s="337"/>
+      <c r="F8" s="337"/>
+      <c r="G8" s="337"/>
+      <c r="H8" s="337"/>
+      <c r="I8" s="337"/>
+      <c r="J8" s="338"/>
       <c r="K8" s="220"/>
       <c r="L8" s="220"/>
       <c r="M8" s="220"/>
       <c r="N8" s="220"/>
-      <c r="O8" s="308" t="str">
+      <c r="O8" s="300" t="str">
         <f>IF('Business Details'!O5&gt;0,'Business Details'!O5," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P8" s="310"/>
+      <c r="P8" s="302"/>
       <c r="Q8" s="181"/>
-      <c r="R8" s="308" t="str">
+      <c r="R8" s="300" t="str">
         <f>IF('Business Details'!R5&gt;0,'Business Details'!R5," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S8" s="309"/>
-      <c r="T8" s="309"/>
-      <c r="U8" s="310"/>
+      <c r="S8" s="301"/>
+      <c r="T8" s="301"/>
+      <c r="U8" s="302"/>
       <c r="V8" s="220"/>
       <c r="W8" s="229"/>
     </row>
@@ -8467,31 +8467,31 @@
       <c r="W9" s="232"/>
     </row>
     <row r="10" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="346" t="s">
+      <c r="A10" s="339" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="346"/>
-      <c r="C10" s="346"/>
-      <c r="D10" s="346"/>
-      <c r="E10" s="346"/>
-      <c r="F10" s="346"/>
-      <c r="G10" s="346"/>
-      <c r="H10" s="346"/>
-      <c r="I10" s="346"/>
-      <c r="J10" s="346"/>
-      <c r="K10" s="346"/>
-      <c r="L10" s="346"/>
-      <c r="M10" s="346"/>
-      <c r="N10" s="346"/>
-      <c r="O10" s="346"/>
-      <c r="P10" s="346"/>
-      <c r="Q10" s="346"/>
-      <c r="R10" s="346"/>
-      <c r="S10" s="346"/>
-      <c r="T10" s="346"/>
-      <c r="U10" s="346"/>
-      <c r="V10" s="346"/>
-      <c r="W10" s="346"/>
+      <c r="B10" s="339"/>
+      <c r="C10" s="339"/>
+      <c r="D10" s="339"/>
+      <c r="E10" s="339"/>
+      <c r="F10" s="339"/>
+      <c r="G10" s="339"/>
+      <c r="H10" s="339"/>
+      <c r="I10" s="339"/>
+      <c r="J10" s="339"/>
+      <c r="K10" s="339"/>
+      <c r="L10" s="339"/>
+      <c r="M10" s="339"/>
+      <c r="N10" s="339"/>
+      <c r="O10" s="339"/>
+      <c r="P10" s="339"/>
+      <c r="Q10" s="339"/>
+      <c r="R10" s="339"/>
+      <c r="S10" s="339"/>
+      <c r="T10" s="339"/>
+      <c r="U10" s="339"/>
+      <c r="V10" s="339"/>
+      <c r="W10" s="339"/>
     </row>
     <row r="11" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="233"/>
@@ -8554,17 +8554,17 @@
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="240"/>
       <c r="B13" s="220"/>
-      <c r="C13" s="343" t="str">
+      <c r="C13" s="336" t="str">
         <f>IF('Business Details'!C17&gt;0,'Business Details'!C17," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D13" s="344"/>
-      <c r="E13" s="344"/>
-      <c r="F13" s="344"/>
-      <c r="G13" s="344"/>
-      <c r="H13" s="344"/>
-      <c r="I13" s="344"/>
-      <c r="J13" s="345"/>
+      <c r="D13" s="337"/>
+      <c r="E13" s="337"/>
+      <c r="F13" s="337"/>
+      <c r="G13" s="337"/>
+      <c r="H13" s="337"/>
+      <c r="I13" s="337"/>
+      <c r="J13" s="338"/>
       <c r="K13" s="220"/>
       <c r="L13" s="220"/>
       <c r="M13" s="220"/>
@@ -8609,17 +8609,17 @@
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="240"/>
       <c r="B15" s="220"/>
-      <c r="C15" s="343" t="str">
+      <c r="C15" s="336" t="str">
         <f>IF('Business Details'!C19&gt;0,'Business Details'!C19," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D15" s="344"/>
-      <c r="E15" s="344"/>
-      <c r="F15" s="344"/>
-      <c r="G15" s="344"/>
-      <c r="H15" s="344"/>
-      <c r="I15" s="344"/>
-      <c r="J15" s="345"/>
+      <c r="D15" s="337"/>
+      <c r="E15" s="337"/>
+      <c r="F15" s="337"/>
+      <c r="G15" s="337"/>
+      <c r="H15" s="337"/>
+      <c r="I15" s="337"/>
+      <c r="J15" s="338"/>
       <c r="K15" s="220"/>
       <c r="L15" s="220"/>
       <c r="M15" s="220"/>
@@ -8665,17 +8665,17 @@
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="240"/>
       <c r="B17" s="220"/>
-      <c r="C17" s="343" t="str">
+      <c r="C17" s="336" t="str">
         <f>IF('Business Details'!C21&gt;0,'Business Details'!C21," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D17" s="344"/>
-      <c r="E17" s="344"/>
-      <c r="F17" s="344"/>
-      <c r="G17" s="344"/>
-      <c r="H17" s="344"/>
-      <c r="I17" s="344"/>
-      <c r="J17" s="345"/>
+      <c r="D17" s="337"/>
+      <c r="E17" s="337"/>
+      <c r="F17" s="337"/>
+      <c r="G17" s="337"/>
+      <c r="H17" s="337"/>
+      <c r="I17" s="337"/>
+      <c r="J17" s="338"/>
       <c r="K17" s="220"/>
       <c r="L17" s="236">
         <v>5</v>
@@ -8688,13 +8688,13 @@
       <c r="P17" s="227"/>
       <c r="Q17" s="227"/>
       <c r="R17" s="237"/>
-      <c r="S17" s="332">
+      <c r="S17" s="340">
         <f>Q2</f>
         <v>44657</v>
       </c>
-      <c r="T17" s="347"/>
-      <c r="U17" s="347"/>
-      <c r="V17" s="347"/>
+      <c r="T17" s="341"/>
+      <c r="U17" s="341"/>
+      <c r="V17" s="341"/>
       <c r="W17" s="239"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8711,17 +8711,17 @@
       <c r="K18" s="220"/>
       <c r="L18" s="220"/>
       <c r="M18" s="220"/>
-      <c r="N18" s="348" t="s">
+      <c r="N18" s="342" t="s">
         <v>299</v>
       </c>
-      <c r="O18" s="348"/>
-      <c r="P18" s="348"/>
-      <c r="Q18" s="348"/>
-      <c r="R18" s="348"/>
-      <c r="S18" s="348"/>
-      <c r="T18" s="348"/>
-      <c r="U18" s="348"/>
-      <c r="V18" s="348"/>
+      <c r="O18" s="342"/>
+      <c r="P18" s="342"/>
+      <c r="Q18" s="342"/>
+      <c r="R18" s="342"/>
+      <c r="S18" s="342"/>
+      <c r="T18" s="342"/>
+      <c r="U18" s="342"/>
+      <c r="V18" s="342"/>
       <c r="W18" s="245"/>
     </row>
     <row r="19" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
@@ -8767,13 +8767,13 @@
       <c r="K20" s="220"/>
       <c r="L20" s="220"/>
       <c r="M20" s="220"/>
-      <c r="N20" s="334" t="str">
+      <c r="N20" s="329" t="str">
         <f>IF('Business Details'!N19&gt;0,'Business Details'!N19," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O20" s="335"/>
-      <c r="P20" s="335"/>
-      <c r="Q20" s="338"/>
+      <c r="O20" s="330"/>
+      <c r="P20" s="330"/>
+      <c r="Q20" s="331"/>
       <c r="R20" s="227"/>
       <c r="S20" s="227"/>
       <c r="T20" s="227"/>
@@ -8809,11 +8809,11 @@
     <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="240"/>
       <c r="B22" s="220"/>
-      <c r="C22" s="330" t="str">
+      <c r="C22" s="346" t="str">
         <f>IF('Business Details'!C30&gt;0,'Business Details'!C30," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D22" s="331"/>
+      <c r="D22" s="347"/>
       <c r="E22" s="220"/>
       <c r="F22" s="244" t="str">
         <f>IF('Business Details'!F30&gt;0,'Business Details'!F30," ")</f>
@@ -8860,13 +8860,13 @@
       <c r="P23" s="227"/>
       <c r="Q23" s="227"/>
       <c r="R23" s="227"/>
-      <c r="S23" s="332">
+      <c r="S23" s="340">
         <f>V2</f>
         <v>45021</v>
       </c>
-      <c r="T23" s="324"/>
-      <c r="U23" s="333"/>
-      <c r="V23" s="333"/>
+      <c r="T23" s="348"/>
+      <c r="U23" s="349"/>
+      <c r="V23" s="349"/>
       <c r="W23" s="239"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.15">
@@ -8943,13 +8943,13 @@
       <c r="K26" s="242"/>
       <c r="L26" s="220"/>
       <c r="M26" s="220"/>
-      <c r="N26" s="334" t="str">
+      <c r="N26" s="329" t="str">
         <f>IF('Business Details'!N24&gt;0,'Business Details'!N24," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O26" s="335"/>
-      <c r="P26" s="335"/>
-      <c r="Q26" s="336"/>
+      <c r="O26" s="330"/>
+      <c r="P26" s="330"/>
+      <c r="Q26" s="350"/>
       <c r="R26" s="220"/>
       <c r="S26" s="220"/>
       <c r="T26" s="220"/>
@@ -9079,13 +9079,13 @@
       <c r="K31" s="220"/>
       <c r="L31" s="220"/>
       <c r="M31" s="220"/>
-      <c r="N31" s="334">
+      <c r="N31" s="329">
         <f>Admin!B17</f>
         <v>45021</v>
       </c>
-      <c r="O31" s="335"/>
-      <c r="P31" s="335"/>
-      <c r="Q31" s="336"/>
+      <c r="O31" s="330"/>
+      <c r="P31" s="330"/>
+      <c r="Q31" s="350"/>
       <c r="R31" s="220"/>
       <c r="S31" s="220"/>
       <c r="T31" s="220"/>
@@ -9119,32 +9119,32 @@
       <c r="W32" s="251"/>
     </row>
     <row r="33" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="337" t="str">
+      <c r="A33" s="351" t="str">
         <f>IF(D38&gt;67000,"SELF-EMPLOYMENT FULL RETURN REQUIRED AS TURNOVER EXCEEDS £"&amp;Admin!F26&amp;" VAT threshold","Business income - if your annual turnover was below £"&amp;Admin!F26&amp;" VAT threshold")</f>
         <v>Business income - if your annual turnover was below £85000 VAT threshold</v>
       </c>
-      <c r="B33" s="337"/>
-      <c r="C33" s="337"/>
-      <c r="D33" s="337"/>
-      <c r="E33" s="337"/>
-      <c r="F33" s="337"/>
-      <c r="G33" s="337"/>
-      <c r="H33" s="337"/>
-      <c r="I33" s="337"/>
-      <c r="J33" s="337"/>
-      <c r="K33" s="337"/>
-      <c r="L33" s="337"/>
-      <c r="M33" s="337"/>
-      <c r="N33" s="337"/>
-      <c r="O33" s="337"/>
-      <c r="P33" s="337"/>
-      <c r="Q33" s="337"/>
-      <c r="R33" s="337"/>
-      <c r="S33" s="337"/>
-      <c r="T33" s="337"/>
-      <c r="U33" s="337"/>
-      <c r="V33" s="337"/>
-      <c r="W33" s="337"/>
+      <c r="B33" s="351"/>
+      <c r="C33" s="351"/>
+      <c r="D33" s="351"/>
+      <c r="E33" s="351"/>
+      <c r="F33" s="351"/>
+      <c r="G33" s="351"/>
+      <c r="H33" s="351"/>
+      <c r="I33" s="351"/>
+      <c r="J33" s="351"/>
+      <c r="K33" s="351"/>
+      <c r="L33" s="351"/>
+      <c r="M33" s="351"/>
+      <c r="N33" s="351"/>
+      <c r="O33" s="351"/>
+      <c r="P33" s="351"/>
+      <c r="Q33" s="351"/>
+      <c r="R33" s="351"/>
+      <c r="S33" s="351"/>
+      <c r="T33" s="351"/>
+      <c r="U33" s="351"/>
+      <c r="V33" s="351"/>
+      <c r="W33" s="351"/>
     </row>
     <row r="34" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="233"/>
@@ -9264,12 +9264,12 @@
       <c r="C38" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="319">
+      <c r="D38" s="343">
         <f>'Profit &amp; Loss Account'!B14</f>
         <v>0</v>
       </c>
-      <c r="E38" s="320"/>
-      <c r="F38" s="321"/>
+      <c r="E38" s="344"/>
+      <c r="F38" s="345"/>
       <c r="G38" s="218" t="s">
         <v>167</v>
       </c>
@@ -9286,12 +9286,12 @@
       <c r="N38" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O38" s="319">
+      <c r="O38" s="343">
         <f>'Profit &amp; Loss Account'!B48</f>
         <v>0</v>
       </c>
-      <c r="P38" s="320"/>
-      <c r="Q38" s="321"/>
+      <c r="P38" s="344"/>
+      <c r="Q38" s="345"/>
       <c r="R38" s="218" t="s">
         <v>167</v>
       </c>
@@ -9331,85 +9331,85 @@
       <c r="W39" s="251"/>
     </row>
     <row r="40" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="328" t="s">
+      <c r="A40" s="352" t="s">
         <v>308</v>
       </c>
-      <c r="B40" s="328"/>
-      <c r="C40" s="328"/>
-      <c r="D40" s="328"/>
-      <c r="E40" s="328"/>
-      <c r="F40" s="328"/>
-      <c r="G40" s="328"/>
-      <c r="H40" s="328"/>
-      <c r="I40" s="328"/>
-      <c r="J40" s="328"/>
-      <c r="K40" s="328"/>
-      <c r="L40" s="328"/>
-      <c r="M40" s="328"/>
-      <c r="N40" s="328"/>
-      <c r="O40" s="328"/>
-      <c r="P40" s="328"/>
-      <c r="Q40" s="328"/>
-      <c r="R40" s="328"/>
-      <c r="S40" s="328"/>
-      <c r="T40" s="328"/>
-      <c r="U40" s="328"/>
-      <c r="V40" s="328"/>
-      <c r="W40" s="328"/>
+      <c r="B40" s="352"/>
+      <c r="C40" s="352"/>
+      <c r="D40" s="352"/>
+      <c r="E40" s="352"/>
+      <c r="F40" s="352"/>
+      <c r="G40" s="352"/>
+      <c r="H40" s="352"/>
+      <c r="I40" s="352"/>
+      <c r="J40" s="352"/>
+      <c r="K40" s="352"/>
+      <c r="L40" s="352"/>
+      <c r="M40" s="352"/>
+      <c r="N40" s="352"/>
+      <c r="O40" s="352"/>
+      <c r="P40" s="352"/>
+      <c r="Q40" s="352"/>
+      <c r="R40" s="352"/>
+      <c r="S40" s="352"/>
+      <c r="T40" s="352"/>
+      <c r="U40" s="352"/>
+      <c r="V40" s="352"/>
+      <c r="W40" s="352"/>
     </row>
     <row r="41" spans="1:23" s="254" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="322" t="s">
+      <c r="A41" s="353" t="s">
         <v>309</v>
       </c>
-      <c r="B41" s="322"/>
-      <c r="C41" s="322"/>
-      <c r="D41" s="322"/>
-      <c r="E41" s="322"/>
-      <c r="F41" s="322"/>
-      <c r="G41" s="322"/>
-      <c r="H41" s="322"/>
-      <c r="I41" s="322"/>
-      <c r="J41" s="322"/>
-      <c r="K41" s="322"/>
-      <c r="L41" s="322"/>
-      <c r="M41" s="322"/>
-      <c r="N41" s="322"/>
-      <c r="O41" s="322"/>
-      <c r="P41" s="322"/>
-      <c r="Q41" s="322"/>
-      <c r="R41" s="322"/>
-      <c r="S41" s="322"/>
-      <c r="T41" s="322"/>
-      <c r="U41" s="322"/>
-      <c r="V41" s="322"/>
-      <c r="W41" s="322"/>
+      <c r="B41" s="353"/>
+      <c r="C41" s="353"/>
+      <c r="D41" s="353"/>
+      <c r="E41" s="353"/>
+      <c r="F41" s="353"/>
+      <c r="G41" s="353"/>
+      <c r="H41" s="353"/>
+      <c r="I41" s="353"/>
+      <c r="J41" s="353"/>
+      <c r="K41" s="353"/>
+      <c r="L41" s="353"/>
+      <c r="M41" s="353"/>
+      <c r="N41" s="353"/>
+      <c r="O41" s="353"/>
+      <c r="P41" s="353"/>
+      <c r="Q41" s="353"/>
+      <c r="R41" s="353"/>
+      <c r="S41" s="353"/>
+      <c r="T41" s="353"/>
+      <c r="U41" s="353"/>
+      <c r="V41" s="353"/>
+      <c r="W41" s="353"/>
     </row>
     <row r="42" spans="1:23" s="254" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="322" t="s">
+      <c r="A42" s="353" t="s">
         <v>310</v>
       </c>
-      <c r="B42" s="322"/>
-      <c r="C42" s="322"/>
-      <c r="D42" s="322"/>
-      <c r="E42" s="322"/>
-      <c r="F42" s="322"/>
-      <c r="G42" s="322"/>
-      <c r="H42" s="322"/>
-      <c r="I42" s="322"/>
-      <c r="J42" s="322"/>
-      <c r="K42" s="322"/>
-      <c r="L42" s="322"/>
-      <c r="M42" s="322"/>
-      <c r="N42" s="322"/>
-      <c r="O42" s="322"/>
-      <c r="P42" s="322"/>
-      <c r="Q42" s="322"/>
-      <c r="R42" s="322"/>
-      <c r="S42" s="322"/>
-      <c r="T42" s="322"/>
-      <c r="U42" s="322"/>
-      <c r="V42" s="322"/>
-      <c r="W42" s="322"/>
+      <c r="B42" s="353"/>
+      <c r="C42" s="353"/>
+      <c r="D42" s="353"/>
+      <c r="E42" s="353"/>
+      <c r="F42" s="353"/>
+      <c r="G42" s="353"/>
+      <c r="H42" s="353"/>
+      <c r="I42" s="353"/>
+      <c r="J42" s="353"/>
+      <c r="K42" s="353"/>
+      <c r="L42" s="353"/>
+      <c r="M42" s="353"/>
+      <c r="N42" s="353"/>
+      <c r="O42" s="353"/>
+      <c r="P42" s="353"/>
+      <c r="Q42" s="353"/>
+      <c r="R42" s="353"/>
+      <c r="S42" s="353"/>
+      <c r="T42" s="353"/>
+      <c r="U42" s="353"/>
+      <c r="V42" s="353"/>
+      <c r="W42" s="353"/>
     </row>
     <row r="43" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="233"/>
@@ -9500,12 +9500,12 @@
       <c r="C46" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="319" t="str">
+      <c r="D46" s="343" t="str">
         <f>IF('Profit &amp; Loss Account'!B14&gt;30000,'Profit &amp; Loss Account'!B22," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E46" s="320"/>
-      <c r="F46" s="321"/>
+      <c r="E46" s="344"/>
+      <c r="F46" s="345"/>
       <c r="G46" s="218" t="s">
         <v>167</v>
       </c>
@@ -9522,12 +9522,12 @@
       <c r="N46" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O46" s="319" t="str">
+      <c r="O46" s="343" t="str">
         <f>IF('Profit &amp; Loss Account'!B14&gt;30000,'Profit &amp; Loss Account'!B33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P46" s="320"/>
-      <c r="Q46" s="321"/>
+      <c r="P46" s="344"/>
+      <c r="Q46" s="345"/>
       <c r="R46" s="218" t="s">
         <v>167</v>
       </c>
@@ -9657,12 +9657,12 @@
       <c r="C51" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="319" t="str">
+      <c r="D51" s="343" t="str">
         <f>IF('Profit &amp; Loss Account'!B14&gt;30000,'Profit &amp; Loss Account'!B30+'Profit &amp; Loss Account'!B31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E51" s="320"/>
-      <c r="F51" s="321"/>
+      <c r="E51" s="344"/>
+      <c r="F51" s="345"/>
       <c r="G51" s="218" t="s">
         <v>167</v>
       </c>
@@ -9679,12 +9679,12 @@
       <c r="N51" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O51" s="319" t="str">
+      <c r="O51" s="343" t="str">
         <f>IF('Profit &amp; Loss Account'!B14&gt;30000,'Profit &amp; Loss Account'!B35+'Profit &amp; Loss Account'!B36," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P51" s="320"/>
-      <c r="Q51" s="321"/>
+      <c r="P51" s="344"/>
+      <c r="Q51" s="345"/>
       <c r="R51" s="218" t="s">
         <v>167</v>
       </c>
@@ -9787,12 +9787,12 @@
       <c r="C55" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="319" t="str">
+      <c r="D55" s="343" t="str">
         <f>IF('Profit &amp; Loss Account'!B14&gt;30000,'Profit &amp; Loss Account'!B26," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E55" s="320"/>
-      <c r="F55" s="321"/>
+      <c r="E55" s="344"/>
+      <c r="F55" s="345"/>
       <c r="G55" s="218" t="s">
         <v>167</v>
       </c>
@@ -9809,12 +9809,12 @@
       <c r="N55" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O55" s="319" t="str">
+      <c r="O55" s="343" t="str">
         <f>IF('Profit &amp; Loss Account'!B14&gt;30000,'Profit &amp; Loss Account'!B29," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P55" s="320"/>
-      <c r="Q55" s="321"/>
+      <c r="P55" s="344"/>
+      <c r="Q55" s="345"/>
       <c r="R55" s="218" t="s">
         <v>167</v>
       </c>
@@ -9944,12 +9944,12 @@
       <c r="C60" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="319" t="str">
+      <c r="D60" s="343" t="str">
         <f>IF('Profit &amp; Loss Account'!B14&gt;30000,'Profit &amp; Loss Account'!B27," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E60" s="320"/>
-      <c r="F60" s="321"/>
+      <c r="E60" s="344"/>
+      <c r="F60" s="345"/>
       <c r="G60" s="218" t="s">
         <v>167</v>
       </c>
@@ -9966,12 +9966,12 @@
       <c r="N60" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O60" s="319" t="str">
+      <c r="O60" s="343" t="str">
         <f>IF('Profit &amp; Loss Account'!B14&gt;30000,'Profit &amp; Loss Account'!B32+'Profit &amp; Loss Account'!B34+'Profit &amp; Loss Account'!B42+SUM('Profit &amp; Loss Account'!B37:B41)+'Profit &amp; Loss Account'!B43," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P60" s="320"/>
-      <c r="Q60" s="321"/>
+      <c r="P60" s="344"/>
+      <c r="Q60" s="345"/>
       <c r="R60" s="218" t="s">
         <v>167</v>
       </c>
@@ -10074,12 +10074,12 @@
       <c r="C64" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D64" s="319" t="str">
+      <c r="D64" s="343" t="str">
         <f>IF('Profit &amp; Loss Account'!B14&gt;30000,'Profit &amp; Loss Account'!B28," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E64" s="320"/>
-      <c r="F64" s="321"/>
+      <c r="E64" s="344"/>
+      <c r="F64" s="345"/>
       <c r="G64" s="218" t="s">
         <v>167</v>
       </c>
@@ -10096,12 +10096,12 @@
       <c r="N64" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O64" s="319">
+      <c r="O64" s="343">
         <f>'Profit &amp; Loss Account'!B22+'Profit &amp; Loss Account'!B45-'Profit &amp; Loss Account'!B44</f>
         <v>0</v>
       </c>
-      <c r="P64" s="320"/>
-      <c r="Q64" s="321"/>
+      <c r="P64" s="344"/>
+      <c r="Q64" s="345"/>
       <c r="R64" s="218" t="s">
         <v>167</v>
       </c>
@@ -10141,31 +10141,31 @@
       <c r="W65" s="251"/>
     </row>
     <row r="66" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="329" t="s">
+      <c r="A66" s="354" t="s">
         <v>202</v>
       </c>
-      <c r="B66" s="329"/>
-      <c r="C66" s="329"/>
-      <c r="D66" s="329"/>
-      <c r="E66" s="329"/>
-      <c r="F66" s="329"/>
-      <c r="G66" s="329"/>
-      <c r="H66" s="329"/>
-      <c r="I66" s="329"/>
-      <c r="J66" s="329"/>
-      <c r="K66" s="329"/>
-      <c r="L66" s="329"/>
-      <c r="M66" s="329"/>
-      <c r="N66" s="329"/>
-      <c r="O66" s="329"/>
-      <c r="P66" s="329"/>
-      <c r="Q66" s="329"/>
-      <c r="R66" s="329"/>
-      <c r="S66" s="329"/>
-      <c r="T66" s="329"/>
-      <c r="U66" s="329"/>
-      <c r="V66" s="329"/>
-      <c r="W66" s="329"/>
+      <c r="B66" s="354"/>
+      <c r="C66" s="354"/>
+      <c r="D66" s="354"/>
+      <c r="E66" s="354"/>
+      <c r="F66" s="354"/>
+      <c r="G66" s="354"/>
+      <c r="H66" s="354"/>
+      <c r="I66" s="354"/>
+      <c r="J66" s="354"/>
+      <c r="K66" s="354"/>
+      <c r="L66" s="354"/>
+      <c r="M66" s="354"/>
+      <c r="N66" s="354"/>
+      <c r="O66" s="354"/>
+      <c r="P66" s="354"/>
+      <c r="Q66" s="354"/>
+      <c r="R66" s="354"/>
+      <c r="S66" s="354"/>
+      <c r="T66" s="354"/>
+      <c r="U66" s="354"/>
+      <c r="V66" s="354"/>
+      <c r="W66" s="354"/>
     </row>
     <row r="67" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="233"/>
@@ -10285,12 +10285,12 @@
       <c r="C71" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D71" s="319">
+      <c r="D71" s="343">
         <f>IF((D38+O38-O64)&gt;=0,D38+O38-O64,0)</f>
         <v>0</v>
       </c>
-      <c r="E71" s="320"/>
-      <c r="F71" s="321"/>
+      <c r="E71" s="344"/>
+      <c r="F71" s="345"/>
       <c r="G71" s="218" t="s">
         <v>167</v>
       </c>
@@ -10307,12 +10307,12 @@
       <c r="N71" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O71" s="319">
+      <c r="O71" s="343">
         <f>IF((D38+O38-O64)&lt;0,O64-D38-O38,0)</f>
         <v>0</v>
       </c>
-      <c r="P71" s="320"/>
-      <c r="Q71" s="321"/>
+      <c r="P71" s="344"/>
+      <c r="Q71" s="345"/>
       <c r="R71" s="218" t="s">
         <v>167</v>
       </c>
@@ -10354,116 +10354,116 @@
       <c r="W72" s="251"/>
     </row>
     <row r="73" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="328" t="s">
+      <c r="A73" s="352" t="s">
         <v>207</v>
       </c>
-      <c r="B73" s="328"/>
-      <c r="C73" s="328"/>
-      <c r="D73" s="328"/>
-      <c r="E73" s="328"/>
-      <c r="F73" s="328"/>
-      <c r="G73" s="328"/>
-      <c r="H73" s="328"/>
-      <c r="I73" s="328"/>
-      <c r="J73" s="328"/>
-      <c r="K73" s="328"/>
-      <c r="L73" s="328"/>
-      <c r="M73" s="328"/>
-      <c r="N73" s="328"/>
-      <c r="O73" s="328"/>
-      <c r="P73" s="328"/>
-      <c r="Q73" s="328"/>
-      <c r="R73" s="328"/>
-      <c r="S73" s="328"/>
-      <c r="T73" s="328"/>
-      <c r="U73" s="328"/>
-      <c r="V73" s="328"/>
-      <c r="W73" s="328"/>
+      <c r="B73" s="352"/>
+      <c r="C73" s="352"/>
+      <c r="D73" s="352"/>
+      <c r="E73" s="352"/>
+      <c r="F73" s="352"/>
+      <c r="G73" s="352"/>
+      <c r="H73" s="352"/>
+      <c r="I73" s="352"/>
+      <c r="J73" s="352"/>
+      <c r="K73" s="352"/>
+      <c r="L73" s="352"/>
+      <c r="M73" s="352"/>
+      <c r="N73" s="352"/>
+      <c r="O73" s="352"/>
+      <c r="P73" s="352"/>
+      <c r="Q73" s="352"/>
+      <c r="R73" s="352"/>
+      <c r="S73" s="352"/>
+      <c r="T73" s="352"/>
+      <c r="U73" s="352"/>
+      <c r="V73" s="352"/>
+      <c r="W73" s="352"/>
       <c r="Y73" s="257"/>
       <c r="Z73" s="257"/>
     </row>
     <row r="74" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="322" t="s">
+      <c r="A74" s="353" t="s">
         <v>320</v>
       </c>
-      <c r="B74" s="322"/>
-      <c r="C74" s="322"/>
-      <c r="D74" s="322"/>
-      <c r="E74" s="322"/>
-      <c r="F74" s="322"/>
-      <c r="G74" s="322"/>
-      <c r="H74" s="322"/>
-      <c r="I74" s="322"/>
-      <c r="J74" s="322"/>
-      <c r="K74" s="322"/>
-      <c r="L74" s="322"/>
-      <c r="M74" s="322"/>
-      <c r="N74" s="322"/>
-      <c r="O74" s="322"/>
-      <c r="P74" s="322"/>
-      <c r="Q74" s="322"/>
-      <c r="R74" s="322"/>
-      <c r="S74" s="322"/>
-      <c r="T74" s="322"/>
-      <c r="U74" s="322"/>
-      <c r="V74" s="322"/>
-      <c r="W74" s="322"/>
+      <c r="B74" s="353"/>
+      <c r="C74" s="353"/>
+      <c r="D74" s="353"/>
+      <c r="E74" s="353"/>
+      <c r="F74" s="353"/>
+      <c r="G74" s="353"/>
+      <c r="H74" s="353"/>
+      <c r="I74" s="353"/>
+      <c r="J74" s="353"/>
+      <c r="K74" s="353"/>
+      <c r="L74" s="353"/>
+      <c r="M74" s="353"/>
+      <c r="N74" s="353"/>
+      <c r="O74" s="353"/>
+      <c r="P74" s="353"/>
+      <c r="Q74" s="353"/>
+      <c r="R74" s="353"/>
+      <c r="S74" s="353"/>
+      <c r="T74" s="353"/>
+      <c r="U74" s="353"/>
+      <c r="V74" s="353"/>
+      <c r="W74" s="353"/>
     </row>
     <row r="75" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="322" t="s">
+      <c r="A75" s="353" t="s">
         <v>321</v>
       </c>
-      <c r="B75" s="322"/>
-      <c r="C75" s="322"/>
-      <c r="D75" s="322"/>
-      <c r="E75" s="322"/>
-      <c r="F75" s="322"/>
-      <c r="G75" s="322"/>
-      <c r="H75" s="322"/>
-      <c r="I75" s="322"/>
-      <c r="J75" s="322"/>
-      <c r="K75" s="322"/>
-      <c r="L75" s="322"/>
-      <c r="M75" s="322"/>
-      <c r="N75" s="322"/>
-      <c r="O75" s="322"/>
-      <c r="P75" s="322"/>
-      <c r="Q75" s="322"/>
-      <c r="R75" s="322"/>
-      <c r="S75" s="322"/>
-      <c r="T75" s="322"/>
-      <c r="U75" s="322"/>
-      <c r="V75" s="322"/>
-      <c r="W75" s="322"/>
+      <c r="B75" s="353"/>
+      <c r="C75" s="353"/>
+      <c r="D75" s="353"/>
+      <c r="E75" s="353"/>
+      <c r="F75" s="353"/>
+      <c r="G75" s="353"/>
+      <c r="H75" s="353"/>
+      <c r="I75" s="353"/>
+      <c r="J75" s="353"/>
+      <c r="K75" s="353"/>
+      <c r="L75" s="353"/>
+      <c r="M75" s="353"/>
+      <c r="N75" s="353"/>
+      <c r="O75" s="353"/>
+      <c r="P75" s="353"/>
+      <c r="Q75" s="353"/>
+      <c r="R75" s="353"/>
+      <c r="S75" s="353"/>
+      <c r="T75" s="353"/>
+      <c r="U75" s="353"/>
+      <c r="V75" s="353"/>
+      <c r="W75" s="353"/>
       <c r="Y75" s="257"/>
       <c r="Z75" s="257"/>
     </row>
     <row r="76" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="322" t="s">
+      <c r="A76" s="353" t="s">
         <v>322</v>
       </c>
-      <c r="B76" s="322"/>
-      <c r="C76" s="322"/>
-      <c r="D76" s="322"/>
-      <c r="E76" s="322"/>
-      <c r="F76" s="322"/>
-      <c r="G76" s="322"/>
-      <c r="H76" s="322"/>
-      <c r="I76" s="322"/>
-      <c r="J76" s="322"/>
-      <c r="K76" s="322"/>
-      <c r="L76" s="322"/>
-      <c r="M76" s="322"/>
-      <c r="N76" s="322"/>
-      <c r="O76" s="322"/>
-      <c r="P76" s="322"/>
-      <c r="Q76" s="322"/>
-      <c r="R76" s="322"/>
-      <c r="S76" s="322"/>
-      <c r="T76" s="322"/>
-      <c r="U76" s="322"/>
-      <c r="V76" s="322"/>
-      <c r="W76" s="322"/>
+      <c r="B76" s="353"/>
+      <c r="C76" s="353"/>
+      <c r="D76" s="353"/>
+      <c r="E76" s="353"/>
+      <c r="F76" s="353"/>
+      <c r="G76" s="353"/>
+      <c r="H76" s="353"/>
+      <c r="I76" s="353"/>
+      <c r="J76" s="353"/>
+      <c r="K76" s="353"/>
+      <c r="L76" s="353"/>
+      <c r="M76" s="353"/>
+      <c r="N76" s="353"/>
+      <c r="O76" s="353"/>
+      <c r="P76" s="353"/>
+      <c r="Q76" s="353"/>
+      <c r="R76" s="353"/>
+      <c r="S76" s="353"/>
+      <c r="T76" s="353"/>
+      <c r="U76" s="353"/>
+      <c r="V76" s="353"/>
+      <c r="W76" s="353"/>
     </row>
     <row r="77" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="233"/>
@@ -10554,12 +10554,12 @@
       <c r="C80" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D80" s="319">
+      <c r="D80" s="343">
         <f>IF(([1]Schedule!$Q$1)&gt;0,[1]Schedule!$Q$1,0)</f>
         <v>0</v>
       </c>
-      <c r="E80" s="320"/>
-      <c r="F80" s="321"/>
+      <c r="E80" s="344"/>
+      <c r="F80" s="345"/>
       <c r="G80" s="218" t="s">
         <v>167</v>
       </c>
@@ -10576,12 +10576,12 @@
       <c r="N80" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O80" s="319">
+      <c r="O80" s="343">
         <f>IF(([1]Schedule!$R$1+[1]Schedule!$Y$1)&gt;0,[1]Schedule!$R$1+[1]Schedule!$Y$1,0)</f>
         <v>0</v>
       </c>
-      <c r="P80" s="320"/>
-      <c r="Q80" s="321"/>
+      <c r="P80" s="344"/>
+      <c r="Q80" s="345"/>
       <c r="R80" s="218" t="s">
         <v>167</v>
       </c>
@@ -10713,12 +10713,12 @@
       <c r="C85" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D85" s="319">
+      <c r="D85" s="343">
         <f>IF(([1]Schedule!$R$1+[1]Schedule!$S$1)&lt;1000,[1]Schedule!$S$1,0)</f>
         <v>0</v>
       </c>
-      <c r="E85" s="320"/>
-      <c r="F85" s="321"/>
+      <c r="E85" s="344"/>
+      <c r="F85" s="345"/>
       <c r="G85" s="218" t="s">
         <v>167</v>
       </c>
@@ -10735,12 +10735,12 @@
       <c r="N85" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O85" s="319">
+      <c r="O85" s="343">
         <f>IF([1]Schedule!$Z$1&gt;0,[1]Schedule!$Z$1,0)</f>
         <v>0</v>
       </c>
-      <c r="P85" s="320"/>
-      <c r="Q85" s="321"/>
+      <c r="P85" s="344"/>
+      <c r="Q85" s="345"/>
       <c r="R85" s="218" t="s">
         <v>167</v>
       </c>
@@ -10780,85 +10780,85 @@
       <c r="W86" s="251"/>
     </row>
     <row r="87" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="327" t="s">
+      <c r="A87" s="355" t="s">
         <v>324</v>
       </c>
-      <c r="B87" s="327"/>
-      <c r="C87" s="327"/>
-      <c r="D87" s="327"/>
-      <c r="E87" s="327"/>
-      <c r="F87" s="327"/>
-      <c r="G87" s="327"/>
-      <c r="H87" s="327"/>
-      <c r="I87" s="327"/>
-      <c r="J87" s="327"/>
-      <c r="K87" s="327"/>
-      <c r="L87" s="327"/>
-      <c r="M87" s="327"/>
-      <c r="N87" s="327"/>
-      <c r="O87" s="327"/>
-      <c r="P87" s="327"/>
-      <c r="Q87" s="327"/>
-      <c r="R87" s="327"/>
-      <c r="S87" s="327"/>
-      <c r="T87" s="327"/>
-      <c r="U87" s="327"/>
-      <c r="V87" s="327"/>
-      <c r="W87" s="327"/>
+      <c r="B87" s="355"/>
+      <c r="C87" s="355"/>
+      <c r="D87" s="355"/>
+      <c r="E87" s="355"/>
+      <c r="F87" s="355"/>
+      <c r="G87" s="355"/>
+      <c r="H87" s="355"/>
+      <c r="I87" s="355"/>
+      <c r="J87" s="355"/>
+      <c r="K87" s="355"/>
+      <c r="L87" s="355"/>
+      <c r="M87" s="355"/>
+      <c r="N87" s="355"/>
+      <c r="O87" s="355"/>
+      <c r="P87" s="355"/>
+      <c r="Q87" s="355"/>
+      <c r="R87" s="355"/>
+      <c r="S87" s="355"/>
+      <c r="T87" s="355"/>
+      <c r="U87" s="355"/>
+      <c r="V87" s="355"/>
+      <c r="W87" s="355"/>
     </row>
     <row r="88" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="322" t="s">
+      <c r="A88" s="353" t="s">
         <v>325</v>
       </c>
-      <c r="B88" s="322"/>
-      <c r="C88" s="322"/>
-      <c r="D88" s="322"/>
-      <c r="E88" s="322"/>
-      <c r="F88" s="322"/>
-      <c r="G88" s="322"/>
-      <c r="H88" s="322"/>
-      <c r="I88" s="322"/>
-      <c r="J88" s="322"/>
-      <c r="K88" s="322"/>
-      <c r="L88" s="322"/>
-      <c r="M88" s="322"/>
-      <c r="N88" s="322"/>
-      <c r="O88" s="322"/>
-      <c r="P88" s="322"/>
-      <c r="Q88" s="322"/>
-      <c r="R88" s="322"/>
-      <c r="S88" s="322"/>
-      <c r="T88" s="322"/>
-      <c r="U88" s="322"/>
-      <c r="V88" s="322"/>
-      <c r="W88" s="322"/>
+      <c r="B88" s="353"/>
+      <c r="C88" s="353"/>
+      <c r="D88" s="353"/>
+      <c r="E88" s="353"/>
+      <c r="F88" s="353"/>
+      <c r="G88" s="353"/>
+      <c r="H88" s="353"/>
+      <c r="I88" s="353"/>
+      <c r="J88" s="353"/>
+      <c r="K88" s="353"/>
+      <c r="L88" s="353"/>
+      <c r="M88" s="353"/>
+      <c r="N88" s="353"/>
+      <c r="O88" s="353"/>
+      <c r="P88" s="353"/>
+      <c r="Q88" s="353"/>
+      <c r="R88" s="353"/>
+      <c r="S88" s="353"/>
+      <c r="T88" s="353"/>
+      <c r="U88" s="353"/>
+      <c r="V88" s="353"/>
+      <c r="W88" s="353"/>
     </row>
     <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="322" t="s">
+      <c r="A89" s="353" t="s">
         <v>326</v>
       </c>
-      <c r="B89" s="322"/>
-      <c r="C89" s="322"/>
-      <c r="D89" s="322"/>
-      <c r="E89" s="322"/>
-      <c r="F89" s="322"/>
-      <c r="G89" s="322"/>
-      <c r="H89" s="322"/>
-      <c r="I89" s="322"/>
-      <c r="J89" s="322"/>
-      <c r="K89" s="322"/>
-      <c r="L89" s="322"/>
-      <c r="M89" s="322"/>
-      <c r="N89" s="322"/>
-      <c r="O89" s="322"/>
-      <c r="P89" s="322"/>
-      <c r="Q89" s="322"/>
-      <c r="R89" s="322"/>
-      <c r="S89" s="322"/>
-      <c r="T89" s="322"/>
-      <c r="U89" s="322"/>
-      <c r="V89" s="322"/>
-      <c r="W89" s="322"/>
+      <c r="B89" s="353"/>
+      <c r="C89" s="353"/>
+      <c r="D89" s="353"/>
+      <c r="E89" s="353"/>
+      <c r="F89" s="353"/>
+      <c r="G89" s="353"/>
+      <c r="H89" s="353"/>
+      <c r="I89" s="353"/>
+      <c r="J89" s="353"/>
+      <c r="K89" s="353"/>
+      <c r="L89" s="353"/>
+      <c r="M89" s="353"/>
+      <c r="N89" s="353"/>
+      <c r="O89" s="353"/>
+      <c r="P89" s="353"/>
+      <c r="Q89" s="353"/>
+      <c r="R89" s="353"/>
+      <c r="S89" s="353"/>
+      <c r="T89" s="353"/>
+      <c r="U89" s="353"/>
+      <c r="V89" s="353"/>
+      <c r="W89" s="353"/>
     </row>
     <row r="90" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="233"/>
@@ -10978,12 +10978,12 @@
       <c r="C94" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D94" s="319">
+      <c r="D94" s="343">
         <f>'Business Details'!O50</f>
         <v>0</v>
       </c>
-      <c r="E94" s="320"/>
-      <c r="F94" s="321"/>
+      <c r="E94" s="344"/>
+      <c r="F94" s="345"/>
       <c r="G94" s="218" t="s">
         <v>167</v>
       </c>
@@ -11000,12 +11000,12 @@
       <c r="N94" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O94" s="319">
+      <c r="O94" s="343">
         <f>IF(O106&gt;0,0,IF('Business Details'!D50=0,0,IF(D99&gt;'Business Details'!D50,'Business Details'!D50,D99)))</f>
         <v>0</v>
       </c>
-      <c r="P94" s="320"/>
-      <c r="Q94" s="321"/>
+      <c r="P94" s="344"/>
+      <c r="Q94" s="345"/>
       <c r="R94" s="218" t="s">
         <v>167</v>
       </c>
@@ -11137,12 +11137,12 @@
       <c r="C99" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D99" s="319">
+      <c r="D99" s="343">
         <f>IF((D71+O85+D94-O71-D80-D85-O80)&gt;0,D71+O85+D94-O71-D80-D85-O80,0)</f>
         <v>0</v>
       </c>
-      <c r="E99" s="320"/>
-      <c r="F99" s="321"/>
+      <c r="E99" s="344"/>
+      <c r="F99" s="345"/>
       <c r="G99" s="218" t="s">
         <v>167</v>
       </c>
@@ -11159,12 +11159,12 @@
       <c r="N99" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O99" s="319">
+      <c r="O99" s="343">
         <f>'Profit &amp; Loss Account'!B16</f>
         <v>0</v>
       </c>
-      <c r="P99" s="320"/>
-      <c r="Q99" s="321"/>
+      <c r="P99" s="344"/>
+      <c r="Q99" s="345"/>
       <c r="R99" s="218" t="s">
         <v>167</v>
       </c>
@@ -11206,31 +11206,31 @@
       <c r="W100" s="251"/>
     </row>
     <row r="101" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="328" t="s">
+      <c r="A101" s="352" t="s">
         <v>330</v>
       </c>
-      <c r="B101" s="328"/>
-      <c r="C101" s="328"/>
-      <c r="D101" s="328"/>
-      <c r="E101" s="328"/>
-      <c r="F101" s="328"/>
-      <c r="G101" s="328"/>
-      <c r="H101" s="328"/>
-      <c r="I101" s="328"/>
-      <c r="J101" s="328"/>
-      <c r="K101" s="328"/>
-      <c r="L101" s="328"/>
-      <c r="M101" s="328"/>
-      <c r="N101" s="328"/>
-      <c r="O101" s="328"/>
-      <c r="P101" s="328"/>
-      <c r="Q101" s="328"/>
-      <c r="R101" s="328"/>
-      <c r="S101" s="328"/>
-      <c r="T101" s="328"/>
-      <c r="U101" s="328"/>
-      <c r="V101" s="328"/>
-      <c r="W101" s="328"/>
+      <c r="B101" s="352"/>
+      <c r="C101" s="352"/>
+      <c r="D101" s="352"/>
+      <c r="E101" s="352"/>
+      <c r="F101" s="352"/>
+      <c r="G101" s="352"/>
+      <c r="H101" s="352"/>
+      <c r="I101" s="352"/>
+      <c r="J101" s="352"/>
+      <c r="K101" s="352"/>
+      <c r="L101" s="352"/>
+      <c r="M101" s="352"/>
+      <c r="N101" s="352"/>
+      <c r="O101" s="352"/>
+      <c r="P101" s="352"/>
+      <c r="Q101" s="352"/>
+      <c r="R101" s="352"/>
+      <c r="S101" s="352"/>
+      <c r="T101" s="352"/>
+      <c r="U101" s="352"/>
+      <c r="V101" s="352"/>
+      <c r="W101" s="352"/>
     </row>
     <row r="102" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="233"/>
@@ -11350,12 +11350,12 @@
       <c r="C106" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D106" s="319">
+      <c r="D106" s="343">
         <f>IF((D99+O99-O94)&gt;0,D99+O99-O94,0)</f>
         <v>0</v>
       </c>
-      <c r="E106" s="320"/>
-      <c r="F106" s="321"/>
+      <c r="E106" s="344"/>
+      <c r="F106" s="345"/>
       <c r="G106" s="218" t="s">
         <v>167</v>
       </c>
@@ -11372,12 +11372,12 @@
       <c r="N106" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O106" s="319">
+      <c r="O106" s="343">
         <f>IF((O71+D80+D85+O80-D71-O85-D94)&gt;=0,O71+D80+D85+O80-D71-O85-D94,0)</f>
         <v>0</v>
       </c>
-      <c r="P106" s="320"/>
-      <c r="Q106" s="321"/>
+      <c r="P106" s="344"/>
+      <c r="Q106" s="345"/>
       <c r="R106" s="218" t="s">
         <v>167</v>
       </c>
@@ -11417,58 +11417,58 @@
       <c r="W107" s="251"/>
     </row>
     <row r="108" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="327" t="s">
+      <c r="A108" s="355" t="s">
         <v>331</v>
       </c>
-      <c r="B108" s="327"/>
-      <c r="C108" s="327"/>
-      <c r="D108" s="327"/>
-      <c r="E108" s="327"/>
-      <c r="F108" s="327"/>
-      <c r="G108" s="327"/>
-      <c r="H108" s="327"/>
-      <c r="I108" s="327"/>
-      <c r="J108" s="327"/>
-      <c r="K108" s="327"/>
-      <c r="L108" s="327"/>
-      <c r="M108" s="327"/>
-      <c r="N108" s="327"/>
-      <c r="O108" s="327"/>
-      <c r="P108" s="327"/>
-      <c r="Q108" s="327"/>
-      <c r="R108" s="327"/>
-      <c r="S108" s="327"/>
-      <c r="T108" s="327"/>
-      <c r="U108" s="327"/>
-      <c r="V108" s="327"/>
-      <c r="W108" s="327"/>
+      <c r="B108" s="355"/>
+      <c r="C108" s="355"/>
+      <c r="D108" s="355"/>
+      <c r="E108" s="355"/>
+      <c r="F108" s="355"/>
+      <c r="G108" s="355"/>
+      <c r="H108" s="355"/>
+      <c r="I108" s="355"/>
+      <c r="J108" s="355"/>
+      <c r="K108" s="355"/>
+      <c r="L108" s="355"/>
+      <c r="M108" s="355"/>
+      <c r="N108" s="355"/>
+      <c r="O108" s="355"/>
+      <c r="P108" s="355"/>
+      <c r="Q108" s="355"/>
+      <c r="R108" s="355"/>
+      <c r="S108" s="355"/>
+      <c r="T108" s="355"/>
+      <c r="U108" s="355"/>
+      <c r="V108" s="355"/>
+      <c r="W108" s="355"/>
     </row>
     <row r="109" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="322" t="s">
+      <c r="A109" s="353" t="s">
         <v>332</v>
       </c>
-      <c r="B109" s="322"/>
-      <c r="C109" s="322"/>
-      <c r="D109" s="322"/>
-      <c r="E109" s="322"/>
-      <c r="F109" s="322"/>
-      <c r="G109" s="322"/>
-      <c r="H109" s="322"/>
-      <c r="I109" s="322"/>
-      <c r="J109" s="322"/>
-      <c r="K109" s="322"/>
-      <c r="L109" s="322"/>
-      <c r="M109" s="322"/>
-      <c r="N109" s="322"/>
-      <c r="O109" s="322"/>
-      <c r="P109" s="322"/>
-      <c r="Q109" s="322"/>
-      <c r="R109" s="322"/>
-      <c r="S109" s="322"/>
-      <c r="T109" s="322"/>
-      <c r="U109" s="322"/>
-      <c r="V109" s="322"/>
-      <c r="W109" s="322"/>
+      <c r="B109" s="353"/>
+      <c r="C109" s="353"/>
+      <c r="D109" s="353"/>
+      <c r="E109" s="353"/>
+      <c r="F109" s="353"/>
+      <c r="G109" s="353"/>
+      <c r="H109" s="353"/>
+      <c r="I109" s="353"/>
+      <c r="J109" s="353"/>
+      <c r="K109" s="353"/>
+      <c r="L109" s="353"/>
+      <c r="M109" s="353"/>
+      <c r="N109" s="353"/>
+      <c r="O109" s="353"/>
+      <c r="P109" s="353"/>
+      <c r="Q109" s="353"/>
+      <c r="R109" s="353"/>
+      <c r="S109" s="353"/>
+      <c r="T109" s="353"/>
+      <c r="U109" s="353"/>
+      <c r="V109" s="353"/>
+      <c r="W109" s="353"/>
     </row>
     <row r="110" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="233"/>
@@ -11534,12 +11534,12 @@
       <c r="C112" s="227" t="s">
         <v>257</v>
       </c>
-      <c r="D112" s="323" t="str">
+      <c r="D112" s="356" t="str">
         <f>Admin!G2</f>
         <v>2022-23</v>
       </c>
-      <c r="E112" s="324"/>
-      <c r="F112" s="324"/>
+      <c r="E112" s="348"/>
+      <c r="F112" s="348"/>
       <c r="G112" s="227"/>
       <c r="H112" s="227"/>
       <c r="I112" s="227"/>
@@ -11591,9 +11591,9 @@
       <c r="C114" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D114" s="319"/>
-      <c r="E114" s="320"/>
-      <c r="F114" s="321"/>
+      <c r="D114" s="343"/>
+      <c r="E114" s="344"/>
+      <c r="F114" s="345"/>
       <c r="G114" s="218" t="s">
         <v>167</v>
       </c>
@@ -11669,12 +11669,12 @@
       <c r="O116" s="220"/>
       <c r="P116" s="220"/>
       <c r="Q116" s="220"/>
-      <c r="R116" s="325" t="str">
+      <c r="R116" s="357" t="str">
         <f>Admin!G2</f>
         <v>2022-23</v>
       </c>
-      <c r="S116" s="326"/>
-      <c r="T116" s="326"/>
+      <c r="S116" s="358"/>
+      <c r="T116" s="358"/>
       <c r="U116" s="227" t="s">
         <v>336</v>
       </c>
@@ -11743,9 +11743,9 @@
       <c r="C119" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D119" s="319"/>
-      <c r="E119" s="320"/>
-      <c r="F119" s="321"/>
+      <c r="D119" s="343"/>
+      <c r="E119" s="344"/>
+      <c r="F119" s="345"/>
       <c r="G119" s="218" t="s">
         <v>167</v>
       </c>
@@ -11888,12 +11888,12 @@
       <c r="C124" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D124" s="319">
+      <c r="D124" s="343">
         <f>'Business Details'!O55</f>
         <v>0</v>
       </c>
-      <c r="E124" s="320"/>
-      <c r="F124" s="321"/>
+      <c r="E124" s="344"/>
+      <c r="F124" s="345"/>
       <c r="G124" s="218" t="s">
         <v>167</v>
       </c>
@@ -11910,12 +11910,12 @@
       <c r="N124" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O124" s="319">
+      <c r="O124" s="343">
         <f>[2]Mar23!$AC$1</f>
         <v>0</v>
       </c>
-      <c r="P124" s="320"/>
-      <c r="Q124" s="321"/>
+      <c r="P124" s="344"/>
+      <c r="Q124" s="345"/>
       <c r="R124" s="218" t="s">
         <v>167</v>
       </c>
@@ -11956,24 +11956,41 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="A10:W10"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="N18:V18"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="O124:Q124"/>
+    <mergeCell ref="A109:W109"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="R116:T116"/>
+    <mergeCell ref="A87:W87"/>
+    <mergeCell ref="A88:W88"/>
+    <mergeCell ref="A89:W89"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="O106:Q106"/>
+    <mergeCell ref="A108:W108"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="A101:W101"/>
+    <mergeCell ref="A66:W66"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="O71:Q71"/>
+    <mergeCell ref="A73:W73"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="O85:Q85"/>
+    <mergeCell ref="A74:W74"/>
+    <mergeCell ref="A75:W75"/>
+    <mergeCell ref="A76:W76"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="O80:Q80"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="O64:Q64"/>
     <mergeCell ref="D51:F51"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="C22:D22"/>
@@ -11988,41 +12005,24 @@
     <mergeCell ref="A42:W42"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="O55:Q55"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="O64:Q64"/>
-    <mergeCell ref="A66:W66"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="O71:Q71"/>
-    <mergeCell ref="A73:W73"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="O85:Q85"/>
-    <mergeCell ref="A74:W74"/>
-    <mergeCell ref="A75:W75"/>
-    <mergeCell ref="A76:W76"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="O80:Q80"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="O106:Q106"/>
-    <mergeCell ref="A108:W108"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="A101:W101"/>
-    <mergeCell ref="A87:W87"/>
-    <mergeCell ref="A88:W88"/>
-    <mergeCell ref="A89:W89"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="O124:Q124"/>
-    <mergeCell ref="A109:W109"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="R116:T116"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="A10:W10"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="N18:V18"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:W2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -12068,120 +12068,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="349" t="s">
+      <c r="A1" s="320" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="350"/>
-      <c r="C1" s="350"/>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="351" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="322" t="s">
         <v>396</v>
       </c>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
-      <c r="N1" s="384" t="s">
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="359" t="s">
         <v>172</v>
       </c>
-      <c r="O1" s="384"/>
-      <c r="P1" s="384"/>
-      <c r="Q1" s="384"/>
-      <c r="R1" s="384"/>
-      <c r="S1" s="384"/>
-      <c r="T1" s="384"/>
-      <c r="U1" s="384"/>
-      <c r="V1" s="384"/>
-      <c r="W1" s="384"/>
+      <c r="O1" s="359"/>
+      <c r="P1" s="359"/>
+      <c r="Q1" s="359"/>
+      <c r="R1" s="359"/>
+      <c r="S1" s="359"/>
+      <c r="T1" s="359"/>
+      <c r="U1" s="359"/>
+      <c r="V1" s="359"/>
+      <c r="W1" s="359"/>
     </row>
     <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="350"/>
-      <c r="B2" s="350"/>
-      <c r="C2" s="350"/>
-      <c r="D2" s="350"/>
-      <c r="E2" s="350"/>
-      <c r="F2" s="350"/>
-      <c r="G2" s="352"/>
-      <c r="H2" s="352"/>
-      <c r="I2" s="352"/>
-      <c r="J2" s="352"/>
-      <c r="K2" s="352"/>
-      <c r="L2" s="352"/>
-      <c r="M2" s="352"/>
-      <c r="N2" s="355" t="s">
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="323"/>
+      <c r="H2" s="323"/>
+      <c r="I2" s="323"/>
+      <c r="J2" s="323"/>
+      <c r="K2" s="323"/>
+      <c r="L2" s="323"/>
+      <c r="M2" s="323"/>
+      <c r="N2" s="326" t="s">
         <v>173</v>
       </c>
-      <c r="O2" s="355"/>
-      <c r="P2" s="355"/>
-      <c r="Q2" s="356">
+      <c r="O2" s="326"/>
+      <c r="P2" s="326"/>
+      <c r="Q2" s="327">
         <f>Admin!B4</f>
         <v>44657</v>
       </c>
-      <c r="R2" s="357"/>
-      <c r="S2" s="357"/>
-      <c r="T2" s="357"/>
+      <c r="R2" s="328"/>
+      <c r="S2" s="328"/>
+      <c r="T2" s="328"/>
       <c r="U2" s="222" t="s">
         <v>174</v>
       </c>
-      <c r="V2" s="356">
+      <c r="V2" s="327">
         <f>Admin!B17</f>
         <v>45021</v>
       </c>
-      <c r="W2" s="356"/>
+      <c r="W2" s="327"/>
     </row>
     <row r="3" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="339"/>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="340"/>
-      <c r="F3" s="340"/>
-      <c r="G3" s="340"/>
-      <c r="H3" s="340"/>
-      <c r="I3" s="340"/>
-      <c r="J3" s="340"/>
-      <c r="K3" s="340"/>
-      <c r="L3" s="340"/>
-      <c r="M3" s="340"/>
-      <c r="N3" s="340"/>
-      <c r="O3" s="340"/>
-      <c r="P3" s="340"/>
-      <c r="Q3" s="340"/>
-      <c r="R3" s="340"/>
-      <c r="S3" s="340"/>
-      <c r="T3" s="340"/>
-      <c r="U3" s="340"/>
-      <c r="V3" s="340"/>
-      <c r="W3" s="340"/>
+      <c r="A3" s="332"/>
+      <c r="B3" s="333"/>
+      <c r="C3" s="333"/>
+      <c r="D3" s="333"/>
+      <c r="E3" s="333"/>
+      <c r="F3" s="333"/>
+      <c r="G3" s="333"/>
+      <c r="H3" s="333"/>
+      <c r="I3" s="333"/>
+      <c r="J3" s="333"/>
+      <c r="K3" s="333"/>
+      <c r="L3" s="333"/>
+      <c r="M3" s="333"/>
+      <c r="N3" s="333"/>
+      <c r="O3" s="333"/>
+      <c r="P3" s="333"/>
+      <c r="Q3" s="333"/>
+      <c r="R3" s="333"/>
+      <c r="S3" s="333"/>
+      <c r="T3" s="333"/>
+      <c r="U3" s="333"/>
+      <c r="V3" s="333"/>
+      <c r="W3" s="333"/>
     </row>
     <row r="4" spans="1:23" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="341"/>
-      <c r="B4" s="341"/>
-      <c r="C4" s="341"/>
-      <c r="D4" s="341"/>
-      <c r="E4" s="341"/>
-      <c r="F4" s="341"/>
-      <c r="G4" s="341"/>
-      <c r="H4" s="341"/>
-      <c r="I4" s="341"/>
-      <c r="J4" s="341"/>
-      <c r="K4" s="341"/>
-      <c r="L4" s="341"/>
-      <c r="M4" s="341"/>
-      <c r="N4" s="341"/>
-      <c r="O4" s="341"/>
-      <c r="P4" s="341"/>
-      <c r="Q4" s="341"/>
-      <c r="R4" s="341"/>
-      <c r="S4" s="341"/>
-      <c r="T4" s="341"/>
-      <c r="U4" s="341"/>
-      <c r="V4" s="341"/>
-      <c r="W4" s="342"/>
+      <c r="A4" s="334"/>
+      <c r="B4" s="334"/>
+      <c r="C4" s="334"/>
+      <c r="D4" s="334"/>
+      <c r="E4" s="334"/>
+      <c r="F4" s="334"/>
+      <c r="G4" s="334"/>
+      <c r="H4" s="334"/>
+      <c r="I4" s="334"/>
+      <c r="J4" s="334"/>
+      <c r="K4" s="334"/>
+      <c r="L4" s="334"/>
+      <c r="M4" s="334"/>
+      <c r="N4" s="334"/>
+      <c r="O4" s="334"/>
+      <c r="P4" s="334"/>
+      <c r="Q4" s="334"/>
+      <c r="R4" s="334"/>
+      <c r="S4" s="334"/>
+      <c r="T4" s="334"/>
+      <c r="U4" s="334"/>
+      <c r="V4" s="334"/>
+      <c r="W4" s="335"/>
     </row>
     <row r="5" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="223"/>
@@ -12265,34 +12265,34 @@
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="226"/>
       <c r="B8" s="220"/>
-      <c r="C8" s="382" t="str">
+      <c r="C8" s="361" t="str">
         <f>IF('Business Details'!C5&gt;0,'Business Details'!C5," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D8" s="374"/>
-      <c r="E8" s="374"/>
-      <c r="F8" s="374"/>
-      <c r="G8" s="374"/>
-      <c r="H8" s="374"/>
-      <c r="I8" s="374"/>
-      <c r="J8" s="383"/>
+      <c r="D8" s="362"/>
+      <c r="E8" s="362"/>
+      <c r="F8" s="362"/>
+      <c r="G8" s="362"/>
+      <c r="H8" s="362"/>
+      <c r="I8" s="362"/>
+      <c r="J8" s="363"/>
       <c r="K8" s="220"/>
       <c r="L8" s="220"/>
       <c r="M8" s="220"/>
       <c r="N8" s="220"/>
-      <c r="O8" s="382" t="str">
+      <c r="O8" s="361" t="str">
         <f>IF('Business Details'!O5&gt;0,'Business Details'!O5," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P8" s="383"/>
+      <c r="P8" s="363"/>
       <c r="Q8" s="220"/>
-      <c r="R8" s="382" t="str">
+      <c r="R8" s="361" t="str">
         <f>IF('Business Details'!R5&gt;0,'Business Details'!R5," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S8" s="374"/>
-      <c r="T8" s="374"/>
-      <c r="U8" s="383"/>
+      <c r="S8" s="362"/>
+      <c r="T8" s="362"/>
+      <c r="U8" s="363"/>
       <c r="V8" s="220"/>
       <c r="W8" s="229"/>
     </row>
@@ -12324,17 +12324,17 @@
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="240"/>
       <c r="B10" s="220"/>
-      <c r="C10" s="382" t="str">
+      <c r="C10" s="361" t="str">
         <f>IF('Business Details'!C7&gt;0,'Business Details'!C7," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D10" s="374"/>
-      <c r="E10" s="374"/>
-      <c r="F10" s="374"/>
-      <c r="G10" s="374"/>
-      <c r="H10" s="374"/>
-      <c r="I10" s="374"/>
-      <c r="J10" s="383"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="362"/>
+      <c r="F10" s="362"/>
+      <c r="G10" s="362"/>
+      <c r="H10" s="362"/>
+      <c r="I10" s="362"/>
+      <c r="J10" s="363"/>
       <c r="K10" s="220"/>
       <c r="L10" s="220"/>
       <c r="M10" s="220"/>
@@ -12375,31 +12375,31 @@
       <c r="W11" s="232"/>
     </row>
     <row r="12" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="385" t="s">
+      <c r="A12" s="360" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="385"/>
-      <c r="C12" s="385"/>
-      <c r="D12" s="385"/>
-      <c r="E12" s="385"/>
-      <c r="F12" s="385"/>
-      <c r="G12" s="385"/>
-      <c r="H12" s="385"/>
-      <c r="I12" s="385"/>
-      <c r="J12" s="385"/>
-      <c r="K12" s="385"/>
-      <c r="L12" s="385"/>
-      <c r="M12" s="385"/>
-      <c r="N12" s="385"/>
-      <c r="O12" s="385"/>
-      <c r="P12" s="385"/>
-      <c r="Q12" s="385"/>
-      <c r="R12" s="385"/>
-      <c r="S12" s="385"/>
-      <c r="T12" s="385"/>
-      <c r="U12" s="385"/>
-      <c r="V12" s="385"/>
-      <c r="W12" s="346"/>
+      <c r="B12" s="360"/>
+      <c r="C12" s="360"/>
+      <c r="D12" s="360"/>
+      <c r="E12" s="360"/>
+      <c r="F12" s="360"/>
+      <c r="G12" s="360"/>
+      <c r="H12" s="360"/>
+      <c r="I12" s="360"/>
+      <c r="J12" s="360"/>
+      <c r="K12" s="360"/>
+      <c r="L12" s="360"/>
+      <c r="M12" s="360"/>
+      <c r="N12" s="360"/>
+      <c r="O12" s="360"/>
+      <c r="P12" s="360"/>
+      <c r="Q12" s="360"/>
+      <c r="R12" s="360"/>
+      <c r="S12" s="360"/>
+      <c r="T12" s="360"/>
+      <c r="U12" s="360"/>
+      <c r="V12" s="360"/>
+      <c r="W12" s="339"/>
     </row>
     <row r="13" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="233"/>
@@ -12462,17 +12462,17 @@
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="240"/>
       <c r="B15" s="220"/>
-      <c r="C15" s="382" t="str">
+      <c r="C15" s="361" t="str">
         <f>IF('Business Details'!C12&gt;0,'Business Details'!C12," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D15" s="374"/>
-      <c r="E15" s="374"/>
-      <c r="F15" s="374"/>
-      <c r="G15" s="374"/>
-      <c r="H15" s="374"/>
-      <c r="I15" s="374"/>
-      <c r="J15" s="383"/>
+      <c r="D15" s="362"/>
+      <c r="E15" s="362"/>
+      <c r="F15" s="362"/>
+      <c r="G15" s="362"/>
+      <c r="H15" s="362"/>
+      <c r="I15" s="362"/>
+      <c r="J15" s="363"/>
       <c r="K15" s="220"/>
       <c r="L15" s="220"/>
       <c r="M15" s="220"/>
@@ -12519,17 +12519,17 @@
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="240"/>
       <c r="B17" s="220"/>
-      <c r="C17" s="382" t="str">
+      <c r="C17" s="361" t="str">
         <f>IF('Business Details'!C14&gt;0,'Business Details'!C14," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D17" s="374"/>
-      <c r="E17" s="374"/>
-      <c r="F17" s="374"/>
-      <c r="G17" s="374"/>
-      <c r="H17" s="374"/>
-      <c r="I17" s="374"/>
-      <c r="J17" s="383"/>
+      <c r="D17" s="362"/>
+      <c r="E17" s="362"/>
+      <c r="F17" s="362"/>
+      <c r="G17" s="362"/>
+      <c r="H17" s="362"/>
+      <c r="I17" s="362"/>
+      <c r="J17" s="363"/>
       <c r="K17" s="220"/>
       <c r="L17" s="220"/>
       <c r="M17" s="220"/>
@@ -12599,29 +12599,29 @@
       <c r="P19" s="227"/>
       <c r="Q19" s="227"/>
       <c r="R19" s="220"/>
-      <c r="S19" s="332">
+      <c r="S19" s="340">
         <f>Admin!B4</f>
         <v>44657</v>
       </c>
-      <c r="T19" s="333"/>
-      <c r="U19" s="333"/>
-      <c r="V19" s="333"/>
+      <c r="T19" s="349"/>
+      <c r="U19" s="349"/>
+      <c r="V19" s="349"/>
       <c r="W19" s="239"/>
     </row>
     <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="240"/>
       <c r="B20" s="220"/>
-      <c r="C20" s="382" t="str">
+      <c r="C20" s="361" t="str">
         <f>IF('Business Details'!C17&gt;0,'Business Details'!C17," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D20" s="374"/>
-      <c r="E20" s="374"/>
-      <c r="F20" s="374"/>
-      <c r="G20" s="374"/>
-      <c r="H20" s="374"/>
-      <c r="I20" s="374"/>
-      <c r="J20" s="383"/>
+      <c r="D20" s="362"/>
+      <c r="E20" s="362"/>
+      <c r="F20" s="362"/>
+      <c r="G20" s="362"/>
+      <c r="H20" s="362"/>
+      <c r="I20" s="362"/>
+      <c r="J20" s="363"/>
       <c r="K20" s="220"/>
       <c r="L20" s="220"/>
       <c r="M20" s="220"/>
@@ -12666,27 +12666,27 @@
     <row r="22" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="240"/>
       <c r="B22" s="220"/>
-      <c r="C22" s="382" t="str">
+      <c r="C22" s="361" t="str">
         <f>IF('Business Details'!C19&gt;0,'Business Details'!C19," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D22" s="374"/>
-      <c r="E22" s="374"/>
-      <c r="F22" s="374"/>
-      <c r="G22" s="374"/>
-      <c r="H22" s="374"/>
-      <c r="I22" s="374"/>
-      <c r="J22" s="383"/>
+      <c r="D22" s="362"/>
+      <c r="E22" s="362"/>
+      <c r="F22" s="362"/>
+      <c r="G22" s="362"/>
+      <c r="H22" s="362"/>
+      <c r="I22" s="362"/>
+      <c r="J22" s="363"/>
       <c r="K22" s="220"/>
       <c r="L22" s="220"/>
       <c r="M22" s="220"/>
-      <c r="N22" s="334" t="str">
+      <c r="N22" s="329" t="str">
         <f>IF('Business Details'!N10&gt;0,'Business Details'!N19," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O22" s="335"/>
-      <c r="P22" s="335"/>
-      <c r="Q22" s="338"/>
+      <c r="O22" s="330"/>
+      <c r="P22" s="330"/>
+      <c r="Q22" s="331"/>
       <c r="R22" s="220"/>
       <c r="S22" s="220"/>
       <c r="T22" s="220"/>
@@ -12722,17 +12722,17 @@
     <row r="24" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="240"/>
       <c r="B24" s="220"/>
-      <c r="C24" s="382" t="str">
+      <c r="C24" s="361" t="str">
         <f>IF('Business Details'!C21&gt;0,'Business Details'!C21," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D24" s="374"/>
-      <c r="E24" s="374"/>
-      <c r="F24" s="374"/>
-      <c r="G24" s="374"/>
-      <c r="H24" s="374"/>
-      <c r="I24" s="374"/>
-      <c r="J24" s="383"/>
+      <c r="D24" s="362"/>
+      <c r="E24" s="362"/>
+      <c r="F24" s="362"/>
+      <c r="G24" s="362"/>
+      <c r="H24" s="362"/>
+      <c r="I24" s="362"/>
+      <c r="J24" s="363"/>
       <c r="K24" s="220"/>
       <c r="L24" s="236">
         <v>7</v>
@@ -12745,13 +12745,13 @@
       <c r="P24" s="227"/>
       <c r="Q24" s="227"/>
       <c r="R24" s="220"/>
-      <c r="S24" s="332">
+      <c r="S24" s="340">
         <f>Admin!B17</f>
         <v>45021</v>
       </c>
-      <c r="T24" s="333"/>
-      <c r="U24" s="333"/>
-      <c r="V24" s="333"/>
+      <c r="T24" s="349"/>
+      <c r="U24" s="349"/>
+      <c r="V24" s="349"/>
       <c r="W24" s="239"/>
     </row>
     <row r="25" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
@@ -12768,17 +12768,17 @@
       <c r="K25" s="220"/>
       <c r="L25" s="220"/>
       <c r="M25" s="220"/>
-      <c r="N25" s="348" t="s">
+      <c r="N25" s="342" t="s">
         <v>146</v>
       </c>
-      <c r="O25" s="348"/>
-      <c r="P25" s="348"/>
-      <c r="Q25" s="348"/>
-      <c r="R25" s="348"/>
-      <c r="S25" s="348"/>
-      <c r="T25" s="348"/>
-      <c r="U25" s="348"/>
-      <c r="V25" s="348"/>
+      <c r="O25" s="342"/>
+      <c r="P25" s="342"/>
+      <c r="Q25" s="342"/>
+      <c r="R25" s="342"/>
+      <c r="S25" s="342"/>
+      <c r="T25" s="342"/>
+      <c r="U25" s="342"/>
+      <c r="V25" s="342"/>
       <c r="W25" s="245"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.15">
@@ -12799,15 +12799,15 @@
       <c r="K26" s="220"/>
       <c r="L26" s="220"/>
       <c r="M26" s="220"/>
-      <c r="N26" s="348"/>
-      <c r="O26" s="348"/>
-      <c r="P26" s="348"/>
-      <c r="Q26" s="348"/>
-      <c r="R26" s="348"/>
-      <c r="S26" s="348"/>
-      <c r="T26" s="348"/>
-      <c r="U26" s="348"/>
-      <c r="V26" s="348"/>
+      <c r="N26" s="342"/>
+      <c r="O26" s="342"/>
+      <c r="P26" s="342"/>
+      <c r="Q26" s="342"/>
+      <c r="R26" s="342"/>
+      <c r="S26" s="342"/>
+      <c r="T26" s="342"/>
+      <c r="U26" s="342"/>
+      <c r="V26" s="342"/>
       <c r="W26" s="245"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12826,13 +12826,13 @@
       <c r="K27" s="220"/>
       <c r="L27" s="220"/>
       <c r="M27" s="220"/>
-      <c r="N27" s="334" t="str">
+      <c r="N27" s="329" t="str">
         <f>IF('Business Details'!N24&gt;0,'Business Details'!N24," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O27" s="335"/>
-      <c r="P27" s="335"/>
-      <c r="Q27" s="338"/>
+      <c r="O27" s="330"/>
+      <c r="P27" s="330"/>
+      <c r="Q27" s="331"/>
       <c r="R27" s="220"/>
       <c r="S27" s="220"/>
       <c r="T27" s="220"/>
@@ -12843,17 +12843,17 @@
     <row r="28" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="240"/>
       <c r="B28" s="220"/>
-      <c r="C28" s="382" t="str">
+      <c r="C28" s="361" t="str">
         <f>IF('Business Details'!C25&gt;0,'Business Details'!C25," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D28" s="374"/>
-      <c r="E28" s="374"/>
-      <c r="F28" s="374"/>
-      <c r="G28" s="374"/>
-      <c r="H28" s="374"/>
-      <c r="I28" s="374"/>
-      <c r="J28" s="383"/>
+      <c r="D28" s="362"/>
+      <c r="E28" s="362"/>
+      <c r="F28" s="362"/>
+      <c r="G28" s="362"/>
+      <c r="H28" s="362"/>
+      <c r="I28" s="362"/>
+      <c r="J28" s="363"/>
       <c r="K28" s="220"/>
       <c r="L28" s="236">
         <v>8</v>
@@ -12902,27 +12902,27 @@
     <row r="30" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="240"/>
       <c r="B30" s="220"/>
-      <c r="C30" s="382" t="str">
+      <c r="C30" s="361" t="str">
         <f>IF('Business Details'!C27&gt;0,'Business Details'!C27," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D30" s="374"/>
-      <c r="E30" s="374"/>
-      <c r="F30" s="374"/>
-      <c r="G30" s="374"/>
-      <c r="H30" s="374"/>
-      <c r="I30" s="374"/>
-      <c r="J30" s="383"/>
+      <c r="D30" s="362"/>
+      <c r="E30" s="362"/>
+      <c r="F30" s="362"/>
+      <c r="G30" s="362"/>
+      <c r="H30" s="362"/>
+      <c r="I30" s="362"/>
+      <c r="J30" s="363"/>
       <c r="K30" s="220"/>
       <c r="L30" s="220"/>
       <c r="M30" s="220"/>
-      <c r="N30" s="334" t="str">
+      <c r="N30" s="329" t="str">
         <f>IF('Business Details'!N27&gt;0,'Business Details'!N27," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O30" s="335"/>
-      <c r="P30" s="335"/>
-      <c r="Q30" s="338"/>
+      <c r="O30" s="330"/>
+      <c r="P30" s="330"/>
+      <c r="Q30" s="331"/>
       <c r="R30" s="220"/>
       <c r="S30" s="220"/>
       <c r="T30" s="220"/>
@@ -12991,11 +12991,11 @@
     <row r="33" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="240"/>
       <c r="B33" s="220"/>
-      <c r="C33" s="380" t="str">
+      <c r="C33" s="364" t="str">
         <f>IF('Business Details'!C30&gt;0,'Business Details'!C30," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D33" s="381"/>
+      <c r="D33" s="365"/>
       <c r="E33" s="267"/>
       <c r="F33" s="269" t="str">
         <f>IF('Business Details'!F30&gt;0,'Business Details'!F30," ")</f>
@@ -13062,13 +13062,13 @@
       <c r="K35" s="220"/>
       <c r="L35" s="220"/>
       <c r="M35" s="220"/>
-      <c r="N35" s="334">
+      <c r="N35" s="329">
         <f>Admin!B17</f>
         <v>45021</v>
       </c>
-      <c r="O35" s="335"/>
-      <c r="P35" s="335"/>
-      <c r="Q35" s="338"/>
+      <c r="O35" s="330"/>
+      <c r="P35" s="330"/>
+      <c r="Q35" s="331"/>
       <c r="R35" s="220"/>
       <c r="S35" s="220"/>
       <c r="T35" s="220"/>
@@ -13102,31 +13102,31 @@
       <c r="W36" s="251"/>
     </row>
     <row r="37" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="327" t="s">
+      <c r="A37" s="355" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="327"/>
-      <c r="C37" s="327"/>
-      <c r="D37" s="327"/>
-      <c r="E37" s="327"/>
-      <c r="F37" s="327"/>
-      <c r="G37" s="327"/>
-      <c r="H37" s="327"/>
-      <c r="I37" s="327"/>
-      <c r="J37" s="327"/>
-      <c r="K37" s="327"/>
-      <c r="L37" s="327"/>
-      <c r="M37" s="327"/>
-      <c r="N37" s="327"/>
-      <c r="O37" s="327"/>
-      <c r="P37" s="327"/>
-      <c r="Q37" s="327"/>
-      <c r="R37" s="327"/>
-      <c r="S37" s="327"/>
-      <c r="T37" s="327"/>
-      <c r="U37" s="327"/>
-      <c r="V37" s="327"/>
-      <c r="W37" s="327"/>
+      <c r="B37" s="355"/>
+      <c r="C37" s="355"/>
+      <c r="D37" s="355"/>
+      <c r="E37" s="355"/>
+      <c r="F37" s="355"/>
+      <c r="G37" s="355"/>
+      <c r="H37" s="355"/>
+      <c r="I37" s="355"/>
+      <c r="J37" s="355"/>
+      <c r="K37" s="355"/>
+      <c r="L37" s="355"/>
+      <c r="M37" s="355"/>
+      <c r="N37" s="355"/>
+      <c r="O37" s="355"/>
+      <c r="P37" s="355"/>
+      <c r="Q37" s="355"/>
+      <c r="R37" s="355"/>
+      <c r="S37" s="355"/>
+      <c r="T37" s="355"/>
+      <c r="U37" s="355"/>
+      <c r="V37" s="355"/>
+      <c r="W37" s="355"/>
     </row>
     <row r="38" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="233"/>
@@ -13467,31 +13467,31 @@
       <c r="W49" s="251"/>
     </row>
     <row r="50" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="328" t="s">
+      <c r="A50" s="352" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="328"/>
-      <c r="C50" s="328"/>
-      <c r="D50" s="328"/>
-      <c r="E50" s="328"/>
-      <c r="F50" s="328"/>
-      <c r="G50" s="328"/>
-      <c r="H50" s="328"/>
-      <c r="I50" s="328"/>
-      <c r="J50" s="328"/>
-      <c r="K50" s="328"/>
-      <c r="L50" s="328"/>
-      <c r="M50" s="328"/>
-      <c r="N50" s="328"/>
-      <c r="O50" s="328"/>
-      <c r="P50" s="328"/>
-      <c r="Q50" s="328"/>
-      <c r="R50" s="328"/>
-      <c r="S50" s="328"/>
-      <c r="T50" s="328"/>
-      <c r="U50" s="328"/>
-      <c r="V50" s="328"/>
-      <c r="W50" s="328"/>
+      <c r="B50" s="352"/>
+      <c r="C50" s="352"/>
+      <c r="D50" s="352"/>
+      <c r="E50" s="352"/>
+      <c r="F50" s="352"/>
+      <c r="G50" s="352"/>
+      <c r="H50" s="352"/>
+      <c r="I50" s="352"/>
+      <c r="J50" s="352"/>
+      <c r="K50" s="352"/>
+      <c r="L50" s="352"/>
+      <c r="M50" s="352"/>
+      <c r="N50" s="352"/>
+      <c r="O50" s="352"/>
+      <c r="P50" s="352"/>
+      <c r="Q50" s="352"/>
+      <c r="R50" s="352"/>
+      <c r="S50" s="352"/>
+      <c r="T50" s="352"/>
+      <c r="U50" s="352"/>
+      <c r="V50" s="352"/>
+      <c r="W50" s="352"/>
     </row>
     <row r="51" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="233"/>
@@ -13611,12 +13611,12 @@
       <c r="C55" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="319">
+      <c r="D55" s="343">
         <f>'Profit &amp; Loss Account'!B14</f>
         <v>0</v>
       </c>
-      <c r="E55" s="320"/>
-      <c r="F55" s="321"/>
+      <c r="E55" s="344"/>
+      <c r="F55" s="345"/>
       <c r="G55" s="218" t="s">
         <v>167</v>
       </c>
@@ -13633,12 +13633,12 @@
       <c r="N55" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O55" s="319">
+      <c r="O55" s="343">
         <f>'Profit &amp; Loss Account'!B48</f>
         <v>0</v>
       </c>
-      <c r="P55" s="320"/>
-      <c r="Q55" s="321"/>
+      <c r="P55" s="344"/>
+      <c r="Q55" s="345"/>
       <c r="R55" s="218" t="s">
         <v>167</v>
       </c>
@@ -13678,58 +13678,58 @@
       <c r="W56" s="251"/>
     </row>
     <row r="57" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="328" t="s">
+      <c r="A57" s="352" t="s">
         <v>180</v>
       </c>
-      <c r="B57" s="328"/>
-      <c r="C57" s="328"/>
-      <c r="D57" s="328"/>
-      <c r="E57" s="328"/>
-      <c r="F57" s="328"/>
-      <c r="G57" s="328"/>
-      <c r="H57" s="328"/>
-      <c r="I57" s="328"/>
-      <c r="J57" s="328"/>
-      <c r="K57" s="328"/>
-      <c r="L57" s="328"/>
-      <c r="M57" s="328"/>
-      <c r="N57" s="328"/>
-      <c r="O57" s="328"/>
-      <c r="P57" s="328"/>
-      <c r="Q57" s="328"/>
-      <c r="R57" s="328"/>
-      <c r="S57" s="328"/>
-      <c r="T57" s="328"/>
-      <c r="U57" s="328"/>
-      <c r="V57" s="328"/>
-      <c r="W57" s="328"/>
+      <c r="B57" s="352"/>
+      <c r="C57" s="352"/>
+      <c r="D57" s="352"/>
+      <c r="E57" s="352"/>
+      <c r="F57" s="352"/>
+      <c r="G57" s="352"/>
+      <c r="H57" s="352"/>
+      <c r="I57" s="352"/>
+      <c r="J57" s="352"/>
+      <c r="K57" s="352"/>
+      <c r="L57" s="352"/>
+      <c r="M57" s="352"/>
+      <c r="N57" s="352"/>
+      <c r="O57" s="352"/>
+      <c r="P57" s="352"/>
+      <c r="Q57" s="352"/>
+      <c r="R57" s="352"/>
+      <c r="S57" s="352"/>
+      <c r="T57" s="352"/>
+      <c r="U57" s="352"/>
+      <c r="V57" s="352"/>
+      <c r="W57" s="352"/>
     </row>
     <row r="58" spans="1:23" s="254" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="322" t="s">
+      <c r="A58" s="353" t="s">
         <v>181</v>
       </c>
-      <c r="B58" s="322"/>
-      <c r="C58" s="322"/>
-      <c r="D58" s="322"/>
-      <c r="E58" s="322"/>
-      <c r="F58" s="322"/>
-      <c r="G58" s="322"/>
-      <c r="H58" s="322"/>
-      <c r="I58" s="322"/>
-      <c r="J58" s="322"/>
-      <c r="K58" s="322"/>
-      <c r="L58" s="322"/>
-      <c r="M58" s="322"/>
-      <c r="N58" s="322"/>
-      <c r="O58" s="322"/>
-      <c r="P58" s="322"/>
-      <c r="Q58" s="322"/>
-      <c r="R58" s="322"/>
-      <c r="S58" s="322"/>
-      <c r="T58" s="322"/>
-      <c r="U58" s="322"/>
-      <c r="V58" s="322"/>
-      <c r="W58" s="322"/>
+      <c r="B58" s="353"/>
+      <c r="C58" s="353"/>
+      <c r="D58" s="353"/>
+      <c r="E58" s="353"/>
+      <c r="F58" s="353"/>
+      <c r="G58" s="353"/>
+      <c r="H58" s="353"/>
+      <c r="I58" s="353"/>
+      <c r="J58" s="353"/>
+      <c r="K58" s="353"/>
+      <c r="L58" s="353"/>
+      <c r="M58" s="353"/>
+      <c r="N58" s="353"/>
+      <c r="O58" s="353"/>
+      <c r="P58" s="353"/>
+      <c r="Q58" s="353"/>
+      <c r="R58" s="353"/>
+      <c r="S58" s="353"/>
+      <c r="T58" s="353"/>
+      <c r="U58" s="353"/>
+      <c r="V58" s="353"/>
+      <c r="W58" s="353"/>
     </row>
     <row r="59" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="233"/>
@@ -13930,12 +13930,12 @@
       <c r="C66" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="319">
+      <c r="D66" s="343">
         <f>'Profit &amp; Loss Account'!B19+'Profit &amp; Loss Account'!B21</f>
         <v>0</v>
       </c>
-      <c r="E66" s="320"/>
-      <c r="F66" s="321"/>
+      <c r="E66" s="344"/>
+      <c r="F66" s="345"/>
       <c r="G66" s="218" t="s">
         <v>167</v>
       </c>
@@ -13952,9 +13952,9 @@
       <c r="N66" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O66" s="319"/>
-      <c r="P66" s="320"/>
-      <c r="Q66" s="321"/>
+      <c r="O66" s="343"/>
+      <c r="P66" s="344"/>
+      <c r="Q66" s="345"/>
       <c r="R66" s="218" t="s">
         <v>167</v>
       </c>
@@ -14055,12 +14055,12 @@
       <c r="C70" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D70" s="319">
+      <c r="D70" s="343">
         <f>'Profit &amp; Loss Account'!B20</f>
         <v>0</v>
       </c>
-      <c r="E70" s="320"/>
-      <c r="F70" s="321"/>
+      <c r="E70" s="344"/>
+      <c r="F70" s="345"/>
       <c r="G70" s="218" t="s">
         <v>167</v>
       </c>
@@ -14077,9 +14077,9 @@
       <c r="N70" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O70" s="319"/>
-      <c r="P70" s="320"/>
-      <c r="Q70" s="321"/>
+      <c r="O70" s="343"/>
+      <c r="P70" s="344"/>
+      <c r="Q70" s="345"/>
       <c r="R70" s="218" t="s">
         <v>167</v>
       </c>
@@ -14180,12 +14180,12 @@
       <c r="C74" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D74" s="319">
+      <c r="D74" s="343">
         <f>'Profit &amp; Loss Account'!B26</f>
         <v>0</v>
       </c>
-      <c r="E74" s="320"/>
-      <c r="F74" s="321"/>
+      <c r="E74" s="344"/>
+      <c r="F74" s="345"/>
       <c r="G74" s="218" t="s">
         <v>167</v>
       </c>
@@ -14202,9 +14202,9 @@
       <c r="N74" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O74" s="319"/>
-      <c r="P74" s="320"/>
-      <c r="Q74" s="321"/>
+      <c r="O74" s="343"/>
+      <c r="P74" s="344"/>
+      <c r="Q74" s="345"/>
       <c r="R74" s="218" t="s">
         <v>167</v>
       </c>
@@ -14305,12 +14305,12 @@
       <c r="C78" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D78" s="319">
+      <c r="D78" s="343">
         <f>'Profit &amp; Loss Account'!B30+'Profit &amp; Loss Account'!B31</f>
         <v>0</v>
       </c>
-      <c r="E78" s="320"/>
-      <c r="F78" s="321"/>
+      <c r="E78" s="344"/>
+      <c r="F78" s="345"/>
       <c r="G78" s="218" t="s">
         <v>167</v>
       </c>
@@ -14327,9 +14327,9 @@
       <c r="N78" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O78" s="319"/>
-      <c r="P78" s="320"/>
-      <c r="Q78" s="321"/>
+      <c r="O78" s="343"/>
+      <c r="P78" s="344"/>
+      <c r="Q78" s="345"/>
       <c r="R78" s="218" t="s">
         <v>167</v>
       </c>
@@ -14430,12 +14430,12 @@
       <c r="C82" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D82" s="319">
+      <c r="D82" s="343">
         <f>'Profit &amp; Loss Account'!B27</f>
         <v>0</v>
       </c>
-      <c r="E82" s="320"/>
-      <c r="F82" s="321"/>
+      <c r="E82" s="344"/>
+      <c r="F82" s="345"/>
       <c r="G82" s="218" t="s">
         <v>167</v>
       </c>
@@ -14452,9 +14452,9 @@
       <c r="N82" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O82" s="319"/>
-      <c r="P82" s="320"/>
-      <c r="Q82" s="321"/>
+      <c r="O82" s="343"/>
+      <c r="P82" s="344"/>
+      <c r="Q82" s="345"/>
       <c r="R82" s="218" t="s">
         <v>167</v>
       </c>
@@ -14555,12 +14555,12 @@
       <c r="C86" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D86" s="319">
+      <c r="D86" s="343">
         <f>'Profit &amp; Loss Account'!B28</f>
         <v>0</v>
       </c>
-      <c r="E86" s="320"/>
-      <c r="F86" s="321"/>
+      <c r="E86" s="344"/>
+      <c r="F86" s="345"/>
       <c r="G86" s="218" t="s">
         <v>167</v>
       </c>
@@ -14577,9 +14577,9 @@
       <c r="N86" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O86" s="319"/>
-      <c r="P86" s="320"/>
-      <c r="Q86" s="321"/>
+      <c r="O86" s="343"/>
+      <c r="P86" s="344"/>
+      <c r="Q86" s="345"/>
       <c r="R86" s="218" t="s">
         <v>167</v>
       </c>
@@ -14680,12 +14680,12 @@
       <c r="C90" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D90" s="319">
+      <c r="D90" s="343">
         <f>'Profit &amp; Loss Account'!B29</f>
         <v>0</v>
       </c>
-      <c r="E90" s="320"/>
-      <c r="F90" s="321"/>
+      <c r="E90" s="344"/>
+      <c r="F90" s="345"/>
       <c r="G90" s="218" t="s">
         <v>167</v>
       </c>
@@ -14702,9 +14702,9 @@
       <c r="N90" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O90" s="319"/>
-      <c r="P90" s="320"/>
-      <c r="Q90" s="321"/>
+      <c r="O90" s="343"/>
+      <c r="P90" s="344"/>
+      <c r="Q90" s="345"/>
       <c r="R90" s="218" t="s">
         <v>167</v>
       </c>
@@ -14805,12 +14805,12 @@
       <c r="C94" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D94" s="319">
+      <c r="D94" s="343">
         <f>'Profit &amp; Loss Account'!B32</f>
         <v>0</v>
       </c>
-      <c r="E94" s="320"/>
-      <c r="F94" s="321"/>
+      <c r="E94" s="344"/>
+      <c r="F94" s="345"/>
       <c r="G94" s="218" t="s">
         <v>167</v>
       </c>
@@ -14827,9 +14827,9 @@
       <c r="N94" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O94" s="319"/>
-      <c r="P94" s="320"/>
-      <c r="Q94" s="321"/>
+      <c r="O94" s="343"/>
+      <c r="P94" s="344"/>
+      <c r="Q94" s="345"/>
       <c r="R94" s="218" t="s">
         <v>167</v>
       </c>
@@ -14930,12 +14930,12 @@
       <c r="C98" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D98" s="319">
+      <c r="D98" s="343">
         <f>'Profit &amp; Loss Account'!B35</f>
         <v>0</v>
       </c>
-      <c r="E98" s="320"/>
-      <c r="F98" s="321"/>
+      <c r="E98" s="344"/>
+      <c r="F98" s="345"/>
       <c r="G98" s="218" t="s">
         <v>167</v>
       </c>
@@ -14952,9 +14952,9 @@
       <c r="N98" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O98" s="319"/>
-      <c r="P98" s="320"/>
-      <c r="Q98" s="321"/>
+      <c r="O98" s="343"/>
+      <c r="P98" s="344"/>
+      <c r="Q98" s="345"/>
       <c r="R98" s="218" t="s">
         <v>167</v>
       </c>
@@ -15055,12 +15055,12 @@
       <c r="C102" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D102" s="319">
+      <c r="D102" s="343">
         <f>'Profit &amp; Loss Account'!B36</f>
         <v>0</v>
       </c>
-      <c r="E102" s="320"/>
-      <c r="F102" s="321"/>
+      <c r="E102" s="344"/>
+      <c r="F102" s="345"/>
       <c r="G102" s="218" t="s">
         <v>167</v>
       </c>
@@ -15077,9 +15077,9 @@
       <c r="N102" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O102" s="319"/>
-      <c r="P102" s="320"/>
-      <c r="Q102" s="321"/>
+      <c r="O102" s="343"/>
+      <c r="P102" s="344"/>
+      <c r="Q102" s="345"/>
       <c r="R102" s="218" t="s">
         <v>167</v>
       </c>
@@ -15180,12 +15180,12 @@
       <c r="C106" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D106" s="319">
+      <c r="D106" s="343">
         <f>'Profit &amp; Loss Account'!B34</f>
         <v>0</v>
       </c>
-      <c r="E106" s="320"/>
-      <c r="F106" s="321"/>
+      <c r="E106" s="344"/>
+      <c r="F106" s="345"/>
       <c r="G106" s="218" t="s">
         <v>167</v>
       </c>
@@ -15202,9 +15202,9 @@
       <c r="N106" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O106" s="319"/>
-      <c r="P106" s="320"/>
-      <c r="Q106" s="321"/>
+      <c r="O106" s="343"/>
+      <c r="P106" s="344"/>
+      <c r="Q106" s="345"/>
       <c r="R106" s="218" t="s">
         <v>167</v>
       </c>
@@ -15305,12 +15305,12 @@
       <c r="C110" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D110" s="319">
+      <c r="D110" s="343">
         <f>'Profit &amp; Loss Account'!B33</f>
         <v>0</v>
       </c>
-      <c r="E110" s="320"/>
-      <c r="F110" s="321"/>
+      <c r="E110" s="344"/>
+      <c r="F110" s="345"/>
       <c r="G110" s="218" t="s">
         <v>167</v>
       </c>
@@ -15327,9 +15327,9 @@
       <c r="N110" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O110" s="319"/>
-      <c r="P110" s="320"/>
-      <c r="Q110" s="321"/>
+      <c r="O110" s="343"/>
+      <c r="P110" s="344"/>
+      <c r="Q110" s="345"/>
       <c r="R110" s="218" t="s">
         <v>167</v>
       </c>
@@ -15430,12 +15430,12 @@
       <c r="C114" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D114" s="319">
+      <c r="D114" s="343">
         <f>'Profit &amp; Loss Account'!B43+'Profit &amp; Loss Account'!B44</f>
         <v>0</v>
       </c>
-      <c r="E114" s="320"/>
-      <c r="F114" s="321"/>
+      <c r="E114" s="344"/>
+      <c r="F114" s="345"/>
       <c r="G114" s="218" t="s">
         <v>167</v>
       </c>
@@ -15452,12 +15452,12 @@
       <c r="N114" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O114" s="319">
+      <c r="O114" s="343">
         <f>'Profit &amp; Loss Account'!B44</f>
         <v>0</v>
       </c>
-      <c r="P114" s="320"/>
-      <c r="Q114" s="321"/>
+      <c r="P114" s="344"/>
+      <c r="Q114" s="345"/>
       <c r="R114" s="218" t="s">
         <v>167</v>
       </c>
@@ -15558,12 +15558,12 @@
       <c r="C118" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D118" s="319">
+      <c r="D118" s="343">
         <f>SUM('Profit &amp; Loss Account'!B37:B42)</f>
         <v>0</v>
       </c>
-      <c r="E118" s="320"/>
-      <c r="F118" s="321"/>
+      <c r="E118" s="344"/>
+      <c r="F118" s="345"/>
       <c r="G118" s="218" t="s">
         <v>167</v>
       </c>
@@ -15580,9 +15580,9 @@
       <c r="N118" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O118" s="319"/>
-      <c r="P118" s="320"/>
-      <c r="Q118" s="321"/>
+      <c r="O118" s="343"/>
+      <c r="P118" s="344"/>
+      <c r="Q118" s="345"/>
       <c r="R118" s="218" t="s">
         <v>167</v>
       </c>
@@ -15685,12 +15685,12 @@
       <c r="C122" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D122" s="319">
+      <c r="D122" s="343">
         <f>'Profit &amp; Loss Account'!B22+'Profit &amp; Loss Account'!B45</f>
         <v>0</v>
       </c>
-      <c r="E122" s="320"/>
-      <c r="F122" s="321"/>
+      <c r="E122" s="344"/>
+      <c r="F122" s="345"/>
       <c r="G122" s="218" t="s">
         <v>167</v>
       </c>
@@ -15707,12 +15707,12 @@
       <c r="N122" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O122" s="319">
+      <c r="O122" s="343">
         <f>'Profit &amp; Loss Account'!B44</f>
         <v>0</v>
       </c>
-      <c r="P122" s="320"/>
-      <c r="Q122" s="321"/>
+      <c r="P122" s="344"/>
+      <c r="Q122" s="345"/>
       <c r="R122" s="218" t="s">
         <v>167</v>
       </c>
@@ -15752,31 +15752,31 @@
       <c r="W123" s="251"/>
     </row>
     <row r="124" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="329" t="s">
+      <c r="A124" s="354" t="s">
         <v>202</v>
       </c>
-      <c r="B124" s="329"/>
-      <c r="C124" s="329"/>
-      <c r="D124" s="329"/>
-      <c r="E124" s="329"/>
-      <c r="F124" s="329"/>
-      <c r="G124" s="329"/>
-      <c r="H124" s="329"/>
-      <c r="I124" s="329"/>
-      <c r="J124" s="329"/>
-      <c r="K124" s="329"/>
-      <c r="L124" s="329"/>
-      <c r="M124" s="329"/>
-      <c r="N124" s="329"/>
-      <c r="O124" s="329"/>
-      <c r="P124" s="329"/>
-      <c r="Q124" s="329"/>
-      <c r="R124" s="329"/>
-      <c r="S124" s="329"/>
-      <c r="T124" s="329"/>
-      <c r="U124" s="329"/>
-      <c r="V124" s="329"/>
-      <c r="W124" s="329"/>
+      <c r="B124" s="354"/>
+      <c r="C124" s="354"/>
+      <c r="D124" s="354"/>
+      <c r="E124" s="354"/>
+      <c r="F124" s="354"/>
+      <c r="G124" s="354"/>
+      <c r="H124" s="354"/>
+      <c r="I124" s="354"/>
+      <c r="J124" s="354"/>
+      <c r="K124" s="354"/>
+      <c r="L124" s="354"/>
+      <c r="M124" s="354"/>
+      <c r="N124" s="354"/>
+      <c r="O124" s="354"/>
+      <c r="P124" s="354"/>
+      <c r="Q124" s="354"/>
+      <c r="R124" s="354"/>
+      <c r="S124" s="354"/>
+      <c r="T124" s="354"/>
+      <c r="U124" s="354"/>
+      <c r="V124" s="354"/>
+      <c r="W124" s="354"/>
     </row>
     <row r="125" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="233"/>
@@ -15896,12 +15896,12 @@
       <c r="C129" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D129" s="319">
+      <c r="D129" s="343">
         <f>IF((D55+O55-D122)&gt;=0,D55+O55-D122,0)</f>
         <v>0</v>
       </c>
-      <c r="E129" s="320"/>
-      <c r="F129" s="321"/>
+      <c r="E129" s="344"/>
+      <c r="F129" s="345"/>
       <c r="G129" s="218" t="s">
         <v>167</v>
       </c>
@@ -15918,12 +15918,12 @@
       <c r="N129" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O129" s="319">
+      <c r="O129" s="343">
         <f>IF((D55+O55-D122)&lt;0,D122-D55-O55,0)</f>
         <v>0</v>
       </c>
-      <c r="P129" s="320"/>
-      <c r="Q129" s="321"/>
+      <c r="P129" s="344"/>
+      <c r="Q129" s="345"/>
       <c r="R129" s="218" t="s">
         <v>167</v>
       </c>
@@ -15963,112 +15963,112 @@
       <c r="W130" s="251"/>
     </row>
     <row r="131" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="328" t="s">
+      <c r="A131" s="352" t="s">
         <v>207</v>
       </c>
-      <c r="B131" s="328"/>
-      <c r="C131" s="328"/>
-      <c r="D131" s="328"/>
-      <c r="E131" s="328"/>
-      <c r="F131" s="328"/>
-      <c r="G131" s="328"/>
-      <c r="H131" s="328"/>
-      <c r="I131" s="328"/>
-      <c r="J131" s="328"/>
-      <c r="K131" s="328"/>
-      <c r="L131" s="328"/>
-      <c r="M131" s="328"/>
-      <c r="N131" s="328"/>
-      <c r="O131" s="328"/>
-      <c r="P131" s="328"/>
-      <c r="Q131" s="328"/>
-      <c r="R131" s="328"/>
-      <c r="S131" s="328"/>
-      <c r="T131" s="328"/>
-      <c r="U131" s="328"/>
-      <c r="V131" s="328"/>
-      <c r="W131" s="328"/>
+      <c r="B131" s="352"/>
+      <c r="C131" s="352"/>
+      <c r="D131" s="352"/>
+      <c r="E131" s="352"/>
+      <c r="F131" s="352"/>
+      <c r="G131" s="352"/>
+      <c r="H131" s="352"/>
+      <c r="I131" s="352"/>
+      <c r="J131" s="352"/>
+      <c r="K131" s="352"/>
+      <c r="L131" s="352"/>
+      <c r="M131" s="352"/>
+      <c r="N131" s="352"/>
+      <c r="O131" s="352"/>
+      <c r="P131" s="352"/>
+      <c r="Q131" s="352"/>
+      <c r="R131" s="352"/>
+      <c r="S131" s="352"/>
+      <c r="T131" s="352"/>
+      <c r="U131" s="352"/>
+      <c r="V131" s="352"/>
+      <c r="W131" s="352"/>
     </row>
     <row r="132" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="322" t="s">
+      <c r="A132" s="353" t="s">
         <v>208</v>
       </c>
-      <c r="B132" s="322"/>
-      <c r="C132" s="322"/>
-      <c r="D132" s="322"/>
-      <c r="E132" s="322"/>
-      <c r="F132" s="322"/>
-      <c r="G132" s="322"/>
-      <c r="H132" s="322"/>
-      <c r="I132" s="322"/>
-      <c r="J132" s="322"/>
-      <c r="K132" s="322"/>
-      <c r="L132" s="322"/>
-      <c r="M132" s="322"/>
-      <c r="N132" s="322"/>
-      <c r="O132" s="322"/>
-      <c r="P132" s="322"/>
-      <c r="Q132" s="322"/>
-      <c r="R132" s="322"/>
-      <c r="S132" s="322"/>
-      <c r="T132" s="322"/>
-      <c r="U132" s="322"/>
-      <c r="V132" s="322"/>
-      <c r="W132" s="322"/>
+      <c r="B132" s="353"/>
+      <c r="C132" s="353"/>
+      <c r="D132" s="353"/>
+      <c r="E132" s="353"/>
+      <c r="F132" s="353"/>
+      <c r="G132" s="353"/>
+      <c r="H132" s="353"/>
+      <c r="I132" s="353"/>
+      <c r="J132" s="353"/>
+      <c r="K132" s="353"/>
+      <c r="L132" s="353"/>
+      <c r="M132" s="353"/>
+      <c r="N132" s="353"/>
+      <c r="O132" s="353"/>
+      <c r="P132" s="353"/>
+      <c r="Q132" s="353"/>
+      <c r="R132" s="353"/>
+      <c r="S132" s="353"/>
+      <c r="T132" s="353"/>
+      <c r="U132" s="353"/>
+      <c r="V132" s="353"/>
+      <c r="W132" s="353"/>
     </row>
     <row r="133" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="322" t="s">
+      <c r="A133" s="353" t="s">
         <v>341</v>
       </c>
-      <c r="B133" s="322"/>
-      <c r="C133" s="322"/>
-      <c r="D133" s="322"/>
-      <c r="E133" s="322"/>
-      <c r="F133" s="322"/>
-      <c r="G133" s="322"/>
-      <c r="H133" s="322"/>
-      <c r="I133" s="322"/>
-      <c r="J133" s="322"/>
-      <c r="K133" s="322"/>
-      <c r="L133" s="322"/>
-      <c r="M133" s="322"/>
-      <c r="N133" s="322"/>
-      <c r="O133" s="322"/>
-      <c r="P133" s="322"/>
-      <c r="Q133" s="322"/>
-      <c r="R133" s="322"/>
-      <c r="S133" s="322"/>
-      <c r="T133" s="322"/>
-      <c r="U133" s="322"/>
-      <c r="V133" s="322"/>
-      <c r="W133" s="322"/>
+      <c r="B133" s="353"/>
+      <c r="C133" s="353"/>
+      <c r="D133" s="353"/>
+      <c r="E133" s="353"/>
+      <c r="F133" s="353"/>
+      <c r="G133" s="353"/>
+      <c r="H133" s="353"/>
+      <c r="I133" s="353"/>
+      <c r="J133" s="353"/>
+      <c r="K133" s="353"/>
+      <c r="L133" s="353"/>
+      <c r="M133" s="353"/>
+      <c r="N133" s="353"/>
+      <c r="O133" s="353"/>
+      <c r="P133" s="353"/>
+      <c r="Q133" s="353"/>
+      <c r="R133" s="353"/>
+      <c r="S133" s="353"/>
+      <c r="T133" s="353"/>
+      <c r="U133" s="353"/>
+      <c r="V133" s="353"/>
+      <c r="W133" s="353"/>
     </row>
     <row r="134" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="322" t="s">
+      <c r="A134" s="353" t="s">
         <v>209</v>
       </c>
-      <c r="B134" s="322"/>
-      <c r="C134" s="322"/>
-      <c r="D134" s="322"/>
-      <c r="E134" s="322"/>
-      <c r="F134" s="322"/>
-      <c r="G134" s="322"/>
-      <c r="H134" s="322"/>
-      <c r="I134" s="322"/>
-      <c r="J134" s="322"/>
-      <c r="K134" s="322"/>
-      <c r="L134" s="322"/>
-      <c r="M134" s="322"/>
-      <c r="N134" s="322"/>
-      <c r="O134" s="322"/>
-      <c r="P134" s="322"/>
-      <c r="Q134" s="322"/>
-      <c r="R134" s="322"/>
-      <c r="S134" s="322"/>
-      <c r="T134" s="322"/>
-      <c r="U134" s="322"/>
-      <c r="V134" s="322"/>
-      <c r="W134" s="322"/>
+      <c r="B134" s="353"/>
+      <c r="C134" s="353"/>
+      <c r="D134" s="353"/>
+      <c r="E134" s="353"/>
+      <c r="F134" s="353"/>
+      <c r="G134" s="353"/>
+      <c r="H134" s="353"/>
+      <c r="I134" s="353"/>
+      <c r="J134" s="353"/>
+      <c r="K134" s="353"/>
+      <c r="L134" s="353"/>
+      <c r="M134" s="353"/>
+      <c r="N134" s="353"/>
+      <c r="O134" s="353"/>
+      <c r="P134" s="353"/>
+      <c r="Q134" s="353"/>
+      <c r="R134" s="353"/>
+      <c r="S134" s="353"/>
+      <c r="T134" s="353"/>
+      <c r="U134" s="353"/>
+      <c r="V134" s="353"/>
+      <c r="W134" s="353"/>
     </row>
     <row r="135" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="233"/>
@@ -16107,11 +16107,11 @@
       <c r="E136" s="227"/>
       <c r="F136" s="227"/>
       <c r="G136" s="227"/>
-      <c r="H136" s="377">
+      <c r="H136" s="366">
         <f>Admin!G4</f>
         <v>1</v>
       </c>
-      <c r="I136" s="379"/>
+      <c r="I136" s="367"/>
       <c r="J136" s="227"/>
       <c r="K136" s="227"/>
       <c r="L136" s="236">
@@ -16189,12 +16189,12 @@
       <c r="C139" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D139" s="319">
+      <c r="D139" s="343">
         <f>IF([1]Schedule!$Q$1&gt;0,[1]Schedule!$Q$1,0)</f>
         <v>0</v>
       </c>
-      <c r="E139" s="320"/>
-      <c r="F139" s="321"/>
+      <c r="E139" s="344"/>
+      <c r="F139" s="345"/>
       <c r="G139" s="218" t="s">
         <v>167</v>
       </c>
@@ -16211,12 +16211,12 @@
       <c r="N139" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O139" s="319">
+      <c r="O139" s="343">
         <f>IF(([1]Schedule!$R$1+[1]Schedule!$S$1)&lt;1000,[1]Schedule!$S$1,0)</f>
         <v>0</v>
       </c>
-      <c r="P139" s="320"/>
-      <c r="Q139" s="321"/>
+      <c r="P139" s="344"/>
+      <c r="Q139" s="345"/>
       <c r="R139" s="218" t="s">
         <v>167</v>
       </c>
@@ -16266,11 +16266,11 @@
       <c r="D141" s="227"/>
       <c r="E141" s="227"/>
       <c r="F141" s="227"/>
-      <c r="G141" s="377">
+      <c r="G141" s="366">
         <f>Admin!G5</f>
         <v>0.18</v>
       </c>
-      <c r="H141" s="378"/>
+      <c r="H141" s="368"/>
       <c r="I141" s="227" t="s">
         <v>211</v>
       </c>
@@ -16353,12 +16353,12 @@
       <c r="C144" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D144" s="319">
+      <c r="D144" s="343">
         <f>[1]Schedule!$R$1-D152</f>
         <v>0</v>
       </c>
-      <c r="E144" s="320"/>
-      <c r="F144" s="321"/>
+      <c r="E144" s="344"/>
+      <c r="F144" s="345"/>
       <c r="G144" s="218" t="s">
         <v>167</v>
       </c>
@@ -16375,12 +16375,12 @@
       <c r="N144" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O144" s="319">
+      <c r="O144" s="343">
         <f>[1]Schedule!$Y$1</f>
         <v>0</v>
       </c>
-      <c r="P144" s="320"/>
-      <c r="Q144" s="321"/>
+      <c r="P144" s="344"/>
+      <c r="Q144" s="345"/>
       <c r="R144" s="218" t="s">
         <v>167</v>
       </c>
@@ -16431,10 +16431,10 @@
       <c r="E146" s="227"/>
       <c r="F146" s="227"/>
       <c r="G146" s="227"/>
-      <c r="H146" s="377">
+      <c r="H146" s="366">
         <v>0.1</v>
       </c>
-      <c r="I146" s="379"/>
+      <c r="I146" s="367"/>
       <c r="J146" s="220"/>
       <c r="K146" s="220"/>
       <c r="L146" s="220"/>
@@ -16456,9 +16456,9 @@
       <c r="C147" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D147" s="319"/>
-      <c r="E147" s="320"/>
-      <c r="F147" s="321"/>
+      <c r="D147" s="343"/>
+      <c r="E147" s="344"/>
+      <c r="F147" s="345"/>
       <c r="G147" s="218" t="s">
         <v>167</v>
       </c>
@@ -16533,12 +16533,12 @@
       <c r="N149" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O149" s="319">
+      <c r="O149" s="343">
         <f>D139+D144+D147+D152+D156+D160+O139+O144</f>
         <v>0</v>
       </c>
-      <c r="P149" s="320"/>
-      <c r="Q149" s="321"/>
+      <c r="P149" s="344"/>
+      <c r="Q149" s="345"/>
       <c r="R149" s="218" t="s">
         <v>167</v>
       </c>
@@ -16614,12 +16614,12 @@
       <c r="C152" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D152" s="319">
+      <c r="D152" s="343">
         <f>SUM([1]Schedule!$R$38:$R$42)+SUM([1]Schedule!$R$91:$R$95)</f>
         <v>0</v>
       </c>
-      <c r="E152" s="306"/>
-      <c r="F152" s="307"/>
+      <c r="E152" s="318"/>
+      <c r="F152" s="319"/>
       <c r="G152" s="218" t="s">
         <v>167</v>
       </c>
@@ -16692,9 +16692,9 @@
       <c r="N154" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O154" s="319"/>
-      <c r="P154" s="320"/>
-      <c r="Q154" s="321"/>
+      <c r="O154" s="343"/>
+      <c r="P154" s="344"/>
+      <c r="Q154" s="345"/>
       <c r="R154" s="218" t="s">
         <v>167</v>
       </c>
@@ -16739,9 +16739,9 @@
       <c r="C156" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D156" s="319"/>
-      <c r="E156" s="306"/>
-      <c r="F156" s="307"/>
+      <c r="D156" s="343"/>
+      <c r="E156" s="318"/>
+      <c r="F156" s="319"/>
       <c r="G156" s="218" t="s">
         <v>167</v>
       </c>
@@ -16861,9 +16861,9 @@
       <c r="C160" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D160" s="319"/>
-      <c r="E160" s="320"/>
-      <c r="F160" s="321"/>
+      <c r="D160" s="343"/>
+      <c r="E160" s="344"/>
+      <c r="F160" s="345"/>
       <c r="G160" s="218" t="s">
         <v>167</v>
       </c>
@@ -16880,12 +16880,12 @@
       <c r="N160" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O160" s="319">
+      <c r="O160" s="343">
         <f>[1]Schedule!$Z$1</f>
         <v>0</v>
       </c>
-      <c r="P160" s="320"/>
-      <c r="Q160" s="321"/>
+      <c r="P160" s="344"/>
+      <c r="Q160" s="345"/>
       <c r="R160" s="218" t="s">
         <v>167</v>
       </c>
@@ -16925,85 +16925,85 @@
       <c r="W161" s="251"/>
     </row>
     <row r="162" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="328" t="s">
+      <c r="A162" s="352" t="s">
         <v>222</v>
       </c>
-      <c r="B162" s="328"/>
-      <c r="C162" s="328"/>
-      <c r="D162" s="328"/>
-      <c r="E162" s="328"/>
-      <c r="F162" s="328"/>
-      <c r="G162" s="328"/>
-      <c r="H162" s="328"/>
-      <c r="I162" s="328"/>
-      <c r="J162" s="328"/>
-      <c r="K162" s="328"/>
-      <c r="L162" s="328"/>
-      <c r="M162" s="328"/>
-      <c r="N162" s="328"/>
-      <c r="O162" s="328"/>
-      <c r="P162" s="328"/>
-      <c r="Q162" s="328"/>
-      <c r="R162" s="328"/>
-      <c r="S162" s="328"/>
-      <c r="T162" s="328"/>
-      <c r="U162" s="328"/>
-      <c r="V162" s="328"/>
-      <c r="W162" s="328"/>
+      <c r="B162" s="352"/>
+      <c r="C162" s="352"/>
+      <c r="D162" s="352"/>
+      <c r="E162" s="352"/>
+      <c r="F162" s="352"/>
+      <c r="G162" s="352"/>
+      <c r="H162" s="352"/>
+      <c r="I162" s="352"/>
+      <c r="J162" s="352"/>
+      <c r="K162" s="352"/>
+      <c r="L162" s="352"/>
+      <c r="M162" s="352"/>
+      <c r="N162" s="352"/>
+      <c r="O162" s="352"/>
+      <c r="P162" s="352"/>
+      <c r="Q162" s="352"/>
+      <c r="R162" s="352"/>
+      <c r="S162" s="352"/>
+      <c r="T162" s="352"/>
+      <c r="U162" s="352"/>
+      <c r="V162" s="352"/>
+      <c r="W162" s="352"/>
     </row>
     <row r="163" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="322" t="s">
+      <c r="A163" s="353" t="s">
         <v>223</v>
       </c>
-      <c r="B163" s="322"/>
-      <c r="C163" s="322"/>
-      <c r="D163" s="322"/>
-      <c r="E163" s="322"/>
-      <c r="F163" s="322"/>
-      <c r="G163" s="322"/>
-      <c r="H163" s="322"/>
-      <c r="I163" s="322"/>
-      <c r="J163" s="322"/>
-      <c r="K163" s="322"/>
-      <c r="L163" s="322"/>
-      <c r="M163" s="322"/>
-      <c r="N163" s="322"/>
-      <c r="O163" s="322"/>
-      <c r="P163" s="322"/>
-      <c r="Q163" s="322"/>
-      <c r="R163" s="322"/>
-      <c r="S163" s="322"/>
-      <c r="T163" s="322"/>
-      <c r="U163" s="322"/>
-      <c r="V163" s="322"/>
-      <c r="W163" s="322"/>
+      <c r="B163" s="353"/>
+      <c r="C163" s="353"/>
+      <c r="D163" s="353"/>
+      <c r="E163" s="353"/>
+      <c r="F163" s="353"/>
+      <c r="G163" s="353"/>
+      <c r="H163" s="353"/>
+      <c r="I163" s="353"/>
+      <c r="J163" s="353"/>
+      <c r="K163" s="353"/>
+      <c r="L163" s="353"/>
+      <c r="M163" s="353"/>
+      <c r="N163" s="353"/>
+      <c r="O163" s="353"/>
+      <c r="P163" s="353"/>
+      <c r="Q163" s="353"/>
+      <c r="R163" s="353"/>
+      <c r="S163" s="353"/>
+      <c r="T163" s="353"/>
+      <c r="U163" s="353"/>
+      <c r="V163" s="353"/>
+      <c r="W163" s="353"/>
     </row>
     <row r="164" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="322" t="s">
+      <c r="A164" s="353" t="s">
         <v>349</v>
       </c>
-      <c r="B164" s="322"/>
-      <c r="C164" s="322"/>
-      <c r="D164" s="322"/>
-      <c r="E164" s="322"/>
-      <c r="F164" s="322"/>
-      <c r="G164" s="322"/>
-      <c r="H164" s="322"/>
-      <c r="I164" s="322"/>
-      <c r="J164" s="322"/>
-      <c r="K164" s="322"/>
-      <c r="L164" s="322"/>
-      <c r="M164" s="322"/>
-      <c r="N164" s="322"/>
-      <c r="O164" s="322"/>
-      <c r="P164" s="322"/>
-      <c r="Q164" s="322"/>
-      <c r="R164" s="322"/>
-      <c r="S164" s="322"/>
-      <c r="T164" s="322"/>
-      <c r="U164" s="322"/>
-      <c r="V164" s="322"/>
-      <c r="W164" s="322"/>
+      <c r="B164" s="353"/>
+      <c r="C164" s="353"/>
+      <c r="D164" s="353"/>
+      <c r="E164" s="353"/>
+      <c r="F164" s="353"/>
+      <c r="G164" s="353"/>
+      <c r="H164" s="353"/>
+      <c r="I164" s="353"/>
+      <c r="J164" s="353"/>
+      <c r="K164" s="353"/>
+      <c r="L164" s="353"/>
+      <c r="M164" s="353"/>
+      <c r="N164" s="353"/>
+      <c r="O164" s="353"/>
+      <c r="P164" s="353"/>
+      <c r="Q164" s="353"/>
+      <c r="R164" s="353"/>
+      <c r="S164" s="353"/>
+      <c r="T164" s="353"/>
+      <c r="U164" s="353"/>
+      <c r="V164" s="353"/>
+      <c r="W164" s="353"/>
     </row>
     <row r="165" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="233"/>
@@ -17123,12 +17123,12 @@
       <c r="C169" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D169" s="319">
+      <c r="D169" s="343">
         <f>'Business Details'!O50</f>
         <v>0</v>
       </c>
-      <c r="E169" s="320"/>
-      <c r="F169" s="321"/>
+      <c r="E169" s="344"/>
+      <c r="F169" s="345"/>
       <c r="G169" s="218" t="s">
         <v>167</v>
       </c>
@@ -17145,12 +17145,12 @@
       <c r="N169" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O169" s="319">
+      <c r="O169" s="343">
         <f>O149+D179</f>
         <v>0</v>
       </c>
-      <c r="P169" s="320"/>
-      <c r="Q169" s="321"/>
+      <c r="P169" s="344"/>
+      <c r="Q169" s="345"/>
       <c r="R169" s="218" t="s">
         <v>167</v>
       </c>
@@ -17282,12 +17282,12 @@
       <c r="C174" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D174" s="319">
+      <c r="D174" s="343">
         <f>O122+O154+O160+D169</f>
         <v>0</v>
       </c>
-      <c r="E174" s="320"/>
-      <c r="F174" s="321"/>
+      <c r="E174" s="344"/>
+      <c r="F174" s="345"/>
       <c r="G174" s="218" t="s">
         <v>167</v>
       </c>
@@ -17304,12 +17304,12 @@
       <c r="N174" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O174" s="319">
+      <c r="O174" s="343">
         <f>IF((D129+D174-O169)&gt;0,(D129+D174-O169),IF((-O129+D174-O169)&gt;0,(-O129+D174-O169),0))</f>
         <v>0</v>
       </c>
-      <c r="P174" s="320"/>
-      <c r="Q174" s="321"/>
+      <c r="P174" s="344"/>
+      <c r="Q174" s="345"/>
       <c r="R174" s="218" t="s">
         <v>167</v>
       </c>
@@ -17441,9 +17441,9 @@
       <c r="C179" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D179" s="319"/>
-      <c r="E179" s="320"/>
-      <c r="F179" s="321"/>
+      <c r="D179" s="343"/>
+      <c r="E179" s="344"/>
+      <c r="F179" s="345"/>
       <c r="G179" s="218" t="s">
         <v>167</v>
       </c>
@@ -17460,12 +17460,12 @@
       <c r="N179" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O179" s="319">
+      <c r="O179" s="343">
         <f>IF(O174&gt;0,0,IF((D129+D174-O169)&lt;0,-(D129+D174-O169),IF((-O129+D174-O169)&lt;0,-(-O129+D174-O169),0)))</f>
         <v>0</v>
       </c>
-      <c r="P179" s="320"/>
-      <c r="Q179" s="321"/>
+      <c r="P179" s="344"/>
+      <c r="Q179" s="345"/>
       <c r="R179" s="218" t="s">
         <v>167</v>
       </c>
@@ -17505,112 +17505,112 @@
       <c r="W180" s="251"/>
     </row>
     <row r="181" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="328" t="s">
+      <c r="A181" s="352" t="s">
         <v>229</v>
       </c>
-      <c r="B181" s="328"/>
-      <c r="C181" s="328"/>
-      <c r="D181" s="328"/>
-      <c r="E181" s="328"/>
-      <c r="F181" s="328"/>
-      <c r="G181" s="328"/>
-      <c r="H181" s="328"/>
-      <c r="I181" s="328"/>
-      <c r="J181" s="328"/>
-      <c r="K181" s="328"/>
-      <c r="L181" s="328"/>
-      <c r="M181" s="328"/>
-      <c r="N181" s="328"/>
-      <c r="O181" s="328"/>
-      <c r="P181" s="328"/>
-      <c r="Q181" s="328"/>
-      <c r="R181" s="328"/>
-      <c r="S181" s="328"/>
-      <c r="T181" s="328"/>
-      <c r="U181" s="328"/>
-      <c r="V181" s="328"/>
-      <c r="W181" s="328"/>
+      <c r="B181" s="352"/>
+      <c r="C181" s="352"/>
+      <c r="D181" s="352"/>
+      <c r="E181" s="352"/>
+      <c r="F181" s="352"/>
+      <c r="G181" s="352"/>
+      <c r="H181" s="352"/>
+      <c r="I181" s="352"/>
+      <c r="J181" s="352"/>
+      <c r="K181" s="352"/>
+      <c r="L181" s="352"/>
+      <c r="M181" s="352"/>
+      <c r="N181" s="352"/>
+      <c r="O181" s="352"/>
+      <c r="P181" s="352"/>
+      <c r="Q181" s="352"/>
+      <c r="R181" s="352"/>
+      <c r="S181" s="352"/>
+      <c r="T181" s="352"/>
+      <c r="U181" s="352"/>
+      <c r="V181" s="352"/>
+      <c r="W181" s="352"/>
     </row>
     <row r="182" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="322" t="s">
+      <c r="A182" s="353" t="s">
         <v>230</v>
       </c>
-      <c r="B182" s="322"/>
-      <c r="C182" s="322"/>
-      <c r="D182" s="322"/>
-      <c r="E182" s="322"/>
-      <c r="F182" s="322"/>
-      <c r="G182" s="322"/>
-      <c r="H182" s="322"/>
-      <c r="I182" s="322"/>
-      <c r="J182" s="322"/>
-      <c r="K182" s="322"/>
-      <c r="L182" s="322"/>
-      <c r="M182" s="322"/>
-      <c r="N182" s="322"/>
-      <c r="O182" s="322"/>
-      <c r="P182" s="322"/>
-      <c r="Q182" s="322"/>
-      <c r="R182" s="322"/>
-      <c r="S182" s="322"/>
-      <c r="T182" s="322"/>
-      <c r="U182" s="322"/>
-      <c r="V182" s="322"/>
-      <c r="W182" s="322"/>
+      <c r="B182" s="353"/>
+      <c r="C182" s="353"/>
+      <c r="D182" s="353"/>
+      <c r="E182" s="353"/>
+      <c r="F182" s="353"/>
+      <c r="G182" s="353"/>
+      <c r="H182" s="353"/>
+      <c r="I182" s="353"/>
+      <c r="J182" s="353"/>
+      <c r="K182" s="353"/>
+      <c r="L182" s="353"/>
+      <c r="M182" s="353"/>
+      <c r="N182" s="353"/>
+      <c r="O182" s="353"/>
+      <c r="P182" s="353"/>
+      <c r="Q182" s="353"/>
+      <c r="R182" s="353"/>
+      <c r="S182" s="353"/>
+      <c r="T182" s="353"/>
+      <c r="U182" s="353"/>
+      <c r="V182" s="353"/>
+      <c r="W182" s="353"/>
     </row>
     <row r="183" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="322" t="s">
+      <c r="A183" s="353" t="s">
         <v>231</v>
       </c>
-      <c r="B183" s="322"/>
-      <c r="C183" s="322"/>
-      <c r="D183" s="322"/>
-      <c r="E183" s="322"/>
-      <c r="F183" s="322"/>
-      <c r="G183" s="322"/>
-      <c r="H183" s="322"/>
-      <c r="I183" s="322"/>
-      <c r="J183" s="322"/>
-      <c r="K183" s="322"/>
-      <c r="L183" s="322"/>
-      <c r="M183" s="322"/>
-      <c r="N183" s="322"/>
-      <c r="O183" s="322"/>
-      <c r="P183" s="322"/>
-      <c r="Q183" s="322"/>
-      <c r="R183" s="322"/>
-      <c r="S183" s="322"/>
-      <c r="T183" s="322"/>
-      <c r="U183" s="322"/>
-      <c r="V183" s="322"/>
-      <c r="W183" s="322"/>
+      <c r="B183" s="353"/>
+      <c r="C183" s="353"/>
+      <c r="D183" s="353"/>
+      <c r="E183" s="353"/>
+      <c r="F183" s="353"/>
+      <c r="G183" s="353"/>
+      <c r="H183" s="353"/>
+      <c r="I183" s="353"/>
+      <c r="J183" s="353"/>
+      <c r="K183" s="353"/>
+      <c r="L183" s="353"/>
+      <c r="M183" s="353"/>
+      <c r="N183" s="353"/>
+      <c r="O183" s="353"/>
+      <c r="P183" s="353"/>
+      <c r="Q183" s="353"/>
+      <c r="R183" s="353"/>
+      <c r="S183" s="353"/>
+      <c r="T183" s="353"/>
+      <c r="U183" s="353"/>
+      <c r="V183" s="353"/>
+      <c r="W183" s="353"/>
     </row>
     <row r="184" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="376" t="s">
+      <c r="A184" s="374" t="s">
         <v>232</v>
       </c>
-      <c r="B184" s="376"/>
-      <c r="C184" s="376"/>
-      <c r="D184" s="376"/>
-      <c r="E184" s="376"/>
-      <c r="F184" s="376"/>
-      <c r="G184" s="376"/>
-      <c r="H184" s="376"/>
-      <c r="I184" s="376"/>
-      <c r="J184" s="376"/>
-      <c r="K184" s="376"/>
-      <c r="L184" s="376"/>
-      <c r="M184" s="376"/>
-      <c r="N184" s="376"/>
-      <c r="O184" s="376"/>
-      <c r="P184" s="376"/>
-      <c r="Q184" s="376"/>
-      <c r="R184" s="376"/>
-      <c r="S184" s="376"/>
-      <c r="T184" s="376"/>
-      <c r="U184" s="376"/>
-      <c r="V184" s="376"/>
-      <c r="W184" s="376"/>
+      <c r="B184" s="374"/>
+      <c r="C184" s="374"/>
+      <c r="D184" s="374"/>
+      <c r="E184" s="374"/>
+      <c r="F184" s="374"/>
+      <c r="G184" s="374"/>
+      <c r="H184" s="374"/>
+      <c r="I184" s="374"/>
+      <c r="J184" s="374"/>
+      <c r="K184" s="374"/>
+      <c r="L184" s="374"/>
+      <c r="M184" s="374"/>
+      <c r="N184" s="374"/>
+      <c r="O184" s="374"/>
+      <c r="P184" s="374"/>
+      <c r="Q184" s="374"/>
+      <c r="R184" s="374"/>
+      <c r="S184" s="374"/>
+      <c r="T184" s="374"/>
+      <c r="U184" s="374"/>
+      <c r="V184" s="374"/>
+      <c r="W184" s="374"/>
     </row>
     <row r="185" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="233"/>
@@ -17673,10 +17673,10 @@
     <row r="187" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A187" s="255"/>
       <c r="B187" s="220"/>
-      <c r="C187" s="370"/>
-      <c r="D187" s="371"/>
-      <c r="E187" s="371"/>
-      <c r="F187" s="372"/>
+      <c r="C187" s="369"/>
+      <c r="D187" s="370"/>
+      <c r="E187" s="370"/>
+      <c r="F187" s="371"/>
       <c r="G187" s="227"/>
       <c r="H187" s="227"/>
       <c r="I187" s="227"/>
@@ -17701,9 +17701,9 @@
       <c r="A188" s="240"/>
       <c r="B188" s="220"/>
       <c r="C188" s="261"/>
-      <c r="D188" s="373"/>
-      <c r="E188" s="373"/>
-      <c r="F188" s="373"/>
+      <c r="D188" s="372"/>
+      <c r="E188" s="372"/>
+      <c r="F188" s="372"/>
       <c r="G188" s="218"/>
       <c r="H188" s="253"/>
       <c r="I188" s="253"/>
@@ -17758,10 +17758,10 @@
     <row r="190" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A190" s="255"/>
       <c r="B190" s="220"/>
-      <c r="C190" s="370"/>
-      <c r="D190" s="371"/>
-      <c r="E190" s="371"/>
-      <c r="F190" s="372"/>
+      <c r="C190" s="369"/>
+      <c r="D190" s="370"/>
+      <c r="E190" s="370"/>
+      <c r="F190" s="371"/>
       <c r="G190" s="227"/>
       <c r="H190" s="227"/>
       <c r="I190" s="227"/>
@@ -17775,8 +17775,8 @@
       <c r="O190" s="275" t="s">
         <v>239</v>
       </c>
-      <c r="P190" s="374"/>
-      <c r="Q190" s="375"/>
+      <c r="P190" s="362"/>
+      <c r="Q190" s="373"/>
       <c r="R190" s="218" t="s">
         <v>167</v>
       </c>
@@ -17901,12 +17901,12 @@
       <c r="N194" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O194" s="319">
+      <c r="O194" s="343">
         <f>O174</f>
         <v>0</v>
       </c>
-      <c r="P194" s="320"/>
-      <c r="Q194" s="321"/>
+      <c r="P194" s="344"/>
+      <c r="Q194" s="345"/>
       <c r="R194" s="218" t="s">
         <v>167</v>
       </c>
@@ -17987,8 +17987,8 @@
       <c r="D197" s="275" t="s">
         <v>239</v>
       </c>
-      <c r="E197" s="374"/>
-      <c r="F197" s="375"/>
+      <c r="E197" s="362"/>
+      <c r="F197" s="373"/>
       <c r="G197" s="218" t="s">
         <v>167</v>
       </c>
@@ -18063,12 +18063,12 @@
       <c r="N199" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O199" s="319">
+      <c r="O199" s="343">
         <f>IF(D179&gt;0,0,IF((O194+O204)&gt;'Business Details'!D50,'Business Details'!D50,(O194+O204)))</f>
         <v>0</v>
       </c>
-      <c r="P199" s="320"/>
-      <c r="Q199" s="321"/>
+      <c r="P199" s="344"/>
+      <c r="Q199" s="345"/>
       <c r="R199" s="218" t="s">
         <v>167</v>
       </c>
@@ -18113,9 +18113,9 @@
       <c r="C201" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D201" s="319"/>
-      <c r="E201" s="320"/>
-      <c r="F201" s="321"/>
+      <c r="D201" s="343"/>
+      <c r="E201" s="344"/>
+      <c r="F201" s="345"/>
       <c r="G201" s="218" t="s">
         <v>167</v>
       </c>
@@ -18217,12 +18217,12 @@
       <c r="N204" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O204" s="319">
+      <c r="O204" s="343">
         <f>'Profit &amp; Loss Account'!B16</f>
         <v>0</v>
       </c>
-      <c r="P204" s="320"/>
-      <c r="Q204" s="321"/>
+      <c r="P204" s="344"/>
+      <c r="Q204" s="345"/>
       <c r="R204" s="218" t="s">
         <v>167</v>
       </c>
@@ -18267,9 +18267,9 @@
       <c r="C206" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D206" s="319"/>
-      <c r="E206" s="320"/>
-      <c r="F206" s="321"/>
+      <c r="D206" s="343"/>
+      <c r="E206" s="344"/>
+      <c r="F206" s="345"/>
       <c r="G206" s="218" t="s">
         <v>167</v>
       </c>
@@ -18389,9 +18389,9 @@
       <c r="C210" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D210" s="319"/>
-      <c r="E210" s="320"/>
-      <c r="F210" s="321"/>
+      <c r="D210" s="343"/>
+      <c r="E210" s="344"/>
+      <c r="F210" s="345"/>
       <c r="G210" s="218" t="s">
         <v>167</v>
       </c>
@@ -18408,12 +18408,12 @@
       <c r="N210" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O210" s="319">
+      <c r="O210" s="343">
         <f>O194-O199+O204</f>
         <v>0</v>
       </c>
-      <c r="P210" s="320"/>
-      <c r="Q210" s="321"/>
+      <c r="P210" s="344"/>
+      <c r="Q210" s="345"/>
       <c r="R210" s="218" t="s">
         <v>167</v>
       </c>
@@ -18453,85 +18453,85 @@
       <c r="W211" s="251"/>
     </row>
     <row r="212" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="327" t="s">
+      <c r="A212" s="355" t="s">
         <v>249</v>
       </c>
-      <c r="B212" s="327"/>
-      <c r="C212" s="327"/>
-      <c r="D212" s="327"/>
-      <c r="E212" s="327"/>
-      <c r="F212" s="327"/>
-      <c r="G212" s="327"/>
-      <c r="H212" s="327"/>
-      <c r="I212" s="327"/>
-      <c r="J212" s="327"/>
-      <c r="K212" s="327"/>
-      <c r="L212" s="327"/>
-      <c r="M212" s="327"/>
-      <c r="N212" s="327"/>
-      <c r="O212" s="327"/>
-      <c r="P212" s="327"/>
-      <c r="Q212" s="327"/>
-      <c r="R212" s="327"/>
-      <c r="S212" s="327"/>
-      <c r="T212" s="327"/>
-      <c r="U212" s="327"/>
-      <c r="V212" s="327"/>
-      <c r="W212" s="327"/>
+      <c r="B212" s="355"/>
+      <c r="C212" s="355"/>
+      <c r="D212" s="355"/>
+      <c r="E212" s="355"/>
+      <c r="F212" s="355"/>
+      <c r="G212" s="355"/>
+      <c r="H212" s="355"/>
+      <c r="I212" s="355"/>
+      <c r="J212" s="355"/>
+      <c r="K212" s="355"/>
+      <c r="L212" s="355"/>
+      <c r="M212" s="355"/>
+      <c r="N212" s="355"/>
+      <c r="O212" s="355"/>
+      <c r="P212" s="355"/>
+      <c r="Q212" s="355"/>
+      <c r="R212" s="355"/>
+      <c r="S212" s="355"/>
+      <c r="T212" s="355"/>
+      <c r="U212" s="355"/>
+      <c r="V212" s="355"/>
+      <c r="W212" s="355"/>
     </row>
     <row r="213" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="322" t="s">
+      <c r="A213" s="353" t="s">
         <v>250</v>
       </c>
-      <c r="B213" s="322"/>
-      <c r="C213" s="322"/>
-      <c r="D213" s="322"/>
-      <c r="E213" s="322"/>
-      <c r="F213" s="322"/>
-      <c r="G213" s="322"/>
-      <c r="H213" s="322"/>
-      <c r="I213" s="322"/>
-      <c r="J213" s="322"/>
-      <c r="K213" s="322"/>
-      <c r="L213" s="322"/>
-      <c r="M213" s="322"/>
-      <c r="N213" s="322"/>
-      <c r="O213" s="322"/>
-      <c r="P213" s="322"/>
-      <c r="Q213" s="322"/>
-      <c r="R213" s="322"/>
-      <c r="S213" s="322"/>
-      <c r="T213" s="322"/>
-      <c r="U213" s="322"/>
-      <c r="V213" s="322"/>
-      <c r="W213" s="322"/>
+      <c r="B213" s="353"/>
+      <c r="C213" s="353"/>
+      <c r="D213" s="353"/>
+      <c r="E213" s="353"/>
+      <c r="F213" s="353"/>
+      <c r="G213" s="353"/>
+      <c r="H213" s="353"/>
+      <c r="I213" s="353"/>
+      <c r="J213" s="353"/>
+      <c r="K213" s="353"/>
+      <c r="L213" s="353"/>
+      <c r="M213" s="353"/>
+      <c r="N213" s="353"/>
+      <c r="O213" s="353"/>
+      <c r="P213" s="353"/>
+      <c r="Q213" s="353"/>
+      <c r="R213" s="353"/>
+      <c r="S213" s="353"/>
+      <c r="T213" s="353"/>
+      <c r="U213" s="353"/>
+      <c r="V213" s="353"/>
+      <c r="W213" s="353"/>
     </row>
     <row r="214" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="322" t="s">
+      <c r="A214" s="353" t="s">
         <v>251</v>
       </c>
-      <c r="B214" s="322"/>
-      <c r="C214" s="322"/>
-      <c r="D214" s="322"/>
-      <c r="E214" s="322"/>
-      <c r="F214" s="322"/>
-      <c r="G214" s="322"/>
-      <c r="H214" s="322"/>
-      <c r="I214" s="322"/>
-      <c r="J214" s="322"/>
-      <c r="K214" s="322"/>
-      <c r="L214" s="322"/>
-      <c r="M214" s="322"/>
-      <c r="N214" s="322"/>
-      <c r="O214" s="322"/>
-      <c r="P214" s="322"/>
-      <c r="Q214" s="322"/>
-      <c r="R214" s="322"/>
-      <c r="S214" s="322"/>
-      <c r="T214" s="322"/>
-      <c r="U214" s="322"/>
-      <c r="V214" s="322"/>
-      <c r="W214" s="322"/>
+      <c r="B214" s="353"/>
+      <c r="C214" s="353"/>
+      <c r="D214" s="353"/>
+      <c r="E214" s="353"/>
+      <c r="F214" s="353"/>
+      <c r="G214" s="353"/>
+      <c r="H214" s="353"/>
+      <c r="I214" s="353"/>
+      <c r="J214" s="353"/>
+      <c r="K214" s="353"/>
+      <c r="L214" s="353"/>
+      <c r="M214" s="353"/>
+      <c r="N214" s="353"/>
+      <c r="O214" s="353"/>
+      <c r="P214" s="353"/>
+      <c r="Q214" s="353"/>
+      <c r="R214" s="353"/>
+      <c r="S214" s="353"/>
+      <c r="T214" s="353"/>
+      <c r="U214" s="353"/>
+      <c r="V214" s="353"/>
+      <c r="W214" s="353"/>
     </row>
     <row r="215" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="233"/>
@@ -18656,12 +18656,12 @@
       <c r="C219" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D219" s="319">
+      <c r="D219" s="343">
         <f>O179+E197-D201+D210+P190</f>
         <v>0</v>
       </c>
-      <c r="E219" s="320"/>
-      <c r="F219" s="321"/>
+      <c r="E219" s="344"/>
+      <c r="F219" s="345"/>
       <c r="G219" s="218" t="s">
         <v>167</v>
       </c>
@@ -18678,9 +18678,9 @@
       <c r="N219" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O219" s="319"/>
-      <c r="P219" s="320"/>
-      <c r="Q219" s="321"/>
+      <c r="O219" s="343"/>
+      <c r="P219" s="344"/>
+      <c r="Q219" s="345"/>
       <c r="R219" s="218" t="s">
         <v>167</v>
       </c>
@@ -18758,12 +18758,12 @@
       <c r="C222" s="227" t="s">
         <v>257</v>
       </c>
-      <c r="D222" s="323" t="str">
+      <c r="D222" s="356" t="str">
         <f>Admin!G2</f>
         <v>2022-23</v>
       </c>
-      <c r="E222" s="324"/>
-      <c r="F222" s="333"/>
+      <c r="E222" s="348"/>
+      <c r="F222" s="349"/>
       <c r="G222" s="220"/>
       <c r="H222" s="220"/>
       <c r="I222" s="220"/>
@@ -18815,9 +18815,9 @@
       <c r="C224" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D224" s="319"/>
-      <c r="E224" s="320"/>
-      <c r="F224" s="321"/>
+      <c r="D224" s="343"/>
+      <c r="E224" s="344"/>
+      <c r="F224" s="345"/>
       <c r="G224" s="218" t="s">
         <v>167</v>
       </c>
@@ -18834,12 +18834,12 @@
       <c r="N224" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O224" s="319">
+      <c r="O224" s="343">
         <f>D219</f>
         <v>0</v>
       </c>
-      <c r="P224" s="320"/>
-      <c r="Q224" s="321"/>
+      <c r="P224" s="344"/>
+      <c r="Q224" s="345"/>
       <c r="R224" s="218" t="s">
         <v>167</v>
       </c>
@@ -18879,31 +18879,31 @@
       <c r="W225" s="251"/>
     </row>
     <row r="226" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="369" t="s">
+      <c r="A226" s="375" t="s">
         <v>259</v>
       </c>
-      <c r="B226" s="369"/>
-      <c r="C226" s="369"/>
-      <c r="D226" s="369"/>
-      <c r="E226" s="369"/>
-      <c r="F226" s="369"/>
-      <c r="G226" s="369"/>
-      <c r="H226" s="369"/>
-      <c r="I226" s="369"/>
-      <c r="J226" s="369"/>
-      <c r="K226" s="369"/>
-      <c r="L226" s="369"/>
-      <c r="M226" s="369"/>
-      <c r="N226" s="369"/>
-      <c r="O226" s="369"/>
-      <c r="P226" s="369"/>
-      <c r="Q226" s="369"/>
-      <c r="R226" s="369"/>
-      <c r="S226" s="369"/>
-      <c r="T226" s="369"/>
-      <c r="U226" s="369"/>
-      <c r="V226" s="369"/>
-      <c r="W226" s="369"/>
+      <c r="B226" s="375"/>
+      <c r="C226" s="375"/>
+      <c r="D226" s="375"/>
+      <c r="E226" s="375"/>
+      <c r="F226" s="375"/>
+      <c r="G226" s="375"/>
+      <c r="H226" s="375"/>
+      <c r="I226" s="375"/>
+      <c r="J226" s="375"/>
+      <c r="K226" s="375"/>
+      <c r="L226" s="375"/>
+      <c r="M226" s="375"/>
+      <c r="N226" s="375"/>
+      <c r="O226" s="375"/>
+      <c r="P226" s="375"/>
+      <c r="Q226" s="375"/>
+      <c r="R226" s="375"/>
+      <c r="S226" s="375"/>
+      <c r="T226" s="375"/>
+      <c r="U226" s="375"/>
+      <c r="V226" s="375"/>
+      <c r="W226" s="375"/>
     </row>
     <row r="227" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="233"/>
@@ -19021,12 +19021,12 @@
       <c r="C231" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D231" s="319">
+      <c r="D231" s="343">
         <f>[2]Mar23!$AC$1</f>
         <v>0</v>
       </c>
-      <c r="E231" s="320"/>
-      <c r="F231" s="321"/>
+      <c r="E231" s="344"/>
+      <c r="F231" s="345"/>
       <c r="G231" s="218" t="s">
         <v>167</v>
       </c>
@@ -19043,9 +19043,9 @@
       <c r="N231" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O231" s="319"/>
-      <c r="P231" s="320"/>
-      <c r="Q231" s="321"/>
+      <c r="O231" s="343"/>
+      <c r="P231" s="344"/>
+      <c r="Q231" s="345"/>
       <c r="R231" s="218" t="s">
         <v>167</v>
       </c>
@@ -19085,85 +19085,85 @@
       <c r="W232" s="251"/>
     </row>
     <row r="233" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="328" t="s">
+      <c r="A233" s="352" t="s">
         <v>370</v>
       </c>
-      <c r="B233" s="328"/>
-      <c r="C233" s="328"/>
-      <c r="D233" s="328"/>
-      <c r="E233" s="328"/>
-      <c r="F233" s="328"/>
-      <c r="G233" s="328"/>
-      <c r="H233" s="328"/>
-      <c r="I233" s="328"/>
-      <c r="J233" s="328"/>
-      <c r="K233" s="328"/>
-      <c r="L233" s="328"/>
-      <c r="M233" s="328"/>
-      <c r="N233" s="328"/>
-      <c r="O233" s="328"/>
-      <c r="P233" s="328"/>
-      <c r="Q233" s="328"/>
-      <c r="R233" s="328"/>
-      <c r="S233" s="328"/>
-      <c r="T233" s="328"/>
-      <c r="U233" s="328"/>
-      <c r="V233" s="328"/>
-      <c r="W233" s="328"/>
+      <c r="B233" s="352"/>
+      <c r="C233" s="352"/>
+      <c r="D233" s="352"/>
+      <c r="E233" s="352"/>
+      <c r="F233" s="352"/>
+      <c r="G233" s="352"/>
+      <c r="H233" s="352"/>
+      <c r="I233" s="352"/>
+      <c r="J233" s="352"/>
+      <c r="K233" s="352"/>
+      <c r="L233" s="352"/>
+      <c r="M233" s="352"/>
+      <c r="N233" s="352"/>
+      <c r="O233" s="352"/>
+      <c r="P233" s="352"/>
+      <c r="Q233" s="352"/>
+      <c r="R233" s="352"/>
+      <c r="S233" s="352"/>
+      <c r="T233" s="352"/>
+      <c r="U233" s="352"/>
+      <c r="V233" s="352"/>
+      <c r="W233" s="352"/>
     </row>
     <row r="234" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="322" t="s">
+      <c r="A234" s="353" t="s">
         <v>263</v>
       </c>
-      <c r="B234" s="322"/>
-      <c r="C234" s="322"/>
-      <c r="D234" s="322"/>
-      <c r="E234" s="322"/>
-      <c r="F234" s="322"/>
-      <c r="G234" s="322"/>
-      <c r="H234" s="322"/>
-      <c r="I234" s="322"/>
-      <c r="J234" s="322"/>
-      <c r="K234" s="322"/>
-      <c r="L234" s="322"/>
-      <c r="M234" s="322"/>
-      <c r="N234" s="322"/>
-      <c r="O234" s="322"/>
-      <c r="P234" s="322"/>
-      <c r="Q234" s="322"/>
-      <c r="R234" s="322"/>
-      <c r="S234" s="322"/>
-      <c r="T234" s="322"/>
-      <c r="U234" s="322"/>
-      <c r="V234" s="322"/>
-      <c r="W234" s="322"/>
+      <c r="B234" s="353"/>
+      <c r="C234" s="353"/>
+      <c r="D234" s="353"/>
+      <c r="E234" s="353"/>
+      <c r="F234" s="353"/>
+      <c r="G234" s="353"/>
+      <c r="H234" s="353"/>
+      <c r="I234" s="353"/>
+      <c r="J234" s="353"/>
+      <c r="K234" s="353"/>
+      <c r="L234" s="353"/>
+      <c r="M234" s="353"/>
+      <c r="N234" s="353"/>
+      <c r="O234" s="353"/>
+      <c r="P234" s="353"/>
+      <c r="Q234" s="353"/>
+      <c r="R234" s="353"/>
+      <c r="S234" s="353"/>
+      <c r="T234" s="353"/>
+      <c r="U234" s="353"/>
+      <c r="V234" s="353"/>
+      <c r="W234" s="353"/>
     </row>
     <row r="235" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="322" t="s">
+      <c r="A235" s="353" t="s">
         <v>371</v>
       </c>
-      <c r="B235" s="322"/>
-      <c r="C235" s="322"/>
-      <c r="D235" s="322"/>
-      <c r="E235" s="322"/>
-      <c r="F235" s="322"/>
-      <c r="G235" s="322"/>
-      <c r="H235" s="322"/>
-      <c r="I235" s="322"/>
-      <c r="J235" s="322"/>
-      <c r="K235" s="322"/>
-      <c r="L235" s="322"/>
-      <c r="M235" s="322"/>
-      <c r="N235" s="322"/>
-      <c r="O235" s="322"/>
-      <c r="P235" s="322"/>
-      <c r="Q235" s="322"/>
-      <c r="R235" s="322"/>
-      <c r="S235" s="322"/>
-      <c r="T235" s="322"/>
-      <c r="U235" s="322"/>
-      <c r="V235" s="322"/>
-      <c r="W235" s="322"/>
+      <c r="B235" s="353"/>
+      <c r="C235" s="353"/>
+      <c r="D235" s="353"/>
+      <c r="E235" s="353"/>
+      <c r="F235" s="353"/>
+      <c r="G235" s="353"/>
+      <c r="H235" s="353"/>
+      <c r="I235" s="353"/>
+      <c r="J235" s="353"/>
+      <c r="K235" s="353"/>
+      <c r="L235" s="353"/>
+      <c r="M235" s="353"/>
+      <c r="N235" s="353"/>
+      <c r="O235" s="353"/>
+      <c r="P235" s="353"/>
+      <c r="Q235" s="353"/>
+      <c r="R235" s="353"/>
+      <c r="S235" s="353"/>
+      <c r="T235" s="353"/>
+      <c r="U235" s="353"/>
+      <c r="V235" s="353"/>
+      <c r="W235" s="353"/>
     </row>
     <row r="236" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A236" s="233"/>
@@ -19308,9 +19308,9 @@
       <c r="C241" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D241" s="319"/>
-      <c r="E241" s="320"/>
-      <c r="F241" s="321"/>
+      <c r="D241" s="343"/>
+      <c r="E241" s="344"/>
+      <c r="F241" s="345"/>
       <c r="G241" s="218" t="s">
         <v>167</v>
       </c>
@@ -19327,9 +19327,9 @@
       <c r="N241" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O241" s="319"/>
-      <c r="P241" s="320"/>
-      <c r="Q241" s="321"/>
+      <c r="O241" s="343"/>
+      <c r="P241" s="344"/>
+      <c r="Q241" s="345"/>
       <c r="R241" s="218" t="s">
         <v>167</v>
       </c>
@@ -19432,9 +19432,9 @@
       <c r="C245" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D245" s="319"/>
-      <c r="E245" s="320"/>
-      <c r="F245" s="321"/>
+      <c r="D245" s="343"/>
+      <c r="E245" s="344"/>
+      <c r="F245" s="345"/>
       <c r="G245" s="218" t="s">
         <v>167</v>
       </c>
@@ -19451,9 +19451,9 @@
       <c r="N245" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O245" s="319"/>
-      <c r="P245" s="320"/>
-      <c r="Q245" s="321"/>
+      <c r="O245" s="343"/>
+      <c r="P245" s="344"/>
+      <c r="Q245" s="345"/>
       <c r="R245" s="218" t="s">
         <v>167</v>
       </c>
@@ -19556,9 +19556,9 @@
       <c r="C249" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D249" s="319"/>
-      <c r="E249" s="320"/>
-      <c r="F249" s="321"/>
+      <c r="D249" s="343"/>
+      <c r="E249" s="344"/>
+      <c r="F249" s="345"/>
       <c r="G249" s="218" t="s">
         <v>167</v>
       </c>
@@ -19575,9 +19575,9 @@
       <c r="N249" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O249" s="319"/>
-      <c r="P249" s="320"/>
-      <c r="Q249" s="321"/>
+      <c r="O249" s="343"/>
+      <c r="P249" s="344"/>
+      <c r="Q249" s="345"/>
       <c r="R249" s="218" t="s">
         <v>167</v>
       </c>
@@ -19678,9 +19678,9 @@
       <c r="C253" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D253" s="319"/>
-      <c r="E253" s="320"/>
-      <c r="F253" s="321"/>
+      <c r="D253" s="343"/>
+      <c r="E253" s="344"/>
+      <c r="F253" s="345"/>
       <c r="G253" s="218" t="s">
         <v>167</v>
       </c>
@@ -19758,9 +19758,9 @@
       <c r="O255" s="284" t="s">
         <v>239</v>
       </c>
-      <c r="P255" s="319"/>
-      <c r="Q255" s="320"/>
-      <c r="R255" s="321"/>
+      <c r="P255" s="343"/>
+      <c r="Q255" s="344"/>
+      <c r="R255" s="345"/>
       <c r="S255" s="218" t="s">
         <v>167</v>
       </c>
@@ -19804,9 +19804,9 @@
       <c r="C257" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D257" s="319"/>
-      <c r="E257" s="320"/>
-      <c r="F257" s="321"/>
+      <c r="D257" s="343"/>
+      <c r="E257" s="344"/>
+      <c r="F257" s="345"/>
       <c r="G257" s="218" t="s">
         <v>167</v>
       </c>
@@ -19922,9 +19922,9 @@
       <c r="C261" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D261" s="319"/>
-      <c r="E261" s="320"/>
-      <c r="F261" s="321"/>
+      <c r="D261" s="343"/>
+      <c r="E261" s="344"/>
+      <c r="F261" s="345"/>
       <c r="G261" s="218" t="s">
         <v>167</v>
       </c>
@@ -19944,9 +19944,9 @@
       <c r="O261" s="275" t="s">
         <v>239</v>
       </c>
-      <c r="P261" s="319"/>
-      <c r="Q261" s="320"/>
-      <c r="R261" s="321"/>
+      <c r="P261" s="343"/>
+      <c r="Q261" s="344"/>
+      <c r="R261" s="345"/>
       <c r="S261" s="218" t="s">
         <v>167</v>
       </c>
@@ -20048,9 +20048,9 @@
       <c r="C265" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D265" s="319"/>
-      <c r="E265" s="320"/>
-      <c r="F265" s="321"/>
+      <c r="D265" s="343"/>
+      <c r="E265" s="344"/>
+      <c r="F265" s="345"/>
       <c r="G265" s="218" t="s">
         <v>167</v>
       </c>
@@ -20070,9 +20070,9 @@
       <c r="O265" s="275" t="s">
         <v>239</v>
       </c>
-      <c r="P265" s="319"/>
-      <c r="Q265" s="320"/>
-      <c r="R265" s="321"/>
+      <c r="P265" s="343"/>
+      <c r="Q265" s="344"/>
+      <c r="R265" s="345"/>
       <c r="S265" s="218" t="s">
         <v>167</v>
       </c>
@@ -20174,9 +20174,9 @@
       <c r="C269" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="D269" s="319"/>
-      <c r="E269" s="320"/>
-      <c r="F269" s="321"/>
+      <c r="D269" s="343"/>
+      <c r="E269" s="344"/>
+      <c r="F269" s="345"/>
       <c r="G269" s="218" t="s">
         <v>167</v>
       </c>
@@ -20193,9 +20193,9 @@
       <c r="N269" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O269" s="319"/>
-      <c r="P269" s="320"/>
-      <c r="Q269" s="321"/>
+      <c r="O269" s="343"/>
+      <c r="P269" s="344"/>
+      <c r="Q269" s="345"/>
       <c r="R269" s="218" t="s">
         <v>167</v>
       </c>
@@ -20305,9 +20305,9 @@
       <c r="N273" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O273" s="319"/>
-      <c r="P273" s="320"/>
-      <c r="Q273" s="321"/>
+      <c r="O273" s="343"/>
+      <c r="P273" s="344"/>
+      <c r="Q273" s="345"/>
       <c r="R273" s="218" t="s">
         <v>167</v>
       </c>
@@ -20420,9 +20420,9 @@
       <c r="O277" s="275" t="s">
         <v>239</v>
       </c>
-      <c r="P277" s="319"/>
-      <c r="Q277" s="320"/>
-      <c r="R277" s="321"/>
+      <c r="P277" s="343"/>
+      <c r="Q277" s="344"/>
+      <c r="R277" s="345"/>
       <c r="S277" s="218" t="s">
         <v>167</v>
       </c>
@@ -20461,90 +20461,90 @@
       <c r="W278" s="251"/>
     </row>
     <row r="279" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A279" s="327" t="s">
+      <c r="A279" s="355" t="s">
         <v>284</v>
       </c>
-      <c r="B279" s="327"/>
-      <c r="C279" s="327"/>
-      <c r="D279" s="327"/>
-      <c r="E279" s="327"/>
-      <c r="F279" s="327"/>
-      <c r="G279" s="327"/>
-      <c r="H279" s="327"/>
-      <c r="I279" s="327"/>
-      <c r="J279" s="327"/>
-      <c r="K279" s="327"/>
-      <c r="L279" s="327"/>
-      <c r="M279" s="327"/>
-      <c r="N279" s="327"/>
-      <c r="O279" s="327"/>
-      <c r="P279" s="327"/>
-      <c r="Q279" s="327"/>
-      <c r="R279" s="327"/>
-      <c r="S279" s="327"/>
-      <c r="T279" s="327"/>
-      <c r="U279" s="327"/>
-      <c r="V279" s="327"/>
-      <c r="W279" s="327"/>
+      <c r="B279" s="355"/>
+      <c r="C279" s="355"/>
+      <c r="D279" s="355"/>
+      <c r="E279" s="355"/>
+      <c r="F279" s="355"/>
+      <c r="G279" s="355"/>
+      <c r="H279" s="355"/>
+      <c r="I279" s="355"/>
+      <c r="J279" s="355"/>
+      <c r="K279" s="355"/>
+      <c r="L279" s="355"/>
+      <c r="M279" s="355"/>
+      <c r="N279" s="355"/>
+      <c r="O279" s="355"/>
+      <c r="P279" s="355"/>
+      <c r="Q279" s="355"/>
+      <c r="R279" s="355"/>
+      <c r="S279" s="355"/>
+      <c r="T279" s="355"/>
+      <c r="U279" s="355"/>
+      <c r="V279" s="355"/>
+      <c r="W279" s="355"/>
     </row>
     <row r="280" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="322" t="s">
+      <c r="A280" s="353" t="s">
         <v>285</v>
       </c>
-      <c r="B280" s="368"/>
-      <c r="C280" s="368"/>
-      <c r="D280" s="368"/>
-      <c r="E280" s="368"/>
-      <c r="F280" s="368"/>
-      <c r="G280" s="368"/>
-      <c r="H280" s="368"/>
-      <c r="I280" s="368"/>
+      <c r="B280" s="386"/>
+      <c r="C280" s="386"/>
+      <c r="D280" s="386"/>
+      <c r="E280" s="386"/>
+      <c r="F280" s="386"/>
+      <c r="G280" s="386"/>
+      <c r="H280" s="386"/>
+      <c r="I280" s="386"/>
       <c r="J280" s="285">
         <f>Admin!N4</f>
         <v>12570</v>
       </c>
-      <c r="K280" s="322" t="s">
+      <c r="K280" s="353" t="s">
         <v>286</v>
       </c>
-      <c r="L280" s="340"/>
-      <c r="M280" s="340"/>
-      <c r="N280" s="340"/>
-      <c r="O280" s="340"/>
-      <c r="P280" s="340"/>
-      <c r="Q280" s="340"/>
-      <c r="R280" s="340"/>
-      <c r="S280" s="340"/>
-      <c r="T280" s="340"/>
-      <c r="U280" s="340"/>
-      <c r="V280" s="340"/>
-      <c r="W280" s="340"/>
+      <c r="L280" s="333"/>
+      <c r="M280" s="333"/>
+      <c r="N280" s="333"/>
+      <c r="O280" s="333"/>
+      <c r="P280" s="333"/>
+      <c r="Q280" s="333"/>
+      <c r="R280" s="333"/>
+      <c r="S280" s="333"/>
+      <c r="T280" s="333"/>
+      <c r="U280" s="333"/>
+      <c r="V280" s="333"/>
+      <c r="W280" s="333"/>
     </row>
     <row r="281" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="367" t="s">
+      <c r="A281" s="385" t="s">
         <v>372</v>
       </c>
-      <c r="B281" s="367"/>
-      <c r="C281" s="367"/>
-      <c r="D281" s="367"/>
-      <c r="E281" s="367"/>
-      <c r="F281" s="367"/>
-      <c r="G281" s="367"/>
-      <c r="H281" s="367"/>
-      <c r="I281" s="367"/>
-      <c r="J281" s="367"/>
-      <c r="K281" s="367"/>
-      <c r="L281" s="367"/>
-      <c r="M281" s="367"/>
-      <c r="N281" s="367"/>
-      <c r="O281" s="367"/>
-      <c r="P281" s="367"/>
-      <c r="Q281" s="367"/>
-      <c r="R281" s="367"/>
-      <c r="S281" s="367"/>
-      <c r="T281" s="367"/>
-      <c r="U281" s="367"/>
-      <c r="V281" s="367"/>
-      <c r="W281" s="367"/>
+      <c r="B281" s="385"/>
+      <c r="C281" s="385"/>
+      <c r="D281" s="385"/>
+      <c r="E281" s="385"/>
+      <c r="F281" s="385"/>
+      <c r="G281" s="385"/>
+      <c r="H281" s="385"/>
+      <c r="I281" s="385"/>
+      <c r="J281" s="385"/>
+      <c r="K281" s="385"/>
+      <c r="L281" s="385"/>
+      <c r="M281" s="385"/>
+      <c r="N281" s="385"/>
+      <c r="O281" s="385"/>
+      <c r="P281" s="385"/>
+      <c r="Q281" s="385"/>
+      <c r="R281" s="385"/>
+      <c r="S281" s="385"/>
+      <c r="T281" s="385"/>
+      <c r="U281" s="385"/>
+      <c r="V281" s="385"/>
+      <c r="W281" s="385"/>
     </row>
     <row r="282" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="233"/>
@@ -20675,9 +20675,9 @@
       <c r="N286" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="O286" s="319"/>
-      <c r="P286" s="320"/>
-      <c r="Q286" s="321"/>
+      <c r="O286" s="343"/>
+      <c r="P286" s="344"/>
+      <c r="Q286" s="345"/>
       <c r="R286" s="218" t="s">
         <v>167</v>
       </c>
@@ -20727,12 +20727,12 @@
       <c r="D288" s="220"/>
       <c r="E288" s="220"/>
       <c r="F288" s="220"/>
-      <c r="G288" s="325" t="str">
+      <c r="G288" s="357" t="str">
         <f>Admin!G2</f>
         <v>2022-23</v>
       </c>
-      <c r="H288" s="326"/>
-      <c r="I288" s="326"/>
+      <c r="H288" s="358"/>
+      <c r="I288" s="358"/>
       <c r="J288" s="220" t="s">
         <v>291</v>
       </c>
@@ -20880,31 +20880,31 @@
       <c r="W293" s="251"/>
     </row>
     <row r="294" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="328" t="s">
+      <c r="A294" s="352" t="s">
         <v>293</v>
       </c>
-      <c r="B294" s="328"/>
-      <c r="C294" s="328"/>
-      <c r="D294" s="328"/>
-      <c r="E294" s="328"/>
-      <c r="F294" s="328"/>
-      <c r="G294" s="328"/>
-      <c r="H294" s="328"/>
-      <c r="I294" s="328"/>
-      <c r="J294" s="328"/>
-      <c r="K294" s="328"/>
-      <c r="L294" s="328"/>
-      <c r="M294" s="328"/>
-      <c r="N294" s="328"/>
-      <c r="O294" s="328"/>
-      <c r="P294" s="328"/>
-      <c r="Q294" s="328"/>
-      <c r="R294" s="328"/>
-      <c r="S294" s="328"/>
-      <c r="T294" s="328"/>
-      <c r="U294" s="328"/>
-      <c r="V294" s="328"/>
-      <c r="W294" s="328"/>
+      <c r="B294" s="352"/>
+      <c r="C294" s="352"/>
+      <c r="D294" s="352"/>
+      <c r="E294" s="352"/>
+      <c r="F294" s="352"/>
+      <c r="G294" s="352"/>
+      <c r="H294" s="352"/>
+      <c r="I294" s="352"/>
+      <c r="J294" s="352"/>
+      <c r="K294" s="352"/>
+      <c r="L294" s="352"/>
+      <c r="M294" s="352"/>
+      <c r="N294" s="352"/>
+      <c r="O294" s="352"/>
+      <c r="P294" s="352"/>
+      <c r="Q294" s="352"/>
+      <c r="R294" s="352"/>
+      <c r="S294" s="352"/>
+      <c r="T294" s="352"/>
+      <c r="U294" s="352"/>
+      <c r="V294" s="352"/>
+      <c r="W294" s="352"/>
     </row>
     <row r="295" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="233"/>
@@ -20988,651 +20988,651 @@
     <row r="298" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A298" s="240"/>
       <c r="B298" s="220"/>
-      <c r="C298" s="358"/>
-      <c r="D298" s="359"/>
-      <c r="E298" s="359"/>
-      <c r="F298" s="359"/>
-      <c r="G298" s="359"/>
-      <c r="H298" s="359"/>
-      <c r="I298" s="359"/>
-      <c r="J298" s="359"/>
-      <c r="K298" s="359"/>
-      <c r="L298" s="359"/>
-      <c r="M298" s="359"/>
-      <c r="N298" s="359"/>
-      <c r="O298" s="359"/>
-      <c r="P298" s="359"/>
-      <c r="Q298" s="359"/>
-      <c r="R298" s="359"/>
-      <c r="S298" s="359"/>
-      <c r="T298" s="359"/>
-      <c r="U298" s="359"/>
-      <c r="V298" s="360"/>
+      <c r="C298" s="376"/>
+      <c r="D298" s="377"/>
+      <c r="E298" s="377"/>
+      <c r="F298" s="377"/>
+      <c r="G298" s="377"/>
+      <c r="H298" s="377"/>
+      <c r="I298" s="377"/>
+      <c r="J298" s="377"/>
+      <c r="K298" s="377"/>
+      <c r="L298" s="377"/>
+      <c r="M298" s="377"/>
+      <c r="N298" s="377"/>
+      <c r="O298" s="377"/>
+      <c r="P298" s="377"/>
+      <c r="Q298" s="377"/>
+      <c r="R298" s="377"/>
+      <c r="S298" s="377"/>
+      <c r="T298" s="377"/>
+      <c r="U298" s="377"/>
+      <c r="V298" s="378"/>
       <c r="W298" s="243"/>
     </row>
     <row r="299" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A299" s="240"/>
       <c r="B299" s="220"/>
-      <c r="C299" s="361"/>
-      <c r="D299" s="362"/>
-      <c r="E299" s="362"/>
-      <c r="F299" s="362"/>
-      <c r="G299" s="362"/>
-      <c r="H299" s="362"/>
-      <c r="I299" s="362"/>
-      <c r="J299" s="362"/>
-      <c r="K299" s="362"/>
-      <c r="L299" s="362"/>
-      <c r="M299" s="362"/>
-      <c r="N299" s="362"/>
-      <c r="O299" s="362"/>
-      <c r="P299" s="362"/>
-      <c r="Q299" s="362"/>
-      <c r="R299" s="362"/>
-      <c r="S299" s="362"/>
-      <c r="T299" s="362"/>
-      <c r="U299" s="362"/>
-      <c r="V299" s="363"/>
+      <c r="C299" s="379"/>
+      <c r="D299" s="380"/>
+      <c r="E299" s="380"/>
+      <c r="F299" s="380"/>
+      <c r="G299" s="380"/>
+      <c r="H299" s="380"/>
+      <c r="I299" s="380"/>
+      <c r="J299" s="380"/>
+      <c r="K299" s="380"/>
+      <c r="L299" s="380"/>
+      <c r="M299" s="380"/>
+      <c r="N299" s="380"/>
+      <c r="O299" s="380"/>
+      <c r="P299" s="380"/>
+      <c r="Q299" s="380"/>
+      <c r="R299" s="380"/>
+      <c r="S299" s="380"/>
+      <c r="T299" s="380"/>
+      <c r="U299" s="380"/>
+      <c r="V299" s="381"/>
       <c r="W299" s="243"/>
     </row>
     <row r="300" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A300" s="240"/>
       <c r="B300" s="220"/>
-      <c r="C300" s="361"/>
-      <c r="D300" s="362"/>
-      <c r="E300" s="362"/>
-      <c r="F300" s="362"/>
-      <c r="G300" s="362"/>
-      <c r="H300" s="362"/>
-      <c r="I300" s="362"/>
-      <c r="J300" s="362"/>
-      <c r="K300" s="362"/>
-      <c r="L300" s="362"/>
-      <c r="M300" s="362"/>
-      <c r="N300" s="362"/>
-      <c r="O300" s="362"/>
-      <c r="P300" s="362"/>
-      <c r="Q300" s="362"/>
-      <c r="R300" s="362"/>
-      <c r="S300" s="362"/>
-      <c r="T300" s="362"/>
-      <c r="U300" s="362"/>
-      <c r="V300" s="363"/>
+      <c r="C300" s="379"/>
+      <c r="D300" s="380"/>
+      <c r="E300" s="380"/>
+      <c r="F300" s="380"/>
+      <c r="G300" s="380"/>
+      <c r="H300" s="380"/>
+      <c r="I300" s="380"/>
+      <c r="J300" s="380"/>
+      <c r="K300" s="380"/>
+      <c r="L300" s="380"/>
+      <c r="M300" s="380"/>
+      <c r="N300" s="380"/>
+      <c r="O300" s="380"/>
+      <c r="P300" s="380"/>
+      <c r="Q300" s="380"/>
+      <c r="R300" s="380"/>
+      <c r="S300" s="380"/>
+      <c r="T300" s="380"/>
+      <c r="U300" s="380"/>
+      <c r="V300" s="381"/>
       <c r="W300" s="243"/>
     </row>
     <row r="301" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A301" s="240"/>
       <c r="B301" s="220"/>
-      <c r="C301" s="361"/>
-      <c r="D301" s="362"/>
-      <c r="E301" s="362"/>
-      <c r="F301" s="362"/>
-      <c r="G301" s="362"/>
-      <c r="H301" s="362"/>
-      <c r="I301" s="362"/>
-      <c r="J301" s="362"/>
-      <c r="K301" s="362"/>
-      <c r="L301" s="362"/>
-      <c r="M301" s="362"/>
-      <c r="N301" s="362"/>
-      <c r="O301" s="362"/>
-      <c r="P301" s="362"/>
-      <c r="Q301" s="362"/>
-      <c r="R301" s="362"/>
-      <c r="S301" s="362"/>
-      <c r="T301" s="362"/>
-      <c r="U301" s="362"/>
-      <c r="V301" s="363"/>
+      <c r="C301" s="379"/>
+      <c r="D301" s="380"/>
+      <c r="E301" s="380"/>
+      <c r="F301" s="380"/>
+      <c r="G301" s="380"/>
+      <c r="H301" s="380"/>
+      <c r="I301" s="380"/>
+      <c r="J301" s="380"/>
+      <c r="K301" s="380"/>
+      <c r="L301" s="380"/>
+      <c r="M301" s="380"/>
+      <c r="N301" s="380"/>
+      <c r="O301" s="380"/>
+      <c r="P301" s="380"/>
+      <c r="Q301" s="380"/>
+      <c r="R301" s="380"/>
+      <c r="S301" s="380"/>
+      <c r="T301" s="380"/>
+      <c r="U301" s="380"/>
+      <c r="V301" s="381"/>
       <c r="W301" s="243"/>
     </row>
     <row r="302" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A302" s="240"/>
       <c r="B302" s="220"/>
-      <c r="C302" s="361"/>
-      <c r="D302" s="362"/>
-      <c r="E302" s="362"/>
-      <c r="F302" s="362"/>
-      <c r="G302" s="362"/>
-      <c r="H302" s="362"/>
-      <c r="I302" s="362"/>
-      <c r="J302" s="362"/>
-      <c r="K302" s="362"/>
-      <c r="L302" s="362"/>
-      <c r="M302" s="362"/>
-      <c r="N302" s="362"/>
-      <c r="O302" s="362"/>
-      <c r="P302" s="362"/>
-      <c r="Q302" s="362"/>
-      <c r="R302" s="362"/>
-      <c r="S302" s="362"/>
-      <c r="T302" s="362"/>
-      <c r="U302" s="362"/>
-      <c r="V302" s="363"/>
+      <c r="C302" s="379"/>
+      <c r="D302" s="380"/>
+      <c r="E302" s="380"/>
+      <c r="F302" s="380"/>
+      <c r="G302" s="380"/>
+      <c r="H302" s="380"/>
+      <c r="I302" s="380"/>
+      <c r="J302" s="380"/>
+      <c r="K302" s="380"/>
+      <c r="L302" s="380"/>
+      <c r="M302" s="380"/>
+      <c r="N302" s="380"/>
+      <c r="O302" s="380"/>
+      <c r="P302" s="380"/>
+      <c r="Q302" s="380"/>
+      <c r="R302" s="380"/>
+      <c r="S302" s="380"/>
+      <c r="T302" s="380"/>
+      <c r="U302" s="380"/>
+      <c r="V302" s="381"/>
       <c r="W302" s="243"/>
     </row>
     <row r="303" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A303" s="240"/>
       <c r="B303" s="220"/>
-      <c r="C303" s="361"/>
-      <c r="D303" s="362"/>
-      <c r="E303" s="362"/>
-      <c r="F303" s="362"/>
-      <c r="G303" s="362"/>
-      <c r="H303" s="362"/>
-      <c r="I303" s="362"/>
-      <c r="J303" s="362"/>
-      <c r="K303" s="362"/>
-      <c r="L303" s="362"/>
-      <c r="M303" s="362"/>
-      <c r="N303" s="362"/>
-      <c r="O303" s="362"/>
-      <c r="P303" s="362"/>
-      <c r="Q303" s="362"/>
-      <c r="R303" s="362"/>
-      <c r="S303" s="362"/>
-      <c r="T303" s="362"/>
-      <c r="U303" s="362"/>
-      <c r="V303" s="363"/>
+      <c r="C303" s="379"/>
+      <c r="D303" s="380"/>
+      <c r="E303" s="380"/>
+      <c r="F303" s="380"/>
+      <c r="G303" s="380"/>
+      <c r="H303" s="380"/>
+      <c r="I303" s="380"/>
+      <c r="J303" s="380"/>
+      <c r="K303" s="380"/>
+      <c r="L303" s="380"/>
+      <c r="M303" s="380"/>
+      <c r="N303" s="380"/>
+      <c r="O303" s="380"/>
+      <c r="P303" s="380"/>
+      <c r="Q303" s="380"/>
+      <c r="R303" s="380"/>
+      <c r="S303" s="380"/>
+      <c r="T303" s="380"/>
+      <c r="U303" s="380"/>
+      <c r="V303" s="381"/>
       <c r="W303" s="243"/>
     </row>
     <row r="304" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A304" s="240"/>
       <c r="B304" s="220"/>
-      <c r="C304" s="361"/>
-      <c r="D304" s="362"/>
-      <c r="E304" s="362"/>
-      <c r="F304" s="362"/>
-      <c r="G304" s="362"/>
-      <c r="H304" s="362"/>
-      <c r="I304" s="362"/>
-      <c r="J304" s="362"/>
-      <c r="K304" s="362"/>
-      <c r="L304" s="362"/>
-      <c r="M304" s="362"/>
-      <c r="N304" s="362"/>
-      <c r="O304" s="362"/>
-      <c r="P304" s="362"/>
-      <c r="Q304" s="362"/>
-      <c r="R304" s="362"/>
-      <c r="S304" s="362"/>
-      <c r="T304" s="362"/>
-      <c r="U304" s="362"/>
-      <c r="V304" s="363"/>
+      <c r="C304" s="379"/>
+      <c r="D304" s="380"/>
+      <c r="E304" s="380"/>
+      <c r="F304" s="380"/>
+      <c r="G304" s="380"/>
+      <c r="H304" s="380"/>
+      <c r="I304" s="380"/>
+      <c r="J304" s="380"/>
+      <c r="K304" s="380"/>
+      <c r="L304" s="380"/>
+      <c r="M304" s="380"/>
+      <c r="N304" s="380"/>
+      <c r="O304" s="380"/>
+      <c r="P304" s="380"/>
+      <c r="Q304" s="380"/>
+      <c r="R304" s="380"/>
+      <c r="S304" s="380"/>
+      <c r="T304" s="380"/>
+      <c r="U304" s="380"/>
+      <c r="V304" s="381"/>
       <c r="W304" s="243"/>
     </row>
     <row r="305" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A305" s="240"/>
       <c r="B305" s="220"/>
-      <c r="C305" s="361"/>
-      <c r="D305" s="362"/>
-      <c r="E305" s="362"/>
-      <c r="F305" s="362"/>
-      <c r="G305" s="362"/>
-      <c r="H305" s="362"/>
-      <c r="I305" s="362"/>
-      <c r="J305" s="362"/>
-      <c r="K305" s="362"/>
-      <c r="L305" s="362"/>
-      <c r="M305" s="362"/>
-      <c r="N305" s="362"/>
-      <c r="O305" s="362"/>
-      <c r="P305" s="362"/>
-      <c r="Q305" s="362"/>
-      <c r="R305" s="362"/>
-      <c r="S305" s="362"/>
-      <c r="T305" s="362"/>
-      <c r="U305" s="362"/>
-      <c r="V305" s="363"/>
+      <c r="C305" s="379"/>
+      <c r="D305" s="380"/>
+      <c r="E305" s="380"/>
+      <c r="F305" s="380"/>
+      <c r="G305" s="380"/>
+      <c r="H305" s="380"/>
+      <c r="I305" s="380"/>
+      <c r="J305" s="380"/>
+      <c r="K305" s="380"/>
+      <c r="L305" s="380"/>
+      <c r="M305" s="380"/>
+      <c r="N305" s="380"/>
+      <c r="O305" s="380"/>
+      <c r="P305" s="380"/>
+      <c r="Q305" s="380"/>
+      <c r="R305" s="380"/>
+      <c r="S305" s="380"/>
+      <c r="T305" s="380"/>
+      <c r="U305" s="380"/>
+      <c r="V305" s="381"/>
       <c r="W305" s="243"/>
     </row>
     <row r="306" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A306" s="240"/>
       <c r="B306" s="220"/>
-      <c r="C306" s="361"/>
-      <c r="D306" s="362"/>
-      <c r="E306" s="362"/>
-      <c r="F306" s="362"/>
-      <c r="G306" s="362"/>
-      <c r="H306" s="362"/>
-      <c r="I306" s="362"/>
-      <c r="J306" s="362"/>
-      <c r="K306" s="362"/>
-      <c r="L306" s="362"/>
-      <c r="M306" s="362"/>
-      <c r="N306" s="362"/>
-      <c r="O306" s="362"/>
-      <c r="P306" s="362"/>
-      <c r="Q306" s="362"/>
-      <c r="R306" s="362"/>
-      <c r="S306" s="362"/>
-      <c r="T306" s="362"/>
-      <c r="U306" s="362"/>
-      <c r="V306" s="363"/>
+      <c r="C306" s="379"/>
+      <c r="D306" s="380"/>
+      <c r="E306" s="380"/>
+      <c r="F306" s="380"/>
+      <c r="G306" s="380"/>
+      <c r="H306" s="380"/>
+      <c r="I306" s="380"/>
+      <c r="J306" s="380"/>
+      <c r="K306" s="380"/>
+      <c r="L306" s="380"/>
+      <c r="M306" s="380"/>
+      <c r="N306" s="380"/>
+      <c r="O306" s="380"/>
+      <c r="P306" s="380"/>
+      <c r="Q306" s="380"/>
+      <c r="R306" s="380"/>
+      <c r="S306" s="380"/>
+      <c r="T306" s="380"/>
+      <c r="U306" s="380"/>
+      <c r="V306" s="381"/>
       <c r="W306" s="243"/>
     </row>
     <row r="307" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A307" s="240"/>
       <c r="B307" s="220"/>
-      <c r="C307" s="361"/>
-      <c r="D307" s="362"/>
-      <c r="E307" s="362"/>
-      <c r="F307" s="362"/>
-      <c r="G307" s="362"/>
-      <c r="H307" s="362"/>
-      <c r="I307" s="362"/>
-      <c r="J307" s="362"/>
-      <c r="K307" s="362"/>
-      <c r="L307" s="362"/>
-      <c r="M307" s="362"/>
-      <c r="N307" s="362"/>
-      <c r="O307" s="362"/>
-      <c r="P307" s="362"/>
-      <c r="Q307" s="362"/>
-      <c r="R307" s="362"/>
-      <c r="S307" s="362"/>
-      <c r="T307" s="362"/>
-      <c r="U307" s="362"/>
-      <c r="V307" s="363"/>
+      <c r="C307" s="379"/>
+      <c r="D307" s="380"/>
+      <c r="E307" s="380"/>
+      <c r="F307" s="380"/>
+      <c r="G307" s="380"/>
+      <c r="H307" s="380"/>
+      <c r="I307" s="380"/>
+      <c r="J307" s="380"/>
+      <c r="K307" s="380"/>
+      <c r="L307" s="380"/>
+      <c r="M307" s="380"/>
+      <c r="N307" s="380"/>
+      <c r="O307" s="380"/>
+      <c r="P307" s="380"/>
+      <c r="Q307" s="380"/>
+      <c r="R307" s="380"/>
+      <c r="S307" s="380"/>
+      <c r="T307" s="380"/>
+      <c r="U307" s="380"/>
+      <c r="V307" s="381"/>
       <c r="W307" s="243"/>
     </row>
     <row r="308" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A308" s="240"/>
       <c r="B308" s="220"/>
-      <c r="C308" s="361"/>
-      <c r="D308" s="362"/>
-      <c r="E308" s="362"/>
-      <c r="F308" s="362"/>
-      <c r="G308" s="362"/>
-      <c r="H308" s="362"/>
-      <c r="I308" s="362"/>
-      <c r="J308" s="362"/>
-      <c r="K308" s="362"/>
-      <c r="L308" s="362"/>
-      <c r="M308" s="362"/>
-      <c r="N308" s="362"/>
-      <c r="O308" s="362"/>
-      <c r="P308" s="362"/>
-      <c r="Q308" s="362"/>
-      <c r="R308" s="362"/>
-      <c r="S308" s="362"/>
-      <c r="T308" s="362"/>
-      <c r="U308" s="362"/>
-      <c r="V308" s="363"/>
+      <c r="C308" s="379"/>
+      <c r="D308" s="380"/>
+      <c r="E308" s="380"/>
+      <c r="F308" s="380"/>
+      <c r="G308" s="380"/>
+      <c r="H308" s="380"/>
+      <c r="I308" s="380"/>
+      <c r="J308" s="380"/>
+      <c r="K308" s="380"/>
+      <c r="L308" s="380"/>
+      <c r="M308" s="380"/>
+      <c r="N308" s="380"/>
+      <c r="O308" s="380"/>
+      <c r="P308" s="380"/>
+      <c r="Q308" s="380"/>
+      <c r="R308" s="380"/>
+      <c r="S308" s="380"/>
+      <c r="T308" s="380"/>
+      <c r="U308" s="380"/>
+      <c r="V308" s="381"/>
       <c r="W308" s="243"/>
     </row>
     <row r="309" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A309" s="240"/>
       <c r="B309" s="220"/>
-      <c r="C309" s="361"/>
-      <c r="D309" s="362"/>
-      <c r="E309" s="362"/>
-      <c r="F309" s="362"/>
-      <c r="G309" s="362"/>
-      <c r="H309" s="362"/>
-      <c r="I309" s="362"/>
-      <c r="J309" s="362"/>
-      <c r="K309" s="362"/>
-      <c r="L309" s="362"/>
-      <c r="M309" s="362"/>
-      <c r="N309" s="362"/>
-      <c r="O309" s="362"/>
-      <c r="P309" s="362"/>
-      <c r="Q309" s="362"/>
-      <c r="R309" s="362"/>
-      <c r="S309" s="362"/>
-      <c r="T309" s="362"/>
-      <c r="U309" s="362"/>
-      <c r="V309" s="363"/>
+      <c r="C309" s="379"/>
+      <c r="D309" s="380"/>
+      <c r="E309" s="380"/>
+      <c r="F309" s="380"/>
+      <c r="G309" s="380"/>
+      <c r="H309" s="380"/>
+      <c r="I309" s="380"/>
+      <c r="J309" s="380"/>
+      <c r="K309" s="380"/>
+      <c r="L309" s="380"/>
+      <c r="M309" s="380"/>
+      <c r="N309" s="380"/>
+      <c r="O309" s="380"/>
+      <c r="P309" s="380"/>
+      <c r="Q309" s="380"/>
+      <c r="R309" s="380"/>
+      <c r="S309" s="380"/>
+      <c r="T309" s="380"/>
+      <c r="U309" s="380"/>
+      <c r="V309" s="381"/>
       <c r="W309" s="243"/>
     </row>
     <row r="310" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A310" s="240"/>
       <c r="B310" s="220"/>
-      <c r="C310" s="361"/>
-      <c r="D310" s="362"/>
-      <c r="E310" s="362"/>
-      <c r="F310" s="362"/>
-      <c r="G310" s="362"/>
-      <c r="H310" s="362"/>
-      <c r="I310" s="362"/>
-      <c r="J310" s="362"/>
-      <c r="K310" s="362"/>
-      <c r="L310" s="362"/>
-      <c r="M310" s="362"/>
-      <c r="N310" s="362"/>
-      <c r="O310" s="362"/>
-      <c r="P310" s="362"/>
-      <c r="Q310" s="362"/>
-      <c r="R310" s="362"/>
-      <c r="S310" s="362"/>
-      <c r="T310" s="362"/>
-      <c r="U310" s="362"/>
-      <c r="V310" s="363"/>
+      <c r="C310" s="379"/>
+      <c r="D310" s="380"/>
+      <c r="E310" s="380"/>
+      <c r="F310" s="380"/>
+      <c r="G310" s="380"/>
+      <c r="H310" s="380"/>
+      <c r="I310" s="380"/>
+      <c r="J310" s="380"/>
+      <c r="K310" s="380"/>
+      <c r="L310" s="380"/>
+      <c r="M310" s="380"/>
+      <c r="N310" s="380"/>
+      <c r="O310" s="380"/>
+      <c r="P310" s="380"/>
+      <c r="Q310" s="380"/>
+      <c r="R310" s="380"/>
+      <c r="S310" s="380"/>
+      <c r="T310" s="380"/>
+      <c r="U310" s="380"/>
+      <c r="V310" s="381"/>
       <c r="W310" s="243"/>
     </row>
     <row r="311" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A311" s="240"/>
       <c r="B311" s="220"/>
-      <c r="C311" s="361"/>
-      <c r="D311" s="362"/>
-      <c r="E311" s="362"/>
-      <c r="F311" s="362"/>
-      <c r="G311" s="362"/>
-      <c r="H311" s="362"/>
-      <c r="I311" s="362"/>
-      <c r="J311" s="362"/>
-      <c r="K311" s="362"/>
-      <c r="L311" s="362"/>
-      <c r="M311" s="362"/>
-      <c r="N311" s="362"/>
-      <c r="O311" s="362"/>
-      <c r="P311" s="362"/>
-      <c r="Q311" s="362"/>
-      <c r="R311" s="362"/>
-      <c r="S311" s="362"/>
-      <c r="T311" s="362"/>
-      <c r="U311" s="362"/>
-      <c r="V311" s="363"/>
+      <c r="C311" s="379"/>
+      <c r="D311" s="380"/>
+      <c r="E311" s="380"/>
+      <c r="F311" s="380"/>
+      <c r="G311" s="380"/>
+      <c r="H311" s="380"/>
+      <c r="I311" s="380"/>
+      <c r="J311" s="380"/>
+      <c r="K311" s="380"/>
+      <c r="L311" s="380"/>
+      <c r="M311" s="380"/>
+      <c r="N311" s="380"/>
+      <c r="O311" s="380"/>
+      <c r="P311" s="380"/>
+      <c r="Q311" s="380"/>
+      <c r="R311" s="380"/>
+      <c r="S311" s="380"/>
+      <c r="T311" s="380"/>
+      <c r="U311" s="380"/>
+      <c r="V311" s="381"/>
       <c r="W311" s="243"/>
     </row>
     <row r="312" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A312" s="240"/>
       <c r="B312" s="220"/>
-      <c r="C312" s="361"/>
-      <c r="D312" s="362"/>
-      <c r="E312" s="362"/>
-      <c r="F312" s="362"/>
-      <c r="G312" s="362"/>
-      <c r="H312" s="362"/>
-      <c r="I312" s="362"/>
-      <c r="J312" s="362"/>
-      <c r="K312" s="362"/>
-      <c r="L312" s="362"/>
-      <c r="M312" s="362"/>
-      <c r="N312" s="362"/>
-      <c r="O312" s="362"/>
-      <c r="P312" s="362"/>
-      <c r="Q312" s="362"/>
-      <c r="R312" s="362"/>
-      <c r="S312" s="362"/>
-      <c r="T312" s="362"/>
-      <c r="U312" s="362"/>
-      <c r="V312" s="363"/>
+      <c r="C312" s="379"/>
+      <c r="D312" s="380"/>
+      <c r="E312" s="380"/>
+      <c r="F312" s="380"/>
+      <c r="G312" s="380"/>
+      <c r="H312" s="380"/>
+      <c r="I312" s="380"/>
+      <c r="J312" s="380"/>
+      <c r="K312" s="380"/>
+      <c r="L312" s="380"/>
+      <c r="M312" s="380"/>
+      <c r="N312" s="380"/>
+      <c r="O312" s="380"/>
+      <c r="P312" s="380"/>
+      <c r="Q312" s="380"/>
+      <c r="R312" s="380"/>
+      <c r="S312" s="380"/>
+      <c r="T312" s="380"/>
+      <c r="U312" s="380"/>
+      <c r="V312" s="381"/>
       <c r="W312" s="243"/>
     </row>
     <row r="313" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A313" s="240"/>
       <c r="B313" s="220"/>
-      <c r="C313" s="361"/>
-      <c r="D313" s="362"/>
-      <c r="E313" s="362"/>
-      <c r="F313" s="362"/>
-      <c r="G313" s="362"/>
-      <c r="H313" s="362"/>
-      <c r="I313" s="362"/>
-      <c r="J313" s="362"/>
-      <c r="K313" s="362"/>
-      <c r="L313" s="362"/>
-      <c r="M313" s="362"/>
-      <c r="N313" s="362"/>
-      <c r="O313" s="362"/>
-      <c r="P313" s="362"/>
-      <c r="Q313" s="362"/>
-      <c r="R313" s="362"/>
-      <c r="S313" s="362"/>
-      <c r="T313" s="362"/>
-      <c r="U313" s="362"/>
-      <c r="V313" s="363"/>
+      <c r="C313" s="379"/>
+      <c r="D313" s="380"/>
+      <c r="E313" s="380"/>
+      <c r="F313" s="380"/>
+      <c r="G313" s="380"/>
+      <c r="H313" s="380"/>
+      <c r="I313" s="380"/>
+      <c r="J313" s="380"/>
+      <c r="K313" s="380"/>
+      <c r="L313" s="380"/>
+      <c r="M313" s="380"/>
+      <c r="N313" s="380"/>
+      <c r="O313" s="380"/>
+      <c r="P313" s="380"/>
+      <c r="Q313" s="380"/>
+      <c r="R313" s="380"/>
+      <c r="S313" s="380"/>
+      <c r="T313" s="380"/>
+      <c r="U313" s="380"/>
+      <c r="V313" s="381"/>
       <c r="W313" s="243"/>
     </row>
     <row r="314" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A314" s="240"/>
       <c r="B314" s="220"/>
-      <c r="C314" s="361"/>
-      <c r="D314" s="362"/>
-      <c r="E314" s="362"/>
-      <c r="F314" s="362"/>
-      <c r="G314" s="362"/>
-      <c r="H314" s="362"/>
-      <c r="I314" s="362"/>
-      <c r="J314" s="362"/>
-      <c r="K314" s="362"/>
-      <c r="L314" s="362"/>
-      <c r="M314" s="362"/>
-      <c r="N314" s="362"/>
-      <c r="O314" s="362"/>
-      <c r="P314" s="362"/>
-      <c r="Q314" s="362"/>
-      <c r="R314" s="362"/>
-      <c r="S314" s="362"/>
-      <c r="T314" s="362"/>
-      <c r="U314" s="362"/>
-      <c r="V314" s="363"/>
+      <c r="C314" s="379"/>
+      <c r="D314" s="380"/>
+      <c r="E314" s="380"/>
+      <c r="F314" s="380"/>
+      <c r="G314" s="380"/>
+      <c r="H314" s="380"/>
+      <c r="I314" s="380"/>
+      <c r="J314" s="380"/>
+      <c r="K314" s="380"/>
+      <c r="L314" s="380"/>
+      <c r="M314" s="380"/>
+      <c r="N314" s="380"/>
+      <c r="O314" s="380"/>
+      <c r="P314" s="380"/>
+      <c r="Q314" s="380"/>
+      <c r="R314" s="380"/>
+      <c r="S314" s="380"/>
+      <c r="T314" s="380"/>
+      <c r="U314" s="380"/>
+      <c r="V314" s="381"/>
       <c r="W314" s="243"/>
     </row>
     <row r="315" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A315" s="240"/>
       <c r="B315" s="220"/>
-      <c r="C315" s="361"/>
-      <c r="D315" s="362"/>
-      <c r="E315" s="362"/>
-      <c r="F315" s="362"/>
-      <c r="G315" s="362"/>
-      <c r="H315" s="362"/>
-      <c r="I315" s="362"/>
-      <c r="J315" s="362"/>
-      <c r="K315" s="362"/>
-      <c r="L315" s="362"/>
-      <c r="M315" s="362"/>
-      <c r="N315" s="362"/>
-      <c r="O315" s="362"/>
-      <c r="P315" s="362"/>
-      <c r="Q315" s="362"/>
-      <c r="R315" s="362"/>
-      <c r="S315" s="362"/>
-      <c r="T315" s="362"/>
-      <c r="U315" s="362"/>
-      <c r="V315" s="363"/>
+      <c r="C315" s="379"/>
+      <c r="D315" s="380"/>
+      <c r="E315" s="380"/>
+      <c r="F315" s="380"/>
+      <c r="G315" s="380"/>
+      <c r="H315" s="380"/>
+      <c r="I315" s="380"/>
+      <c r="J315" s="380"/>
+      <c r="K315" s="380"/>
+      <c r="L315" s="380"/>
+      <c r="M315" s="380"/>
+      <c r="N315" s="380"/>
+      <c r="O315" s="380"/>
+      <c r="P315" s="380"/>
+      <c r="Q315" s="380"/>
+      <c r="R315" s="380"/>
+      <c r="S315" s="380"/>
+      <c r="T315" s="380"/>
+      <c r="U315" s="380"/>
+      <c r="V315" s="381"/>
       <c r="W315" s="243"/>
     </row>
     <row r="316" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A316" s="240"/>
       <c r="B316" s="220"/>
-      <c r="C316" s="361"/>
-      <c r="D316" s="362"/>
-      <c r="E316" s="362"/>
-      <c r="F316" s="362"/>
-      <c r="G316" s="362"/>
-      <c r="H316" s="362"/>
-      <c r="I316" s="362"/>
-      <c r="J316" s="362"/>
-      <c r="K316" s="362"/>
-      <c r="L316" s="362"/>
-      <c r="M316" s="362"/>
-      <c r="N316" s="362"/>
-      <c r="O316" s="362"/>
-      <c r="P316" s="362"/>
-      <c r="Q316" s="362"/>
-      <c r="R316" s="362"/>
-      <c r="S316" s="362"/>
-      <c r="T316" s="362"/>
-      <c r="U316" s="362"/>
-      <c r="V316" s="363"/>
+      <c r="C316" s="379"/>
+      <c r="D316" s="380"/>
+      <c r="E316" s="380"/>
+      <c r="F316" s="380"/>
+      <c r="G316" s="380"/>
+      <c r="H316" s="380"/>
+      <c r="I316" s="380"/>
+      <c r="J316" s="380"/>
+      <c r="K316" s="380"/>
+      <c r="L316" s="380"/>
+      <c r="M316" s="380"/>
+      <c r="N316" s="380"/>
+      <c r="O316" s="380"/>
+      <c r="P316" s="380"/>
+      <c r="Q316" s="380"/>
+      <c r="R316" s="380"/>
+      <c r="S316" s="380"/>
+      <c r="T316" s="380"/>
+      <c r="U316" s="380"/>
+      <c r="V316" s="381"/>
       <c r="W316" s="243"/>
     </row>
     <row r="317" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A317" s="240"/>
       <c r="B317" s="220"/>
-      <c r="C317" s="361"/>
-      <c r="D317" s="362"/>
-      <c r="E317" s="362"/>
-      <c r="F317" s="362"/>
-      <c r="G317" s="362"/>
-      <c r="H317" s="362"/>
-      <c r="I317" s="362"/>
-      <c r="J317" s="362"/>
-      <c r="K317" s="362"/>
-      <c r="L317" s="362"/>
-      <c r="M317" s="362"/>
-      <c r="N317" s="362"/>
-      <c r="O317" s="362"/>
-      <c r="P317" s="362"/>
-      <c r="Q317" s="362"/>
-      <c r="R317" s="362"/>
-      <c r="S317" s="362"/>
-      <c r="T317" s="362"/>
-      <c r="U317" s="362"/>
-      <c r="V317" s="363"/>
+      <c r="C317" s="379"/>
+      <c r="D317" s="380"/>
+      <c r="E317" s="380"/>
+      <c r="F317" s="380"/>
+      <c r="G317" s="380"/>
+      <c r="H317" s="380"/>
+      <c r="I317" s="380"/>
+      <c r="J317" s="380"/>
+      <c r="K317" s="380"/>
+      <c r="L317" s="380"/>
+      <c r="M317" s="380"/>
+      <c r="N317" s="380"/>
+      <c r="O317" s="380"/>
+      <c r="P317" s="380"/>
+      <c r="Q317" s="380"/>
+      <c r="R317" s="380"/>
+      <c r="S317" s="380"/>
+      <c r="T317" s="380"/>
+      <c r="U317" s="380"/>
+      <c r="V317" s="381"/>
       <c r="W317" s="243"/>
     </row>
     <row r="318" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A318" s="240"/>
       <c r="B318" s="220"/>
-      <c r="C318" s="361"/>
-      <c r="D318" s="362"/>
-      <c r="E318" s="362"/>
-      <c r="F318" s="362"/>
-      <c r="G318" s="362"/>
-      <c r="H318" s="362"/>
-      <c r="I318" s="362"/>
-      <c r="J318" s="362"/>
-      <c r="K318" s="362"/>
-      <c r="L318" s="362"/>
-      <c r="M318" s="362"/>
-      <c r="N318" s="362"/>
-      <c r="O318" s="362"/>
-      <c r="P318" s="362"/>
-      <c r="Q318" s="362"/>
-      <c r="R318" s="362"/>
-      <c r="S318" s="362"/>
-      <c r="T318" s="362"/>
-      <c r="U318" s="362"/>
-      <c r="V318" s="363"/>
+      <c r="C318" s="379"/>
+      <c r="D318" s="380"/>
+      <c r="E318" s="380"/>
+      <c r="F318" s="380"/>
+      <c r="G318" s="380"/>
+      <c r="H318" s="380"/>
+      <c r="I318" s="380"/>
+      <c r="J318" s="380"/>
+      <c r="K318" s="380"/>
+      <c r="L318" s="380"/>
+      <c r="M318" s="380"/>
+      <c r="N318" s="380"/>
+      <c r="O318" s="380"/>
+      <c r="P318" s="380"/>
+      <c r="Q318" s="380"/>
+      <c r="R318" s="380"/>
+      <c r="S318" s="380"/>
+      <c r="T318" s="380"/>
+      <c r="U318" s="380"/>
+      <c r="V318" s="381"/>
       <c r="W318" s="243"/>
     </row>
     <row r="319" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A319" s="240"/>
       <c r="B319" s="220"/>
-      <c r="C319" s="361"/>
-      <c r="D319" s="362"/>
-      <c r="E319" s="362"/>
-      <c r="F319" s="362"/>
-      <c r="G319" s="362"/>
-      <c r="H319" s="362"/>
-      <c r="I319" s="362"/>
-      <c r="J319" s="362"/>
-      <c r="K319" s="362"/>
-      <c r="L319" s="362"/>
-      <c r="M319" s="362"/>
-      <c r="N319" s="362"/>
-      <c r="O319" s="362"/>
-      <c r="P319" s="362"/>
-      <c r="Q319" s="362"/>
-      <c r="R319" s="362"/>
-      <c r="S319" s="362"/>
-      <c r="T319" s="362"/>
-      <c r="U319" s="362"/>
-      <c r="V319" s="363"/>
+      <c r="C319" s="379"/>
+      <c r="D319" s="380"/>
+      <c r="E319" s="380"/>
+      <c r="F319" s="380"/>
+      <c r="G319" s="380"/>
+      <c r="H319" s="380"/>
+      <c r="I319" s="380"/>
+      <c r="J319" s="380"/>
+      <c r="K319" s="380"/>
+      <c r="L319" s="380"/>
+      <c r="M319" s="380"/>
+      <c r="N319" s="380"/>
+      <c r="O319" s="380"/>
+      <c r="P319" s="380"/>
+      <c r="Q319" s="380"/>
+      <c r="R319" s="380"/>
+      <c r="S319" s="380"/>
+      <c r="T319" s="380"/>
+      <c r="U319" s="380"/>
+      <c r="V319" s="381"/>
       <c r="W319" s="243"/>
     </row>
     <row r="320" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A320" s="240"/>
       <c r="B320" s="220"/>
-      <c r="C320" s="361"/>
-      <c r="D320" s="362"/>
-      <c r="E320" s="362"/>
-      <c r="F320" s="362"/>
-      <c r="G320" s="362"/>
-      <c r="H320" s="362"/>
-      <c r="I320" s="362"/>
-      <c r="J320" s="362"/>
-      <c r="K320" s="362"/>
-      <c r="L320" s="362"/>
-      <c r="M320" s="362"/>
-      <c r="N320" s="362"/>
-      <c r="O320" s="362"/>
-      <c r="P320" s="362"/>
-      <c r="Q320" s="362"/>
-      <c r="R320" s="362"/>
-      <c r="S320" s="362"/>
-      <c r="T320" s="362"/>
-      <c r="U320" s="362"/>
-      <c r="V320" s="363"/>
+      <c r="C320" s="379"/>
+      <c r="D320" s="380"/>
+      <c r="E320" s="380"/>
+      <c r="F320" s="380"/>
+      <c r="G320" s="380"/>
+      <c r="H320" s="380"/>
+      <c r="I320" s="380"/>
+      <c r="J320" s="380"/>
+      <c r="K320" s="380"/>
+      <c r="L320" s="380"/>
+      <c r="M320" s="380"/>
+      <c r="N320" s="380"/>
+      <c r="O320" s="380"/>
+      <c r="P320" s="380"/>
+      <c r="Q320" s="380"/>
+      <c r="R320" s="380"/>
+      <c r="S320" s="380"/>
+      <c r="T320" s="380"/>
+      <c r="U320" s="380"/>
+      <c r="V320" s="381"/>
       <c r="W320" s="243"/>
     </row>
     <row r="321" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A321" s="240"/>
       <c r="B321" s="220"/>
-      <c r="C321" s="361"/>
-      <c r="D321" s="362"/>
-      <c r="E321" s="362"/>
-      <c r="F321" s="362"/>
-      <c r="G321" s="362"/>
-      <c r="H321" s="362"/>
-      <c r="I321" s="362"/>
-      <c r="J321" s="362"/>
-      <c r="K321" s="362"/>
-      <c r="L321" s="362"/>
-      <c r="M321" s="362"/>
-      <c r="N321" s="362"/>
-      <c r="O321" s="362"/>
-      <c r="P321" s="362"/>
-      <c r="Q321" s="362"/>
-      <c r="R321" s="362"/>
-      <c r="S321" s="362"/>
-      <c r="T321" s="362"/>
-      <c r="U321" s="362"/>
-      <c r="V321" s="363"/>
+      <c r="C321" s="379"/>
+      <c r="D321" s="380"/>
+      <c r="E321" s="380"/>
+      <c r="F321" s="380"/>
+      <c r="G321" s="380"/>
+      <c r="H321" s="380"/>
+      <c r="I321" s="380"/>
+      <c r="J321" s="380"/>
+      <c r="K321" s="380"/>
+      <c r="L321" s="380"/>
+      <c r="M321" s="380"/>
+      <c r="N321" s="380"/>
+      <c r="O321" s="380"/>
+      <c r="P321" s="380"/>
+      <c r="Q321" s="380"/>
+      <c r="R321" s="380"/>
+      <c r="S321" s="380"/>
+      <c r="T321" s="380"/>
+      <c r="U321" s="380"/>
+      <c r="V321" s="381"/>
       <c r="W321" s="243"/>
     </row>
     <row r="322" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A322" s="240"/>
       <c r="B322" s="220"/>
-      <c r="C322" s="361"/>
-      <c r="D322" s="362"/>
-      <c r="E322" s="362"/>
-      <c r="F322" s="362"/>
-      <c r="G322" s="362"/>
-      <c r="H322" s="362"/>
-      <c r="I322" s="362"/>
-      <c r="J322" s="362"/>
-      <c r="K322" s="362"/>
-      <c r="L322" s="362"/>
-      <c r="M322" s="362"/>
-      <c r="N322" s="362"/>
-      <c r="O322" s="362"/>
-      <c r="P322" s="362"/>
-      <c r="Q322" s="362"/>
-      <c r="R322" s="362"/>
-      <c r="S322" s="362"/>
-      <c r="T322" s="362"/>
-      <c r="U322" s="362"/>
-      <c r="V322" s="363"/>
+      <c r="C322" s="379"/>
+      <c r="D322" s="380"/>
+      <c r="E322" s="380"/>
+      <c r="F322" s="380"/>
+      <c r="G322" s="380"/>
+      <c r="H322" s="380"/>
+      <c r="I322" s="380"/>
+      <c r="J322" s="380"/>
+      <c r="K322" s="380"/>
+      <c r="L322" s="380"/>
+      <c r="M322" s="380"/>
+      <c r="N322" s="380"/>
+      <c r="O322" s="380"/>
+      <c r="P322" s="380"/>
+      <c r="Q322" s="380"/>
+      <c r="R322" s="380"/>
+      <c r="S322" s="380"/>
+      <c r="T322" s="380"/>
+      <c r="U322" s="380"/>
+      <c r="V322" s="381"/>
       <c r="W322" s="243"/>
     </row>
     <row r="323" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A323" s="240"/>
       <c r="B323" s="220"/>
-      <c r="C323" s="364"/>
-      <c r="D323" s="365"/>
-      <c r="E323" s="365"/>
-      <c r="F323" s="365"/>
-      <c r="G323" s="365"/>
-      <c r="H323" s="365"/>
-      <c r="I323" s="365"/>
-      <c r="J323" s="365"/>
-      <c r="K323" s="365"/>
-      <c r="L323" s="365"/>
-      <c r="M323" s="365"/>
-      <c r="N323" s="365"/>
-      <c r="O323" s="365"/>
-      <c r="P323" s="365"/>
-      <c r="Q323" s="365"/>
-      <c r="R323" s="365"/>
-      <c r="S323" s="365"/>
-      <c r="T323" s="365"/>
-      <c r="U323" s="365"/>
-      <c r="V323" s="366"/>
+      <c r="C323" s="382"/>
+      <c r="D323" s="383"/>
+      <c r="E323" s="383"/>
+      <c r="F323" s="383"/>
+      <c r="G323" s="383"/>
+      <c r="H323" s="383"/>
+      <c r="I323" s="383"/>
+      <c r="J323" s="383"/>
+      <c r="K323" s="383"/>
+      <c r="L323" s="383"/>
+      <c r="M323" s="383"/>
+      <c r="N323" s="383"/>
+      <c r="O323" s="383"/>
+      <c r="P323" s="383"/>
+      <c r="Q323" s="383"/>
+      <c r="R323" s="383"/>
+      <c r="S323" s="383"/>
+      <c r="T323" s="383"/>
+      <c r="U323" s="383"/>
+      <c r="V323" s="384"/>
       <c r="W323" s="243"/>
     </row>
     <row r="324" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.15">
@@ -21662,121 +21662,16 @@
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:M2"/>
-    <mergeCell ref="N1:W1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="A12:W12"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="A37:W37"/>
-    <mergeCell ref="A50:W50"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="O55:Q55"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="N25:V26"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="O78:Q78"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="A57:W57"/>
-    <mergeCell ref="A58:W58"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="O70:Q70"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="O98:Q98"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="O102:Q102"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="O106:Q106"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="O86:Q86"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="O90:Q90"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="O122:Q122"/>
-    <mergeCell ref="A124:W124"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="O129:Q129"/>
-    <mergeCell ref="A131:W131"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="O110:Q110"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="O114:Q114"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="O118:Q118"/>
-    <mergeCell ref="A132:W132"/>
-    <mergeCell ref="A133:W133"/>
-    <mergeCell ref="A134:W134"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="O149:Q149"/>
-    <mergeCell ref="O154:Q154"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="O139:Q139"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="O144:Q144"/>
-    <mergeCell ref="A162:W162"/>
-    <mergeCell ref="A163:W163"/>
-    <mergeCell ref="A164:W164"/>
-    <mergeCell ref="D169:F169"/>
-    <mergeCell ref="O169:Q169"/>
-    <mergeCell ref="D174:F174"/>
-    <mergeCell ref="O174:Q174"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="D147:F147"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="O160:Q160"/>
-    <mergeCell ref="C187:F187"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="C190:F190"/>
-    <mergeCell ref="P190:Q190"/>
-    <mergeCell ref="O194:Q194"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="D179:F179"/>
-    <mergeCell ref="O179:Q179"/>
-    <mergeCell ref="A181:W181"/>
-    <mergeCell ref="A182:W182"/>
-    <mergeCell ref="A183:W183"/>
-    <mergeCell ref="A184:W184"/>
-    <mergeCell ref="A212:W212"/>
-    <mergeCell ref="A213:W213"/>
-    <mergeCell ref="A214:W214"/>
-    <mergeCell ref="D219:F219"/>
-    <mergeCell ref="O219:Q219"/>
-    <mergeCell ref="D222:F222"/>
-    <mergeCell ref="O199:Q199"/>
-    <mergeCell ref="D201:F201"/>
-    <mergeCell ref="O204:Q204"/>
-    <mergeCell ref="D206:F206"/>
-    <mergeCell ref="D210:F210"/>
-    <mergeCell ref="O210:Q210"/>
+    <mergeCell ref="C298:V323"/>
+    <mergeCell ref="A281:W281"/>
+    <mergeCell ref="O286:Q286"/>
+    <mergeCell ref="G288:I288"/>
+    <mergeCell ref="A294:W294"/>
+    <mergeCell ref="O273:Q273"/>
+    <mergeCell ref="P277:R277"/>
+    <mergeCell ref="A279:W279"/>
+    <mergeCell ref="A280:I280"/>
+    <mergeCell ref="K280:W280"/>
     <mergeCell ref="D265:F265"/>
     <mergeCell ref="P265:R265"/>
     <mergeCell ref="D269:F269"/>
@@ -21801,16 +21696,121 @@
     <mergeCell ref="D231:F231"/>
     <mergeCell ref="O231:Q231"/>
     <mergeCell ref="A233:W233"/>
-    <mergeCell ref="C298:V323"/>
-    <mergeCell ref="A281:W281"/>
-    <mergeCell ref="O286:Q286"/>
-    <mergeCell ref="G288:I288"/>
-    <mergeCell ref="A294:W294"/>
-    <mergeCell ref="O273:Q273"/>
-    <mergeCell ref="P277:R277"/>
-    <mergeCell ref="A279:W279"/>
-    <mergeCell ref="A280:I280"/>
-    <mergeCell ref="K280:W280"/>
+    <mergeCell ref="A212:W212"/>
+    <mergeCell ref="A213:W213"/>
+    <mergeCell ref="A214:W214"/>
+    <mergeCell ref="D219:F219"/>
+    <mergeCell ref="O219:Q219"/>
+    <mergeCell ref="D222:F222"/>
+    <mergeCell ref="O199:Q199"/>
+    <mergeCell ref="D201:F201"/>
+    <mergeCell ref="O204:Q204"/>
+    <mergeCell ref="D206:F206"/>
+    <mergeCell ref="D210:F210"/>
+    <mergeCell ref="O210:Q210"/>
+    <mergeCell ref="C187:F187"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="C190:F190"/>
+    <mergeCell ref="P190:Q190"/>
+    <mergeCell ref="O194:Q194"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="D179:F179"/>
+    <mergeCell ref="O179:Q179"/>
+    <mergeCell ref="A181:W181"/>
+    <mergeCell ref="A182:W182"/>
+    <mergeCell ref="A183:W183"/>
+    <mergeCell ref="A184:W184"/>
+    <mergeCell ref="A162:W162"/>
+    <mergeCell ref="A163:W163"/>
+    <mergeCell ref="A164:W164"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="O169:Q169"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="O174:Q174"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="O160:Q160"/>
+    <mergeCell ref="A132:W132"/>
+    <mergeCell ref="A133:W133"/>
+    <mergeCell ref="A134:W134"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="O149:Q149"/>
+    <mergeCell ref="O154:Q154"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="O139:Q139"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="O144:Q144"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="O122:Q122"/>
+    <mergeCell ref="A124:W124"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="O129:Q129"/>
+    <mergeCell ref="A131:W131"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="O110:Q110"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="O114:Q114"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="O118:Q118"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="O98:Q98"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="O102:Q102"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="O106:Q106"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="O86:Q86"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="O90:Q90"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="O78:Q78"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="A57:W57"/>
+    <mergeCell ref="A58:W58"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="O70:Q70"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="A37:W37"/>
+    <mergeCell ref="A50:W50"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="N25:V26"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:M2"/>
+    <mergeCell ref="N1:W1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="A12:W12"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C17:J17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -21863,84 +21863,84 @@
       <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="389" t="s">
+      <c r="A2" s="390" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="157" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="387">
+      <c r="C2" s="388">
         <f>Admin!B5</f>
         <v>44681</v>
       </c>
-      <c r="D2" s="386">
+      <c r="D2" s="387">
         <f>Admin!B6</f>
         <v>44712</v>
       </c>
-      <c r="E2" s="386">
+      <c r="E2" s="387">
         <f>Admin!B7</f>
         <v>44742</v>
       </c>
-      <c r="F2" s="386">
+      <c r="F2" s="387">
         <f>Admin!B8</f>
         <v>44773</v>
       </c>
-      <c r="G2" s="386">
+      <c r="G2" s="387">
         <f>Admin!B9</f>
         <v>44804</v>
       </c>
-      <c r="H2" s="386">
+      <c r="H2" s="387">
         <f>Admin!B10</f>
         <v>44834</v>
       </c>
-      <c r="I2" s="386">
+      <c r="I2" s="387">
         <f>Admin!B11</f>
         <v>44865</v>
       </c>
-      <c r="J2" s="386">
+      <c r="J2" s="387">
         <f>Admin!B12</f>
         <v>44895</v>
       </c>
-      <c r="K2" s="386">
+      <c r="K2" s="387">
         <f>Admin!B13</f>
         <v>44926</v>
       </c>
-      <c r="L2" s="386">
+      <c r="L2" s="387">
         <f>Admin!B14</f>
         <v>44957</v>
       </c>
-      <c r="M2" s="386">
+      <c r="M2" s="387">
         <f>Admin!B15</f>
         <v>44985</v>
       </c>
-      <c r="N2" s="386">
+      <c r="N2" s="387">
         <f>Admin!B16</f>
         <v>45016</v>
       </c>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="390"/>
+      <c r="A3" s="391"/>
       <c r="B3" s="158">
         <f>Admin!B$17</f>
         <v>45021</v>
       </c>
-      <c r="C3" s="388"/>
-      <c r="D3" s="386"/>
-      <c r="E3" s="386"/>
-      <c r="F3" s="386"/>
-      <c r="G3" s="386"/>
-      <c r="H3" s="386"/>
-      <c r="I3" s="386"/>
-      <c r="J3" s="386"/>
-      <c r="K3" s="386"/>
-      <c r="L3" s="386"/>
-      <c r="M3" s="386"/>
-      <c r="N3" s="386"/>
+      <c r="C3" s="389"/>
+      <c r="D3" s="387"/>
+      <c r="E3" s="387"/>
+      <c r="F3" s="387"/>
+      <c r="G3" s="387"/>
+      <c r="H3" s="387"/>
+      <c r="I3" s="387"/>
+      <c r="J3" s="387"/>
+      <c r="K3" s="387"/>
+      <c r="L3" s="387"/>
+      <c r="M3" s="387"/>
+      <c r="N3" s="387"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="390"/>
+      <c r="A4" s="391"/>
       <c r="B4" s="80" t="s">
         <v>51</v>
       </c>
@@ -24784,20 +24784,20 @@
         <f>Admin!L2</f>
         <v>2022-23</v>
       </c>
-      <c r="D2" s="391" t="s">
+      <c r="D2" s="392" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
       <c r="G2" s="120"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="96"/>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
-      <c r="D3" s="392"/>
-      <c r="E3" s="392"/>
-      <c r="F3" s="392"/>
+      <c r="D3" s="393"/>
+      <c r="E3" s="393"/>
+      <c r="F3" s="393"/>
       <c r="G3" s="120"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -24811,11 +24811,11 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="96"/>
-      <c r="B5" s="399" t="s">
+      <c r="B5" s="400" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="400"/>
-      <c r="D5" s="401"/>
+      <c r="C5" s="401"/>
+      <c r="D5" s="402"/>
       <c r="E5" s="291">
         <f>'SE Full'!O210</f>
         <v>0</v>
@@ -24844,11 +24844,11 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="96"/>
-      <c r="B7" s="402" t="s">
+      <c r="B7" s="403" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="402"/>
-      <c r="D7" s="403"/>
+      <c r="C7" s="403"/>
+      <c r="D7" s="404"/>
       <c r="E7" s="291">
         <f>IF((E5&gt;E6),(E5-E6),0)</f>
         <v>0</v>
@@ -24945,11 +24945,11 @@
       <c r="B13" s="155" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="404">
+      <c r="C13" s="405">
         <f>Admin!B21</f>
         <v>45322</v>
       </c>
-      <c r="D13" s="405"/>
+      <c r="D13" s="406"/>
       <c r="E13" s="99"/>
       <c r="F13" s="123"/>
       <c r="G13" s="121"/>
@@ -24967,13 +24967,13 @@
     </row>
     <row r="15" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="96"/>
-      <c r="B15" s="406" t="s">
+      <c r="B15" s="407" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="407"/>
+      <c r="C15" s="408"/>
       <c r="D15" s="144">
         <f>Admin!L20</f>
-        <v>0.10249999999999999</v>
+        <v>9.7299999999999998E-2</v>
       </c>
       <c r="E15" s="102">
         <f>IF(E5&gt;Admin!N20,IF(E5&lt;Admin!N$23,(E5-Admin!N20)*D15,(Admin!N$23-Admin!N20)*D15),0)</f>
@@ -24985,13 +24985,13 @@
     </row>
     <row r="16" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="96"/>
-      <c r="B16" s="406" t="s">
+      <c r="B16" s="407" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="407"/>
+      <c r="C16" s="408"/>
       <c r="D16" s="144">
         <f>Admin!L23</f>
-        <v>3.2500000000000001E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="E16" s="102">
         <f>IF((E5&gt;Admin!N$23),((E5-Admin!N$23)*D16),0)</f>
@@ -25013,10 +25013,10 @@
     </row>
     <row r="18" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="96"/>
-      <c r="B18" s="408" t="s">
+      <c r="B18" s="409" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="407"/>
+      <c r="C18" s="408"/>
       <c r="D18" s="103"/>
       <c r="E18" s="292">
         <f>SUM(E10:E17)</f>
@@ -25050,11 +25050,11 @@
         <v>15</v>
       </c>
       <c r="C21" s="140"/>
-      <c r="D21" s="393" t="s">
+      <c r="D21" s="394" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="394"/>
-      <c r="F21" s="395"/>
+      <c r="E21" s="395"/>
+      <c r="F21" s="396"/>
       <c r="G21" s="96"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -25070,10 +25070,10 @@
       <c r="A23" s="109"/>
       <c r="B23" s="108"/>
       <c r="C23" s="108"/>
-      <c r="D23" s="396" t="s">
+      <c r="D23" s="397" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="398" t="s">
+      <c r="E23" s="399" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="124"/>
@@ -25083,8 +25083,8 @@
       <c r="A24" s="109"/>
       <c r="B24" s="108"/>
       <c r="C24" s="108"/>
-      <c r="D24" s="397"/>
-      <c r="E24" s="397"/>
+      <c r="D24" s="398"/>
+      <c r="E24" s="398"/>
       <c r="F24" s="124"/>
       <c r="G24" s="120"/>
     </row>
@@ -25328,10 +25328,10 @@
     </row>
     <row r="3" spans="1:12" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
-      <c r="B3" s="409" t="s">
+      <c r="B3" s="410" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="410"/>
+      <c r="C3" s="411"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="23"/>
-      <c r="K4" s="411" t="s">
+      <c r="K4" s="412" t="s">
         <v>29</v>
       </c>
       <c r="L4" s="24"/>
@@ -25417,7 +25417,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="23"/>
-      <c r="K5" s="412"/>
+      <c r="K5" s="413"/>
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -25455,7 +25455,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="23"/>
-      <c r="K6" s="412"/>
+      <c r="K6" s="413"/>
       <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -25493,7 +25493,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="23"/>
-      <c r="K7" s="412"/>
+      <c r="K7" s="413"/>
       <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -25531,7 +25531,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="23"/>
-      <c r="K8" s="411" t="s">
+      <c r="K8" s="412" t="s">
         <v>30</v>
       </c>
       <c r="L8" s="24"/>
@@ -25571,7 +25571,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="23"/>
-      <c r="K9" s="412"/>
+      <c r="K9" s="413"/>
       <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="23"/>
-      <c r="K10" s="412"/>
+      <c r="K10" s="413"/>
       <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -25647,7 +25647,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="23"/>
-      <c r="K11" s="412"/>
+      <c r="K11" s="413"/>
       <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="23"/>
-      <c r="K12" s="411"/>
+      <c r="K12" s="412"/>
       <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -25723,7 +25723,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="23"/>
-      <c r="K13" s="412"/>
+      <c r="K13" s="413"/>
       <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -25761,7 +25761,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="23"/>
-      <c r="K14" s="412"/>
+      <c r="K14" s="413"/>
       <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -25882,29 +25882,29 @@
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
-      <c r="H1" s="420" t="s">
+      <c r="H1" s="414" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="421"/>
-      <c r="J1" s="421"/>
-      <c r="K1" s="421"/>
-      <c r="L1" s="422"/>
+      <c r="I1" s="415"/>
+      <c r="J1" s="415"/>
+      <c r="K1" s="415"/>
+      <c r="L1" s="416"/>
       <c r="M1" s="32"/>
-      <c r="N1" s="420" t="s">
+      <c r="N1" s="414" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="421"/>
-      <c r="P1" s="421"/>
-      <c r="Q1" s="421"/>
-      <c r="R1" s="422"/>
+      <c r="O1" s="415"/>
+      <c r="P1" s="415"/>
+      <c r="Q1" s="415"/>
+      <c r="R1" s="416"/>
       <c r="S1" s="32"/>
-      <c r="T1" s="420" t="s">
+      <c r="T1" s="414" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="421"/>
-      <c r="V1" s="421"/>
-      <c r="W1" s="421"/>
-      <c r="X1" s="422"/>
+      <c r="U1" s="415"/>
+      <c r="V1" s="415"/>
+      <c r="W1" s="415"/>
+      <c r="X1" s="416"/>
       <c r="Y1" s="33"/>
       <c r="Z1" s="32"/>
       <c r="AA1" s="32"/>
@@ -25974,12 +25974,12 @@
         <v>43</v>
       </c>
       <c r="AC2" s="44"/>
-      <c r="AD2" s="423" t="s">
+      <c r="AD2" s="417" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="424"/>
-      <c r="AF2" s="424"/>
-      <c r="AG2" s="425"/>
+      <c r="AE2" s="418"/>
+      <c r="AF2" s="418"/>
+      <c r="AG2" s="419"/>
       <c r="AH2" s="44"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.15">
@@ -26012,23 +26012,23 @@
       <c r="AA3" s="48"/>
       <c r="AB3" s="48"/>
       <c r="AC3" s="24"/>
-      <c r="AD3" s="413" t="s">
+      <c r="AD3" s="420" t="s">
         <v>393</v>
       </c>
-      <c r="AE3" s="416"/>
-      <c r="AF3" s="416"/>
-      <c r="AG3" s="416"/>
+      <c r="AE3" s="423"/>
+      <c r="AF3" s="423"/>
+      <c r="AG3" s="423"/>
       <c r="AH3" s="24"/>
     </row>
     <row r="4" spans="1:34" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
-      <c r="B4" s="417" t="s">
+      <c r="B4" s="424" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="418"/>
-      <c r="D4" s="418"/>
-      <c r="E4" s="419"/>
-      <c r="F4" s="419"/>
+      <c r="C4" s="425"/>
+      <c r="D4" s="425"/>
+      <c r="E4" s="426"/>
+      <c r="F4" s="426"/>
       <c r="G4" s="48"/>
       <c r="H4" s="52">
         <v>0</v>
@@ -26058,10 +26058,10 @@
       <c r="AA4" s="48"/>
       <c r="AB4" s="48"/>
       <c r="AC4" s="24"/>
-      <c r="AD4" s="415"/>
-      <c r="AE4" s="416"/>
-      <c r="AF4" s="416"/>
-      <c r="AG4" s="416"/>
+      <c r="AD4" s="422"/>
+      <c r="AE4" s="423"/>
+      <c r="AF4" s="423"/>
+      <c r="AG4" s="423"/>
       <c r="AH4" s="24"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.15">
@@ -26094,10 +26094,10 @@
       <c r="AA5" s="54"/>
       <c r="AB5" s="54"/>
       <c r="AC5" s="24"/>
-      <c r="AD5" s="415"/>
-      <c r="AE5" s="416"/>
-      <c r="AF5" s="416"/>
-      <c r="AG5" s="416"/>
+      <c r="AD5" s="422"/>
+      <c r="AE5" s="423"/>
+      <c r="AF5" s="423"/>
+      <c r="AG5" s="423"/>
       <c r="AH5" s="24"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.15">
@@ -26136,10 +26136,10 @@
       <c r="AA6" s="54"/>
       <c r="AB6" s="62"/>
       <c r="AC6" s="24"/>
-      <c r="AD6" s="415"/>
-      <c r="AE6" s="416"/>
-      <c r="AF6" s="416"/>
-      <c r="AG6" s="416"/>
+      <c r="AD6" s="422"/>
+      <c r="AE6" s="423"/>
+      <c r="AF6" s="423"/>
+      <c r="AG6" s="423"/>
       <c r="AH6" s="24"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.15">
@@ -26172,10 +26172,10 @@
       <c r="AA7" s="54"/>
       <c r="AB7" s="54"/>
       <c r="AC7" s="24"/>
-      <c r="AD7" s="415"/>
-      <c r="AE7" s="416"/>
-      <c r="AF7" s="416"/>
-      <c r="AG7" s="416"/>
+      <c r="AD7" s="422"/>
+      <c r="AE7" s="423"/>
+      <c r="AF7" s="423"/>
+      <c r="AG7" s="423"/>
       <c r="AH7" s="24"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.15">
@@ -26250,10 +26250,10 @@
         <v>0</v>
       </c>
       <c r="AC8" s="24"/>
-      <c r="AD8" s="415"/>
-      <c r="AE8" s="416"/>
-      <c r="AF8" s="416"/>
-      <c r="AG8" s="416"/>
+      <c r="AD8" s="422"/>
+      <c r="AE8" s="423"/>
+      <c r="AF8" s="423"/>
+      <c r="AG8" s="423"/>
       <c r="AH8" s="24"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.15">
@@ -26286,10 +26286,10 @@
       <c r="AA9" s="54"/>
       <c r="AB9" s="54"/>
       <c r="AC9" s="24"/>
-      <c r="AD9" s="415"/>
-      <c r="AE9" s="416"/>
-      <c r="AF9" s="416"/>
-      <c r="AG9" s="416"/>
+      <c r="AD9" s="422"/>
+      <c r="AE9" s="423"/>
+      <c r="AF9" s="423"/>
+      <c r="AG9" s="423"/>
       <c r="AH9" s="24"/>
     </row>
     <row r="10" spans="1:34" ht="13" x14ac:dyDescent="0.15">
@@ -26400,12 +26400,12 @@
       <c r="AA11" s="54"/>
       <c r="AB11" s="54"/>
       <c r="AC11" s="24"/>
-      <c r="AD11" s="413" t="s">
+      <c r="AD11" s="420" t="s">
         <v>46</v>
       </c>
-      <c r="AE11" s="416"/>
-      <c r="AF11" s="416"/>
-      <c r="AG11" s="416"/>
+      <c r="AE11" s="423"/>
+      <c r="AF11" s="423"/>
+      <c r="AG11" s="423"/>
       <c r="AH11" s="24"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.15">
@@ -26480,10 +26480,10 @@
         <v>0</v>
       </c>
       <c r="AC12" s="24"/>
-      <c r="AD12" s="415"/>
-      <c r="AE12" s="416"/>
-      <c r="AF12" s="416"/>
-      <c r="AG12" s="416"/>
+      <c r="AD12" s="422"/>
+      <c r="AE12" s="423"/>
+      <c r="AF12" s="423"/>
+      <c r="AG12" s="423"/>
       <c r="AH12" s="24"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.15">
@@ -26516,10 +26516,10 @@
       <c r="AA13" s="54"/>
       <c r="AB13" s="54"/>
       <c r="AC13" s="24"/>
-      <c r="AD13" s="415"/>
-      <c r="AE13" s="416"/>
-      <c r="AF13" s="416"/>
-      <c r="AG13" s="416"/>
+      <c r="AD13" s="422"/>
+      <c r="AE13" s="423"/>
+      <c r="AF13" s="423"/>
+      <c r="AG13" s="423"/>
       <c r="AH13" s="24"/>
     </row>
     <row r="14" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -26630,12 +26630,12 @@
       <c r="AA15" s="54"/>
       <c r="AB15" s="54"/>
       <c r="AC15" s="24"/>
-      <c r="AD15" s="413" t="s">
+      <c r="AD15" s="420" t="s">
         <v>394</v>
       </c>
-      <c r="AE15" s="414"/>
-      <c r="AF15" s="414"/>
-      <c r="AG15" s="414"/>
+      <c r="AE15" s="421"/>
+      <c r="AF15" s="421"/>
+      <c r="AG15" s="421"/>
       <c r="AH15" s="24"/>
     </row>
     <row r="16" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="AC16" s="24"/>
-      <c r="AD16" s="413"/>
-      <c r="AE16" s="414"/>
-      <c r="AF16" s="414"/>
-      <c r="AG16" s="414"/>
+      <c r="AD16" s="420"/>
+      <c r="AE16" s="421"/>
+      <c r="AF16" s="421"/>
+      <c r="AG16" s="421"/>
       <c r="AH16" s="24"/>
     </row>
     <row r="17" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -26746,10 +26746,10 @@
       <c r="AA17" s="54"/>
       <c r="AB17" s="54"/>
       <c r="AC17" s="24"/>
-      <c r="AD17" s="413"/>
-      <c r="AE17" s="414"/>
-      <c r="AF17" s="414"/>
-      <c r="AG17" s="414"/>
+      <c r="AD17" s="420"/>
+      <c r="AE17" s="421"/>
+      <c r="AF17" s="421"/>
+      <c r="AG17" s="421"/>
       <c r="AH17" s="24"/>
     </row>
     <row r="18" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -26860,12 +26860,12 @@
       <c r="AA19" s="54"/>
       <c r="AB19" s="54"/>
       <c r="AC19" s="24"/>
-      <c r="AD19" s="413" t="s">
+      <c r="AD19" s="420" t="s">
         <v>47</v>
       </c>
-      <c r="AE19" s="414"/>
-      <c r="AF19" s="414"/>
-      <c r="AG19" s="414"/>
+      <c r="AE19" s="421"/>
+      <c r="AF19" s="421"/>
+      <c r="AG19" s="421"/>
       <c r="AH19" s="24"/>
     </row>
     <row r="20" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -26940,10 +26940,10 @@
         <v>0</v>
       </c>
       <c r="AC20" s="24"/>
-      <c r="AD20" s="413"/>
-      <c r="AE20" s="414"/>
-      <c r="AF20" s="414"/>
-      <c r="AG20" s="414"/>
+      <c r="AD20" s="420"/>
+      <c r="AE20" s="421"/>
+      <c r="AF20" s="421"/>
+      <c r="AG20" s="421"/>
       <c r="AH20" s="24"/>
     </row>
     <row r="21" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -26976,10 +26976,10 @@
       <c r="AA21" s="54"/>
       <c r="AB21" s="54"/>
       <c r="AC21" s="24"/>
-      <c r="AD21" s="413"/>
-      <c r="AE21" s="414"/>
-      <c r="AF21" s="414"/>
-      <c r="AG21" s="414"/>
+      <c r="AD21" s="420"/>
+      <c r="AE21" s="421"/>
+      <c r="AF21" s="421"/>
+      <c r="AG21" s="421"/>
       <c r="AH21" s="24"/>
     </row>
     <row r="22" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -27090,12 +27090,12 @@
       <c r="AA23" s="54"/>
       <c r="AB23" s="54"/>
       <c r="AC23" s="24"/>
-      <c r="AD23" s="413" t="s">
+      <c r="AD23" s="420" t="s">
         <v>48</v>
       </c>
-      <c r="AE23" s="414"/>
-      <c r="AF23" s="414"/>
-      <c r="AG23" s="414"/>
+      <c r="AE23" s="421"/>
+      <c r="AF23" s="421"/>
+      <c r="AG23" s="421"/>
       <c r="AH23" s="24"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.15">
@@ -27170,10 +27170,10 @@
         <v>0</v>
       </c>
       <c r="AC24" s="24"/>
-      <c r="AD24" s="413"/>
-      <c r="AE24" s="414"/>
-      <c r="AF24" s="414"/>
-      <c r="AG24" s="414"/>
+      <c r="AD24" s="420"/>
+      <c r="AE24" s="421"/>
+      <c r="AF24" s="421"/>
+      <c r="AG24" s="421"/>
       <c r="AH24" s="24"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.15">
@@ -27206,10 +27206,10 @@
       <c r="AA25" s="54"/>
       <c r="AB25" s="54"/>
       <c r="AC25" s="24"/>
-      <c r="AD25" s="413"/>
-      <c r="AE25" s="414"/>
-      <c r="AF25" s="414"/>
-      <c r="AG25" s="414"/>
+      <c r="AD25" s="420"/>
+      <c r="AE25" s="421"/>
+      <c r="AF25" s="421"/>
+      <c r="AG25" s="421"/>
       <c r="AH25" s="24"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.15">
@@ -27284,10 +27284,10 @@
         <v>0</v>
       </c>
       <c r="AC26" s="24"/>
-      <c r="AD26" s="415"/>
-      <c r="AE26" s="416"/>
-      <c r="AF26" s="416"/>
-      <c r="AG26" s="416"/>
+      <c r="AD26" s="422"/>
+      <c r="AE26" s="423"/>
+      <c r="AF26" s="423"/>
+      <c r="AG26" s="423"/>
       <c r="AH26" s="24"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.15">
@@ -27398,12 +27398,12 @@
         <v>0</v>
       </c>
       <c r="AC28" s="24"/>
-      <c r="AD28" s="413" t="s">
+      <c r="AD28" s="420" t="s">
         <v>49</v>
       </c>
-      <c r="AE28" s="414"/>
-      <c r="AF28" s="414"/>
-      <c r="AG28" s="414"/>
+      <c r="AE28" s="421"/>
+      <c r="AF28" s="421"/>
+      <c r="AG28" s="421"/>
       <c r="AH28" s="24"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.15">
@@ -27436,10 +27436,10 @@
       <c r="AA29" s="54"/>
       <c r="AB29" s="54"/>
       <c r="AC29" s="24"/>
-      <c r="AD29" s="413"/>
-      <c r="AE29" s="414"/>
-      <c r="AF29" s="414"/>
-      <c r="AG29" s="414"/>
+      <c r="AD29" s="420"/>
+      <c r="AE29" s="421"/>
+      <c r="AF29" s="421"/>
+      <c r="AG29" s="421"/>
       <c r="AH29" s="24"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.15">
@@ -27514,10 +27514,10 @@
         <v>0</v>
       </c>
       <c r="AC30" s="24"/>
-      <c r="AD30" s="415"/>
-      <c r="AE30" s="416"/>
-      <c r="AF30" s="416"/>
-      <c r="AG30" s="416"/>
+      <c r="AD30" s="422"/>
+      <c r="AE30" s="423"/>
+      <c r="AF30" s="423"/>
+      <c r="AG30" s="423"/>
       <c r="AH30" s="24"/>
     </row>
     <row r="31" spans="1:34" ht="13" thickBot="1" x14ac:dyDescent="0.2">
@@ -27558,17 +27558,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD19:AG21"/>
     <mergeCell ref="AD28:AG30"/>
     <mergeCell ref="AD3:AG9"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="AD11:AG13"/>
     <mergeCell ref="AD15:AG17"/>
     <mergeCell ref="AD23:AG26"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD19:AG21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27616,57 +27616,57 @@
     </row>
     <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="23"/>
-      <c r="B2" s="432" t="s">
+      <c r="B2" s="427" t="s">
         <v>132</v>
       </c>
       <c r="C2" s="157" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="387">
+      <c r="D2" s="388">
         <f>Admin!B5</f>
         <v>44681</v>
       </c>
-      <c r="E2" s="386">
+      <c r="E2" s="387">
         <f>Admin!B6</f>
         <v>44712</v>
       </c>
-      <c r="F2" s="386">
+      <c r="F2" s="387">
         <f>Admin!B7</f>
         <v>44742</v>
       </c>
-      <c r="G2" s="386">
+      <c r="G2" s="387">
         <f>Admin!B8</f>
         <v>44773</v>
       </c>
-      <c r="H2" s="386">
+      <c r="H2" s="387">
         <f>Admin!B9</f>
         <v>44804</v>
       </c>
-      <c r="I2" s="386">
+      <c r="I2" s="387">
         <f>Admin!B10</f>
         <v>44834</v>
       </c>
-      <c r="J2" s="386">
+      <c r="J2" s="387">
         <f>Admin!B11</f>
         <v>44865</v>
       </c>
-      <c r="K2" s="386">
+      <c r="K2" s="387">
         <f>Admin!B12</f>
         <v>44895</v>
       </c>
-      <c r="L2" s="386">
+      <c r="L2" s="387">
         <f>Admin!B13</f>
         <v>44926</v>
       </c>
-      <c r="M2" s="386">
+      <c r="M2" s="387">
         <f>Admin!B14</f>
         <v>44957</v>
       </c>
-      <c r="N2" s="386">
+      <c r="N2" s="387">
         <f>Admin!B15</f>
         <v>44985</v>
       </c>
-      <c r="O2" s="386">
+      <c r="O2" s="387">
         <f>Admin!B16</f>
         <v>45016</v>
       </c>
@@ -27674,28 +27674,28 @@
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23"/>
-      <c r="B3" s="433"/>
+      <c r="B3" s="428"/>
       <c r="C3" s="158">
         <f>Admin!B$17</f>
         <v>45021</v>
       </c>
-      <c r="D3" s="388"/>
-      <c r="E3" s="386"/>
-      <c r="F3" s="386"/>
-      <c r="G3" s="386"/>
-      <c r="H3" s="386"/>
-      <c r="I3" s="386"/>
-      <c r="J3" s="386"/>
-      <c r="K3" s="386"/>
-      <c r="L3" s="386"/>
-      <c r="M3" s="386"/>
-      <c r="N3" s="386"/>
-      <c r="O3" s="386"/>
+      <c r="D3" s="389"/>
+      <c r="E3" s="387"/>
+      <c r="F3" s="387"/>
+      <c r="G3" s="387"/>
+      <c r="H3" s="387"/>
+      <c r="I3" s="387"/>
+      <c r="J3" s="387"/>
+      <c r="K3" s="387"/>
+      <c r="L3" s="387"/>
+      <c r="M3" s="387"/>
+      <c r="N3" s="387"/>
+      <c r="O3" s="387"/>
       <c r="P3" s="23"/>
     </row>
     <row r="4" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23"/>
-      <c r="B4" s="431"/>
+      <c r="B4" s="429"/>
       <c r="C4" s="156" t="s">
         <v>51</v>
       </c>
@@ -28319,57 +28319,57 @@
     </row>
     <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="23"/>
-      <c r="B19" s="429" t="s">
+      <c r="B19" s="430" t="s">
         <v>133</v>
       </c>
       <c r="C19" s="157" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="387">
+      <c r="D19" s="388">
         <f t="shared" ref="D19:O19" si="3">D2</f>
         <v>44681</v>
       </c>
-      <c r="E19" s="387">
+      <c r="E19" s="388">
         <f t="shared" si="3"/>
         <v>44712</v>
       </c>
-      <c r="F19" s="387">
+      <c r="F19" s="388">
         <f t="shared" si="3"/>
         <v>44742</v>
       </c>
-      <c r="G19" s="387">
+      <c r="G19" s="388">
         <f t="shared" si="3"/>
         <v>44773</v>
       </c>
-      <c r="H19" s="387">
+      <c r="H19" s="388">
         <f t="shared" si="3"/>
         <v>44804</v>
       </c>
-      <c r="I19" s="387">
+      <c r="I19" s="388">
         <f t="shared" si="3"/>
         <v>44834</v>
       </c>
-      <c r="J19" s="387">
+      <c r="J19" s="388">
         <f t="shared" si="3"/>
         <v>44865</v>
       </c>
-      <c r="K19" s="387">
+      <c r="K19" s="388">
         <f t="shared" si="3"/>
         <v>44895</v>
       </c>
-      <c r="L19" s="387">
+      <c r="L19" s="388">
         <f t="shared" si="3"/>
         <v>44926</v>
       </c>
-      <c r="M19" s="387">
+      <c r="M19" s="388">
         <f t="shared" si="3"/>
         <v>44957</v>
       </c>
-      <c r="N19" s="387">
+      <c r="N19" s="388">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="O19" s="387">
+      <c r="O19" s="388">
         <f t="shared" si="3"/>
         <v>45016</v>
       </c>
@@ -28377,28 +28377,28 @@
     </row>
     <row r="20" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="23"/>
-      <c r="B20" s="430"/>
+      <c r="B20" s="431"/>
       <c r="C20" s="158">
         <f>Admin!B$17</f>
         <v>45021</v>
       </c>
-      <c r="D20" s="426"/>
-      <c r="E20" s="426"/>
-      <c r="F20" s="426"/>
-      <c r="G20" s="426"/>
-      <c r="H20" s="426"/>
-      <c r="I20" s="426"/>
-      <c r="J20" s="426"/>
-      <c r="K20" s="426"/>
-      <c r="L20" s="426"/>
-      <c r="M20" s="426"/>
-      <c r="N20" s="426"/>
-      <c r="O20" s="426"/>
+      <c r="D20" s="432"/>
+      <c r="E20" s="432"/>
+      <c r="F20" s="432"/>
+      <c r="G20" s="432"/>
+      <c r="H20" s="432"/>
+      <c r="I20" s="432"/>
+      <c r="J20" s="432"/>
+      <c r="K20" s="432"/>
+      <c r="L20" s="432"/>
+      <c r="M20" s="432"/>
+      <c r="N20" s="432"/>
+      <c r="O20" s="432"/>
       <c r="P20" s="23"/>
     </row>
     <row r="21" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
-      <c r="B21" s="431"/>
+      <c r="B21" s="429"/>
       <c r="C21" s="129">
         <f>SUM(D21:O21)</f>
         <v>0</v>
@@ -29035,10 +29035,10 @@
     </row>
     <row r="36" spans="1:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
-      <c r="B36" s="427" t="s">
+      <c r="B36" s="433" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="428"/>
+      <c r="C36" s="434"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
@@ -29298,12 +29298,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="D19:D20"/>
@@ -29320,11 +29319,12 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -29368,9 +29368,9 @@
         <v>91</v>
       </c>
       <c r="C1" s="147"/>
-      <c r="D1" s="438"/>
-      <c r="E1" s="438"/>
-      <c r="F1" s="438"/>
+      <c r="D1" s="439"/>
+      <c r="E1" s="439"/>
+      <c r="F1" s="439"/>
       <c r="G1" s="162"/>
       <c r="H1" s="147"/>
       <c r="I1" s="147"/>
@@ -29387,21 +29387,21 @@
         <v>44620</v>
       </c>
       <c r="C2" s="147"/>
-      <c r="D2" s="439" t="s">
+      <c r="D2" s="435" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="439"/>
-      <c r="F2" s="439"/>
+      <c r="E2" s="435"/>
+      <c r="F2" s="435"/>
       <c r="G2" s="287" t="str">
         <f>B23</f>
         <v>2022-23</v>
       </c>
       <c r="H2" s="147"/>
       <c r="I2" s="147"/>
-      <c r="J2" s="434" t="s">
+      <c r="J2" s="440" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="434"/>
+      <c r="K2" s="440"/>
       <c r="L2" s="165" t="str">
         <f>G2</f>
         <v>2022-23</v>
@@ -29435,22 +29435,22 @@
         <v>44657</v>
       </c>
       <c r="C4" s="147"/>
-      <c r="D4" s="435" t="s">
+      <c r="D4" s="436" t="s">
         <v>339</v>
       </c>
-      <c r="E4" s="435"/>
-      <c r="F4" s="435"/>
+      <c r="E4" s="436"/>
+      <c r="F4" s="436"/>
       <c r="G4" s="148">
         <v>1</v>
       </c>
       <c r="H4" s="147"/>
-      <c r="I4" s="435" t="s">
+      <c r="I4" s="436" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="435"/>
-      <c r="K4" s="435"/>
-      <c r="L4" s="435"/>
-      <c r="M4" s="435"/>
+      <c r="J4" s="436"/>
+      <c r="K4" s="436"/>
+      <c r="L4" s="436"/>
+      <c r="M4" s="436"/>
       <c r="N4" s="145">
         <v>12570</v>
       </c>
@@ -29464,11 +29464,11 @@
         <v>44681</v>
       </c>
       <c r="C5" s="147"/>
-      <c r="D5" s="435" t="s">
+      <c r="D5" s="436" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="435"/>
-      <c r="F5" s="435"/>
+      <c r="E5" s="436"/>
+      <c r="F5" s="436"/>
       <c r="G5" s="148">
         <v>0.18</v>
       </c>
@@ -29492,13 +29492,13 @@
       <c r="F6" s="147"/>
       <c r="G6" s="146"/>
       <c r="H6" s="147"/>
-      <c r="I6" s="435" t="s">
+      <c r="I6" s="436" t="s">
         <v>130</v>
       </c>
-      <c r="J6" s="435"/>
-      <c r="K6" s="435"/>
-      <c r="L6" s="435"/>
-      <c r="M6" s="435"/>
+      <c r="J6" s="436"/>
+      <c r="K6" s="436"/>
+      <c r="L6" s="436"/>
+      <c r="M6" s="436"/>
       <c r="N6" s="148">
         <v>0.2</v>
       </c>
@@ -29512,20 +29512,20 @@
         <v>44742</v>
       </c>
       <c r="C7" s="147"/>
-      <c r="D7" s="435" t="s">
+      <c r="D7" s="436" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="435"/>
-      <c r="F7" s="435"/>
+      <c r="E7" s="436"/>
+      <c r="F7" s="436"/>
       <c r="G7" s="146"/>
       <c r="H7" s="147"/>
-      <c r="I7" s="435" t="s">
+      <c r="I7" s="436" t="s">
         <v>131</v>
       </c>
-      <c r="J7" s="435"/>
-      <c r="K7" s="435"/>
-      <c r="L7" s="435"/>
-      <c r="M7" s="435"/>
+      <c r="J7" s="436"/>
+      <c r="K7" s="436"/>
+      <c r="L7" s="436"/>
+      <c r="M7" s="436"/>
       <c r="N7" s="148">
         <v>0.4</v>
       </c>
@@ -29571,11 +29571,11 @@
       <c r="F9" s="147"/>
       <c r="G9" s="146"/>
       <c r="H9" s="147"/>
-      <c r="I9" s="435" t="s">
+      <c r="I9" s="436" t="s">
         <v>111</v>
       </c>
-      <c r="J9" s="436"/>
-      <c r="K9" s="436"/>
+      <c r="J9" s="441"/>
+      <c r="K9" s="441"/>
       <c r="L9" s="149" t="s">
         <v>112</v>
       </c>
@@ -29612,11 +29612,11 @@
         <v>44865</v>
       </c>
       <c r="C11" s="147"/>
-      <c r="D11" s="439" t="s">
+      <c r="D11" s="435" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="439"/>
-      <c r="F11" s="439"/>
+      <c r="E11" s="435"/>
+      <c r="F11" s="435"/>
       <c r="G11" s="146" t="s">
         <v>105</v>
       </c>
@@ -29673,11 +29673,11 @@
         <v>44926</v>
       </c>
       <c r="C13" s="147"/>
-      <c r="D13" s="435" t="s">
+      <c r="D13" s="436" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="435"/>
-      <c r="F13" s="435"/>
+      <c r="E13" s="436"/>
+      <c r="F13" s="436"/>
       <c r="G13" s="148">
         <v>0</v>
       </c>
@@ -29696,20 +29696,20 @@
         <v>44957</v>
       </c>
       <c r="C14" s="147"/>
-      <c r="D14" s="435" t="s">
+      <c r="D14" s="436" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="435"/>
-      <c r="F14" s="435"/>
+      <c r="E14" s="436"/>
+      <c r="F14" s="436"/>
       <c r="G14" s="148">
         <v>0.1</v>
       </c>
       <c r="H14" s="147"/>
-      <c r="I14" s="437" t="s">
+      <c r="I14" s="442" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="437"/>
-      <c r="K14" s="437"/>
+      <c r="J14" s="442"/>
+      <c r="K14" s="442"/>
       <c r="L14" s="167" t="str">
         <f>G2</f>
         <v>2022-23</v>
@@ -29724,11 +29724,11 @@
         <v>44985</v>
       </c>
       <c r="C15" s="147"/>
-      <c r="D15" s="435" t="s">
+      <c r="D15" s="436" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="435"/>
-      <c r="F15" s="435"/>
+      <c r="E15" s="436"/>
+      <c r="F15" s="436"/>
       <c r="G15" s="148">
         <v>0.2</v>
       </c>
@@ -29747,20 +29747,20 @@
         <v>45016</v>
       </c>
       <c r="C16" s="147"/>
-      <c r="D16" s="435" t="s">
+      <c r="D16" s="436" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="435"/>
-      <c r="F16" s="435"/>
+      <c r="E16" s="436"/>
+      <c r="F16" s="436"/>
       <c r="G16" s="148">
         <v>0.33</v>
       </c>
       <c r="H16" s="147"/>
-      <c r="I16" s="435" t="s">
+      <c r="I16" s="436" t="s">
         <v>122</v>
       </c>
-      <c r="J16" s="435"/>
-      <c r="K16" s="435"/>
+      <c r="J16" s="436"/>
+      <c r="K16" s="436"/>
       <c r="L16" s="168">
         <v>3.15</v>
       </c>
@@ -29774,11 +29774,11 @@
         <v>45021</v>
       </c>
       <c r="C17" s="147"/>
-      <c r="D17" s="435" t="s">
+      <c r="D17" s="436" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="435"/>
-      <c r="F17" s="435"/>
+      <c r="E17" s="436"/>
+      <c r="F17" s="436"/>
       <c r="G17" s="148">
         <v>0.25</v>
       </c>
@@ -29816,10 +29816,10 @@
         <v>45077</v>
       </c>
       <c r="C19" s="147"/>
-      <c r="D19" s="439" t="s">
+      <c r="D19" s="435" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="439"/>
+      <c r="E19" s="435"/>
       <c r="F19" s="146" t="s">
         <v>108</v>
       </c>
@@ -29827,13 +29827,13 @@
         <v>104</v>
       </c>
       <c r="H19" s="147"/>
-      <c r="I19" s="440" t="s">
+      <c r="I19" s="438" t="s">
         <v>123</v>
       </c>
-      <c r="J19" s="440"/>
-      <c r="K19" s="440"/>
+      <c r="J19" s="438"/>
+      <c r="K19" s="438"/>
       <c r="L19" s="147"/>
-      <c r="M19" s="441" t="s">
+      <c r="M19" s="437" t="s">
         <v>389</v>
       </c>
       <c r="N19" s="147"/>
@@ -29850,15 +29850,15 @@
       <c r="F20" s="146"/>
       <c r="G20" s="146"/>
       <c r="H20" s="147"/>
-      <c r="I20" s="440"/>
-      <c r="J20" s="440"/>
-      <c r="K20" s="440"/>
-      <c r="L20" s="442">
-        <v>0.10249999999999999</v>
-      </c>
-      <c r="M20" s="441"/>
+      <c r="I20" s="438"/>
+      <c r="J20" s="438"/>
+      <c r="K20" s="438"/>
+      <c r="L20" s="294">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="M20" s="437"/>
       <c r="N20" s="152">
-        <v>9880</v>
+        <v>11908</v>
       </c>
       <c r="O20" s="146" t="s">
         <v>51</v>
@@ -29870,10 +29870,10 @@
         <v>45322</v>
       </c>
       <c r="C21" s="147"/>
-      <c r="D21" s="435" t="s">
+      <c r="D21" s="436" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="435"/>
+      <c r="E21" s="436"/>
       <c r="F21" s="152">
         <v>10000</v>
       </c>
@@ -29906,13 +29906,13 @@
         <v>0.25</v>
       </c>
       <c r="H22" s="147"/>
-      <c r="I22" s="440" t="s">
+      <c r="I22" s="438" t="s">
         <v>124</v>
       </c>
-      <c r="J22" s="440"/>
-      <c r="K22" s="440"/>
+      <c r="J22" s="438"/>
+      <c r="K22" s="438"/>
       <c r="L22" s="147"/>
-      <c r="M22" s="441" t="s">
+      <c r="M22" s="437" t="s">
         <v>390</v>
       </c>
       <c r="N22" s="147"/>
@@ -29929,13 +29929,13 @@
       <c r="F23" s="146"/>
       <c r="G23" s="170"/>
       <c r="H23" s="147"/>
-      <c r="I23" s="440"/>
-      <c r="J23" s="440"/>
-      <c r="K23" s="440"/>
-      <c r="L23" s="442">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="M23" s="441"/>
+      <c r="I23" s="438"/>
+      <c r="J23" s="438"/>
+      <c r="K23" s="438"/>
+      <c r="L23" s="294">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="M23" s="437"/>
       <c r="N23" s="152">
         <v>50270</v>
       </c>
@@ -29949,10 +29949,10 @@
         <v>397</v>
       </c>
       <c r="C24" s="147"/>
-      <c r="D24" s="439" t="s">
+      <c r="D24" s="435" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="439"/>
+      <c r="E24" s="435"/>
       <c r="F24" s="147"/>
       <c r="G24" s="147"/>
       <c r="H24" s="147"/>
@@ -29985,10 +29985,10 @@
       <c r="A26" s="147"/>
       <c r="B26" s="171"/>
       <c r="C26" s="147"/>
-      <c r="D26" s="435" t="s">
+      <c r="D26" s="436" t="s">
         <v>391</v>
       </c>
-      <c r="E26" s="435"/>
+      <c r="E26" s="436"/>
       <c r="F26" s="152">
         <v>85000</v>
       </c>
@@ -30042,12 +30042,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="I22:K23"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="I19:K20"/>
     <mergeCell ref="D19:E19"/>
@@ -30055,19 +30062,12 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="I22:K23"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
